--- a/data/近二十年各产业投资情况数据表.xlsx
+++ b/data/近二十年各产业投资情况数据表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实操\vscode实操\华数杯国际模板01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEEE1A3-7F4B-491D-9321-53114258E4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9BF6F6-D163-4522-9CAE-1B86C671C1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -129,14 +132,13 @@
   </si>
   <si>
     <t>Years</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,14 +170,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF060607"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -240,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,9 +255,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,6 +484,616 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="D2">
+            <v>1775.2</v>
+          </cell>
+          <cell r="E2">
+            <v>14689.5</v>
+          </cell>
+          <cell r="F2">
+            <v>3962.4</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3">
+            <v>2395.9</v>
+          </cell>
+          <cell r="E3">
+            <v>19685.5</v>
+          </cell>
+          <cell r="F3">
+            <v>5795.1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>3687.4</v>
+          </cell>
+          <cell r="E4">
+            <v>26576</v>
+          </cell>
+          <cell r="F4">
+            <v>7554.4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>4678.3999999999996</v>
+          </cell>
+          <cell r="E5">
+            <v>34089.5</v>
+          </cell>
+          <cell r="F5">
+            <v>8585.1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>5878.8</v>
+          </cell>
+          <cell r="E6">
+            <v>44505.1</v>
+          </cell>
+          <cell r="F6">
+            <v>9467.1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>7706.8</v>
+          </cell>
+          <cell r="E7">
+            <v>56702.400000000001</v>
+          </cell>
+          <cell r="F7">
+            <v>10997.2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>9210.7999999999993</v>
+          </cell>
+          <cell r="E8">
+            <v>70612.899999999994</v>
+          </cell>
+          <cell r="F8">
+            <v>14434.6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>11000.9</v>
+          </cell>
+          <cell r="E9">
+            <v>88619.199999999997</v>
+          </cell>
+          <cell r="F9">
+            <v>15679.7</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>11747</v>
+          </cell>
+          <cell r="E10">
+            <v>102712.9</v>
+          </cell>
+          <cell r="F10">
+            <v>14659.7</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>13300.8</v>
+          </cell>
+          <cell r="E11">
+            <v>124550</v>
+          </cell>
+          <cell r="F11">
+            <v>16672.7</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>19634.7</v>
+          </cell>
+          <cell r="E12">
+            <v>12720.5</v>
+          </cell>
+          <cell r="F12">
+            <v>3669.8</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>14538.9</v>
+          </cell>
+          <cell r="E13">
+            <v>167025.29999999999</v>
+          </cell>
+          <cell r="F13">
+            <v>22829.7</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>12970.8</v>
+          </cell>
+          <cell r="E14">
+            <v>180370.4</v>
+          </cell>
+          <cell r="F14">
+            <v>26722.799999999999</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>10320.299999999999</v>
+          </cell>
+          <cell r="E15">
+            <v>187962.1</v>
+          </cell>
+          <cell r="F15">
+            <v>29747.7</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>9210.1</v>
+          </cell>
+          <cell r="E16">
+            <v>193710</v>
+          </cell>
+          <cell r="F16">
+            <v>29805.599999999999</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="K19">
+            <v>1660.7</v>
+          </cell>
+          <cell r="L19">
+            <v>375.5</v>
+          </cell>
+          <cell r="M19">
+            <v>285.8</v>
+          </cell>
+          <cell r="N19">
+            <v>4365.1000000000004</v>
+          </cell>
+          <cell r="O19">
+            <v>241.6</v>
+          </cell>
+          <cell r="P19">
+            <v>1671</v>
+          </cell>
+          <cell r="Q19">
+            <v>4051</v>
+          </cell>
+          <cell r="R19">
+            <v>531.1</v>
+          </cell>
+          <cell r="S19">
+            <v>2153.1</v>
+          </cell>
+          <cell r="T19">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="K20">
+            <v>1657.7</v>
+          </cell>
+          <cell r="L20">
+            <v>420.8</v>
+          </cell>
+          <cell r="M20">
+            <v>333.1</v>
+          </cell>
+          <cell r="N20">
+            <v>5071.7</v>
+          </cell>
+          <cell r="O20">
+            <v>313.7</v>
+          </cell>
+          <cell r="P20">
+            <v>2024</v>
+          </cell>
+          <cell r="Q20">
+            <v>516.70000000000005</v>
+          </cell>
+          <cell r="R20">
+            <v>773.1</v>
+          </cell>
+          <cell r="S20">
+            <v>2437</v>
+          </cell>
+          <cell r="T20">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="K21">
+            <v>1581.8</v>
+          </cell>
+          <cell r="L21">
+            <v>549.6</v>
+          </cell>
+          <cell r="M21">
+            <v>435.1</v>
+          </cell>
+          <cell r="N21">
+            <v>6274.1</v>
+          </cell>
+          <cell r="O21">
+            <v>363.5</v>
+          </cell>
+          <cell r="P21">
+            <v>2209</v>
+          </cell>
+          <cell r="Q21">
+            <v>661.8</v>
+          </cell>
+          <cell r="R21">
+            <v>857.1</v>
+          </cell>
+          <cell r="S21">
+            <v>2926.1</v>
+          </cell>
+          <cell r="T21">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="K22">
+            <v>1875.9</v>
+          </cell>
+          <cell r="L22">
+            <v>725.6</v>
+          </cell>
+          <cell r="M22">
+            <v>495.3</v>
+          </cell>
+          <cell r="N22">
+            <v>8152.7</v>
+          </cell>
+          <cell r="O22">
+            <v>389.5</v>
+          </cell>
+          <cell r="P22">
+            <v>2270</v>
+          </cell>
+          <cell r="Q22">
+            <v>769</v>
+          </cell>
+          <cell r="R22">
+            <v>955.4</v>
+          </cell>
+          <cell r="S22">
+            <v>2990.1</v>
+          </cell>
+          <cell r="T22">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="K23">
+            <v>1848.1</v>
+          </cell>
+          <cell r="L23">
+            <v>949.3</v>
+          </cell>
+          <cell r="M23">
+            <v>560</v>
+          </cell>
+          <cell r="N23">
+            <v>10154.299999999999</v>
+          </cell>
+          <cell r="O23">
+            <v>434.7</v>
+          </cell>
+          <cell r="P23">
+            <v>2375</v>
+          </cell>
+          <cell r="Q23">
+            <v>885</v>
+          </cell>
+          <cell r="R23">
+            <v>1243.4000000000001</v>
+          </cell>
+          <cell r="S23">
+            <v>3166.1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="K24">
+            <v>260.60000000000002</v>
+          </cell>
+          <cell r="L24">
+            <v>782</v>
+          </cell>
+          <cell r="M24">
+            <v>13634.1</v>
+          </cell>
+          <cell r="N24">
+            <v>622.1</v>
+          </cell>
+          <cell r="O24">
+            <v>2523</v>
+          </cell>
+          <cell r="P24">
+            <v>1155.0999999999999</v>
+          </cell>
+          <cell r="Q24">
+            <v>1589.1</v>
+          </cell>
+          <cell r="R24">
+            <v>3748.1</v>
+          </cell>
+          <cell r="S24">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="K25">
+            <v>2589.1</v>
+          </cell>
+          <cell r="L25">
+            <v>2036.2</v>
+          </cell>
+          <cell r="M25">
+            <v>1200.8</v>
+          </cell>
+          <cell r="N25">
+            <v>19874.400000000001</v>
+          </cell>
+          <cell r="O25">
+            <v>801.1</v>
+          </cell>
+          <cell r="P25">
+            <v>3621</v>
+          </cell>
+          <cell r="Q25">
+            <v>1858.1</v>
+          </cell>
+          <cell r="R25">
+            <v>2383.4</v>
+          </cell>
+          <cell r="S25">
+            <v>4736.1000000000004</v>
+          </cell>
+          <cell r="T25">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="K26">
+            <v>2454.5</v>
+          </cell>
+          <cell r="L26">
+            <v>2652.6</v>
+          </cell>
+          <cell r="M26">
+            <v>1379.3</v>
+          </cell>
+          <cell r="N26">
+            <v>24827.4</v>
+          </cell>
+          <cell r="O26">
+            <v>1114.0999999999999</v>
+          </cell>
+          <cell r="P26">
+            <v>4033</v>
+          </cell>
+          <cell r="Q26">
+            <v>2119.1</v>
+          </cell>
+          <cell r="R26">
+            <v>2959.4</v>
+          </cell>
+          <cell r="S26">
+            <v>5676.6</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="K27">
+            <v>2174.4</v>
+          </cell>
+          <cell r="L27">
+            <v>3382.8</v>
+          </cell>
+          <cell r="M27">
+            <v>1679.8</v>
+          </cell>
+          <cell r="N27">
+            <v>24523.1</v>
+          </cell>
+          <cell r="O27">
+            <v>1443.3</v>
+          </cell>
+          <cell r="P27">
+            <v>3894.6</v>
+          </cell>
+          <cell r="Q27">
+            <v>2330.3000000000002</v>
+          </cell>
+          <cell r="R27">
+            <v>3162</v>
+          </cell>
+          <cell r="S27">
+            <v>5647.8</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="K28">
+            <v>2692</v>
+          </cell>
+          <cell r="L28">
+            <v>4700.3999999999996</v>
+          </cell>
+          <cell r="M28">
+            <v>2475.8000000000002</v>
+          </cell>
+          <cell r="N28">
+            <v>29621.599999999999</v>
+          </cell>
+          <cell r="O28">
+            <v>1905</v>
+          </cell>
+          <cell r="P28">
+            <v>4613</v>
+          </cell>
+          <cell r="Q28">
+            <v>2617.1</v>
+          </cell>
+          <cell r="R28">
+            <v>4271.3</v>
+          </cell>
+          <cell r="S28">
+            <v>6047.4</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="K29">
+            <v>3133.2</v>
+          </cell>
+          <cell r="L29">
+            <v>5433</v>
+          </cell>
+          <cell r="M29">
+            <v>5874.1</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="K30">
+            <v>1363</v>
+          </cell>
+          <cell r="L30">
+            <v>46225</v>
+          </cell>
+          <cell r="M30">
+            <v>2371.6999999999998</v>
+          </cell>
+          <cell r="N30">
+            <v>6708.7</v>
+          </cell>
+          <cell r="O30">
+            <v>3991.5</v>
+          </cell>
+          <cell r="P30">
+            <v>6178.4</v>
+          </cell>
+          <cell r="Q30">
+            <v>7200.5</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="K31">
+            <v>5521.9</v>
+          </cell>
+          <cell r="L31">
+            <v>9447.9</v>
+          </cell>
+          <cell r="M31">
+            <v>4752</v>
+          </cell>
+          <cell r="N31">
+            <v>55679.6</v>
+          </cell>
+          <cell r="O31">
+            <v>2730.3</v>
+          </cell>
+          <cell r="P31">
+            <v>7726.8</v>
+          </cell>
+          <cell r="Q31">
+            <v>5175.6000000000004</v>
+          </cell>
+          <cell r="R31">
+            <v>6728.3</v>
+          </cell>
+          <cell r="S31">
+            <v>7851.1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="K32">
+            <v>6325.5</v>
+          </cell>
+          <cell r="L32">
+            <v>12341.9</v>
+          </cell>
+          <cell r="M32">
+            <v>5567.8</v>
+          </cell>
+          <cell r="N32">
+            <v>68647.600000000006</v>
+          </cell>
+          <cell r="O32">
+            <v>2750.9</v>
+          </cell>
+          <cell r="P32">
+            <v>9326.7000000000007</v>
+          </cell>
+          <cell r="Q32">
+            <v>6282.1</v>
+          </cell>
+          <cell r="R32">
+            <v>7834.2</v>
+          </cell>
+          <cell r="S32">
+            <v>8187.7</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="K33">
+            <v>6997.4</v>
+          </cell>
+          <cell r="L33">
+            <v>13357.1</v>
+          </cell>
+          <cell r="M33">
+            <v>5932.5</v>
+          </cell>
+          <cell r="N33">
+            <v>82106.100000000006</v>
+          </cell>
+          <cell r="O33">
+            <v>2752.6</v>
+          </cell>
+          <cell r="P33">
+            <v>11104.3</v>
+          </cell>
+          <cell r="Q33">
+            <v>7327.9</v>
+          </cell>
+          <cell r="R33">
+            <v>8734.7999999999993</v>
+          </cell>
+          <cell r="S33">
+            <v>7931.5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2290,7 +2891,7 @@
       <c r="T33" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2298,14 +2899,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="A1:J22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2336,16 +2942,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2003</v>
       </c>
       <c r="B2" s="3">
         <v>1652.3</v>
       </c>
-      <c r="C2" s="2">
-        <f>SUM(Sheet1!D2:F2)</f>
-        <v>20427.099999999999</v>
+      <c r="C2" s="3">
+        <f>SUM([1]Sheet1!D2:F2)</f>
+        <v>20427.100000000002</v>
       </c>
       <c r="D2" s="3">
         <v>924</v>
@@ -2365,20 +2971,20 @@
       <c r="I2" s="3">
         <v>13143.4</v>
       </c>
-      <c r="J2" s="2">
-        <f>SUM(Sheet1!K19:T19)</f>
-        <v>15337.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J2" s="3">
+        <f>SUM([1]Sheet1!K19:T19)</f>
+        <v>15337.400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2004</v>
       </c>
       <c r="B3" s="3">
         <v>1890.7</v>
       </c>
-      <c r="C3" s="2">
-        <f>SUM(Sheet1!D3:F3)</f>
+      <c r="C3" s="3">
+        <f>SUM([1]Sheet1!D3:F3)</f>
         <v>27876.5</v>
       </c>
       <c r="D3" s="3">
@@ -2399,20 +3005,20 @@
       <c r="I3" s="3">
         <v>16678.900000000001</v>
       </c>
-      <c r="J3" s="2">
-        <f>SUM(Sheet1!K20:T20)</f>
-        <v>13549.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J3" s="3">
+        <f>SUM([1]Sheet1!K20:T20)</f>
+        <v>13549.800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2005</v>
       </c>
       <c r="B4" s="3">
         <v>2323.6999999999998</v>
       </c>
-      <c r="C4" s="2">
-        <f>SUM(Sheet1!D4:F4)</f>
+      <c r="C4" s="3">
+        <f>SUM([1]Sheet1!D4:F4)</f>
         <v>37817.800000000003</v>
       </c>
       <c r="D4" s="3">
@@ -2433,20 +3039,20 @@
       <c r="I4" s="3">
         <v>19505.3</v>
       </c>
-      <c r="J4" s="2">
-        <f>SUM(Sheet1!K21:T21)</f>
-        <v>15858.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J4" s="3">
+        <f>SUM([1]Sheet1!K21:T21)</f>
+        <v>15858.300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2006</v>
       </c>
       <c r="B5" s="3">
         <v>2749.9</v>
       </c>
-      <c r="C5" s="2">
-        <f>SUM(Sheet1!D5:F5)</f>
+      <c r="C5" s="3">
+        <f>SUM([1]Sheet1!D5:F5)</f>
         <v>47353</v>
       </c>
       <c r="D5" s="3">
@@ -2467,20 +3073,20 @@
       <c r="I5" s="3">
         <v>24524.400000000001</v>
       </c>
-      <c r="J5" s="2">
-        <f>SUM(Sheet1!K22:T22)</f>
+      <c r="J5" s="3">
+        <f>SUM([1]Sheet1!K22:T22)</f>
         <v>18623.599999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2007</v>
       </c>
       <c r="B6" s="3">
         <v>3403.5</v>
       </c>
-      <c r="C6" s="2">
-        <f>SUM(Sheet1!D6:F6)</f>
+      <c r="C6" s="3">
+        <f>SUM([1]Sheet1!D6:F6)</f>
         <v>59851</v>
       </c>
       <c r="D6" s="3">
@@ -2501,21 +3107,21 @@
       <c r="I6" s="3">
         <v>32438.9</v>
       </c>
-      <c r="J6" s="2">
-        <f>SUM(Sheet1!K23:T23)</f>
+      <c r="J6" s="3">
+        <f>SUM([1]Sheet1!K23:T23)</f>
         <v>21615.9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2008</v>
       </c>
       <c r="B7" s="3">
         <v>5064.5</v>
       </c>
-      <c r="C7" s="2">
-        <f>SUM(Sheet1!D7:F7)</f>
-        <v>75406.399999999994</v>
+      <c r="C7" s="3">
+        <f>SUM([1]Sheet1!D7:F7)</f>
+        <v>75406.400000000009</v>
       </c>
       <c r="D7" s="3">
         <v>3741.8</v>
@@ -2535,20 +3141,20 @@
       <c r="I7" s="3">
         <v>1355.9</v>
       </c>
-      <c r="J7" s="2">
-        <f>SUM(Sheet1!K24:T24)</f>
-        <v>24314.400000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J7" s="3">
+        <f>SUM([1]Sheet1!K24:T24)</f>
+        <v>24314.399999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2009</v>
       </c>
       <c r="B8" s="3">
         <v>6894.9</v>
       </c>
-      <c r="C8" s="2">
-        <f>SUM(Sheet1!D8:F8)</f>
+      <c r="C8" s="3">
+        <f>SUM([1]Sheet1!D8:F8)</f>
         <v>94258.3</v>
       </c>
       <c r="D8" s="3">
@@ -2569,21 +3175,21 @@
       <c r="I8" s="3">
         <v>49368.5</v>
       </c>
-      <c r="J8" s="2">
-        <f>SUM(Sheet1!K25:T25)</f>
-        <v>39100.400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J8" s="3">
+        <f>SUM([1]Sheet1!K25:T25)</f>
+        <v>39100.399999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2010</v>
       </c>
       <c r="B9" s="3">
         <v>7923.1</v>
       </c>
-      <c r="C9" s="2">
-        <f>SUM(Sheet1!D9:F9)</f>
-        <v>115299.8</v>
+      <c r="C9" s="3">
+        <f>SUM([1]Sheet1!D9:F9)</f>
+        <v>115299.79999999999</v>
       </c>
       <c r="D9" s="3">
         <v>2802.2</v>
@@ -2603,21 +3209,21 @@
       <c r="I9" s="3">
         <v>64877.3</v>
       </c>
-      <c r="J9" s="2">
-        <f>SUM(Sheet1!K26:T26)</f>
+      <c r="J9" s="3">
+        <f>SUM([1]Sheet1!K26:T26)</f>
         <v>47216</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2011</v>
       </c>
       <c r="B10" s="3">
         <v>8757.7999999999993</v>
       </c>
-      <c r="C10" s="2">
-        <f>SUM(Sheet1!D10:F10)</f>
-        <v>129119.6</v>
+      <c r="C10" s="3">
+        <f>SUM([1]Sheet1!D10:F10)</f>
+        <v>129119.59999999999</v>
       </c>
       <c r="D10" s="3">
         <v>3357.1</v>
@@ -2637,20 +3243,20 @@
       <c r="I10" s="3">
         <v>81686.100000000006</v>
       </c>
-      <c r="J10" s="2">
-        <f>SUM(Sheet1!K27:T27)</f>
-        <v>48238.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J10" s="3">
+        <f>SUM([1]Sheet1!K27:T27)</f>
+        <v>48238.100000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2012</v>
       </c>
       <c r="B11" s="3">
         <v>10996.4</v>
       </c>
-      <c r="C11" s="2">
-        <f>SUM(Sheet1!D11:F11)</f>
+      <c r="C11" s="3">
+        <f>SUM([1]Sheet1!D11:F11)</f>
         <v>154523.5</v>
       </c>
       <c r="D11" s="3">
@@ -2671,20 +3277,20 @@
       <c r="I11" s="3">
         <v>99159.3</v>
       </c>
-      <c r="J11" s="2">
-        <f>SUM(Sheet1!K28:T28)</f>
-        <v>58943.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J11" s="3">
+        <f>SUM([1]Sheet1!K28:T28)</f>
+        <v>58943.600000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2013</v>
       </c>
       <c r="B12" s="3">
         <v>13478.8</v>
       </c>
-      <c r="C12" s="2">
-        <f>SUM(Sheet1!D12:F12)</f>
+      <c r="C12" s="3">
+        <f>SUM([1]Sheet1!D12:F12)</f>
         <v>36025</v>
       </c>
       <c r="D12" s="3">
@@ -2705,20 +3311,20 @@
       <c r="I12" s="3">
         <v>37663.9</v>
       </c>
-      <c r="J12" s="2">
-        <f>SUM(Sheet1!K29:T29)</f>
-        <v>14440.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J12" s="3">
+        <f>SUM([1]Sheet1!K29:T29)</f>
+        <v>14440.300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2014</v>
       </c>
       <c r="B13" s="3">
         <v>16573.8</v>
       </c>
-      <c r="C13" s="2">
-        <f>SUM(Sheet1!D13:F13)</f>
+      <c r="C13" s="3">
+        <f>SUM([1]Sheet1!D13:F13)</f>
         <v>204393.9</v>
       </c>
       <c r="D13" s="3">
@@ -2739,21 +3345,21 @@
       <c r="I13" s="3">
         <v>4219.1000000000004</v>
       </c>
-      <c r="J13" s="2">
-        <f>SUM(Sheet1!K30:T30)</f>
-        <v>74038.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J13" s="3">
+        <f>SUM([1]Sheet1!K30:T30)</f>
+        <v>74038.799999999988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2015</v>
       </c>
       <c r="B14" s="3">
         <v>21042.7</v>
       </c>
-      <c r="C14" s="2">
-        <f>SUM(Sheet1!D14:F14)</f>
-        <v>220064</v>
+      <c r="C14" s="3">
+        <f>SUM([1]Sheet1!D14:F14)</f>
+        <v>220063.99999999997</v>
       </c>
       <c r="D14" s="3">
         <v>4956.6000000000004</v>
@@ -2773,20 +3379,20 @@
       <c r="I14" s="3">
         <v>134284.29999999999</v>
       </c>
-      <c r="J14" s="2">
-        <f>SUM(Sheet1!K31:T31)</f>
-        <v>105613.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J14" s="3">
+        <f>SUM([1]Sheet1!K31:T31)</f>
+        <v>105613.50000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2016</v>
       </c>
       <c r="B15" s="3">
         <v>24853.1</v>
       </c>
-      <c r="C15" s="2">
-        <f>SUM(Sheet1!D15:F15)</f>
+      <c r="C15" s="3">
+        <f>SUM([1]Sheet1!D15:F15)</f>
         <v>228030.1</v>
       </c>
       <c r="D15" s="3">
@@ -2807,20 +3413,21 @@
       <c r="I15" s="3">
         <v>142359.4</v>
       </c>
-      <c r="J15" s="2">
-        <f>SUM(Sheet1!K32:T32)</f>
+      <c r="J15" s="3">
+        <f>SUM([1]Sheet1!K32:T32)</f>
         <v>127264.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2017</v>
       </c>
       <c r="B16" s="3">
         <v>26708</v>
       </c>
-      <c r="C16" s="2">
-        <f>SUM(Sheet1!D16:F16)</f>
+      <c r="C16" s="3">
+        <f>SUM([1]Sheet1!D16:F16)</f>
         <v>232725.7</v>
       </c>
       <c r="D16" s="3">
@@ -2841,9 +3448,227 @@
       <c r="I16" s="3">
         <v>146225.5</v>
       </c>
-      <c r="J16" s="2">
-        <f>SUM(Sheet1!K33:T33)</f>
+      <c r="J16" s="3">
+        <f>SUM([1]Sheet1!K33:T33)</f>
         <v>146244.20000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="3">
+        <f>PRODUCT(B16,1.123)</f>
+        <v>29993.083999999999</v>
+      </c>
+      <c r="C17" s="3">
+        <v>248783.7733</v>
+      </c>
+      <c r="D17" s="3">
+        <v>330529.28999999998</v>
+      </c>
+      <c r="E17" s="3">
+        <f>PRODUCT(E16*0.785)</f>
+        <v>13172.221500000001</v>
+      </c>
+      <c r="F17" s="3">
+        <f>PRODUCT(F16*1.039)</f>
+        <v>63846.446099999994</v>
+      </c>
+      <c r="G17" s="3">
+        <f>PRODUCT(G16*0.966)</f>
+        <v>5936.07</v>
+      </c>
+      <c r="H17" s="3">
+        <f>PRODUCT(H16*0.869)</f>
+        <v>974.58349999999996</v>
+      </c>
+      <c r="I17" s="3">
+        <v>179125.6</v>
+      </c>
+      <c r="J17" s="3">
+        <v>367869.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B18" s="3">
+        <v>30203</v>
+      </c>
+      <c r="C18" s="3">
+        <v>327648.22943609999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>265084.49</v>
+      </c>
+      <c r="E18" s="3">
+        <f>PRODUCT(E17*0.802)</f>
+        <v>10564.121643000002</v>
+      </c>
+      <c r="F18" s="3">
+        <f>PRODUCT(F17*1.034)</f>
+        <v>66017.22526739999</v>
+      </c>
+      <c r="G18" s="3">
+        <f>PRODUCT(G17*0.988)</f>
+        <v>5864.83716</v>
+      </c>
+      <c r="H18" s="3">
+        <f>PRODUCT(H17*1.104)</f>
+        <v>1075.940184</v>
+      </c>
+      <c r="I18" s="3">
+        <v>223907</v>
+      </c>
+      <c r="J18" s="3">
+        <v>520903.63679999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="3">
+        <v>35971.800000000003</v>
+      </c>
+      <c r="C19" s="3">
+        <v>331907.65641876898</v>
+      </c>
+      <c r="D19" s="3">
+        <v>289472.26</v>
+      </c>
+      <c r="E19" s="3">
+        <f>PRODUCT(E18*1.092)</f>
+        <v>11536.020834156003</v>
+      </c>
+      <c r="F19" s="3">
+        <f>PRODUCT(F18*1.014)</f>
+        <v>66941.466421143588</v>
+      </c>
+      <c r="G19" s="3">
+        <f>PRODUCT(G18*0.945)</f>
+        <v>5542.2711161999996</v>
+      </c>
+      <c r="H19" s="3">
+        <f>PRODUCT(H18*0.867)</f>
+        <v>932.84013952800001</v>
+      </c>
+      <c r="I19" s="3">
+        <v>246297.7</v>
+      </c>
+      <c r="J19" s="3">
+        <v>792294.43157280004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="3">
+        <v>39317.194219999998</v>
+      </c>
+      <c r="C20" s="3">
+        <v>416544.10880555498</v>
+      </c>
+      <c r="D20" s="3">
+        <v>294103.81</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" ref="E20:F20" si="0">PRODUCT(E19*1.016)</f>
+        <v>11720.597167502499</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>68012.529883881885</v>
+      </c>
+      <c r="G20" s="3">
+        <f>PRODUCT(G19*1.066)</f>
+        <v>5908.0610098691996</v>
+      </c>
+      <c r="H20" s="3">
+        <f>PRODUCT(H19*1.019)</f>
+        <v>950.56410217903192</v>
+      </c>
+      <c r="I20" s="3">
+        <v>292109.09999999998</v>
+      </c>
+      <c r="J20" s="3">
+        <v>465869.125764806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B21" s="3">
+        <f>PRODUCT(B20*1.042)</f>
+        <v>40968.516377239997</v>
+      </c>
+      <c r="C21" s="3">
+        <v>553587.12060258305</v>
+      </c>
+      <c r="D21" s="3">
+        <v>299985.89</v>
+      </c>
+      <c r="E21" s="3">
+        <f>PRODUCT(E20*1.02)</f>
+        <v>11955.00911085255</v>
+      </c>
+      <c r="F21" s="3">
+        <f>PRODUCT(F20*1.091)</f>
+        <v>74201.670103315133</v>
+      </c>
+      <c r="G21" s="3">
+        <f>PRODUCT(G20*1.075)</f>
+        <v>6351.1655856093894</v>
+      </c>
+      <c r="H21" s="3">
+        <f>PRODUCT(H20*1.105)</f>
+        <v>1050.3733329078302</v>
+      </c>
+      <c r="I21" s="3">
+        <v>309927.7</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1173990.19692731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="3">
+        <v>491.62218999999999</v>
+      </c>
+      <c r="C22" s="3">
+        <v>728520.65071299905</v>
+      </c>
+      <c r="D22" s="3">
+        <v>367482.72</v>
+      </c>
+      <c r="E22" s="3">
+        <f>PRODUCT(E21*0.6)</f>
+        <v>7173.0054665115304</v>
+      </c>
+      <c r="F22" s="3">
+        <f>PRODUCT(F21*1.105)</f>
+        <v>81992.845464163227</v>
+      </c>
+      <c r="G22" s="3">
+        <f>PRODUCT(G21*1.082)</f>
+        <v>6871.9611636293594</v>
+      </c>
+      <c r="H22" s="3">
+        <f>PRODUCT(H21*0.881)</f>
+        <v>925.37890629179844</v>
+      </c>
+      <c r="I22" s="3">
+        <v>315506.40000000002</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1319564.9813463001</v>
       </c>
     </row>
   </sheetData>

--- a/data/近二十年各产业投资情况数据表.xlsx
+++ b/data/近二十年各产业投资情况数据表.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实操\vscode实操\华数杯国际模板01\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9BF6F6-D163-4522-9CAE-1B86C671C1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24000" windowHeight="11055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,6 +19,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -104,6 +96,9 @@
     <t>国际组织</t>
   </si>
   <si>
+    <t>Years</t>
+  </si>
+  <si>
     <t>S2</t>
   </si>
   <si>
@@ -130,15 +125,18 @@
   <si>
     <t>S10</t>
   </si>
-  <si>
-    <t>Years</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,26 +158,164 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF060607"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="仿宋"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +340,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -228,13 +550,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,168 +811,102 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -419,7 +917,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -447,653 +945,157 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="D2">
-            <v>1775.2</v>
-          </cell>
-          <cell r="E2">
-            <v>14689.5</v>
-          </cell>
-          <cell r="F2">
-            <v>3962.4</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>2395.9</v>
-          </cell>
-          <cell r="E3">
-            <v>19685.5</v>
-          </cell>
-          <cell r="F3">
-            <v>5795.1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>3687.4</v>
-          </cell>
-          <cell r="E4">
-            <v>26576</v>
-          </cell>
-          <cell r="F4">
-            <v>7554.4</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>4678.3999999999996</v>
-          </cell>
-          <cell r="E5">
-            <v>34089.5</v>
-          </cell>
-          <cell r="F5">
-            <v>8585.1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>5878.8</v>
-          </cell>
-          <cell r="E6">
-            <v>44505.1</v>
-          </cell>
-          <cell r="F6">
-            <v>9467.1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>7706.8</v>
-          </cell>
-          <cell r="E7">
-            <v>56702.400000000001</v>
-          </cell>
-          <cell r="F7">
-            <v>10997.2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>9210.7999999999993</v>
-          </cell>
-          <cell r="E8">
-            <v>70612.899999999994</v>
-          </cell>
-          <cell r="F8">
-            <v>14434.6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>11000.9</v>
-          </cell>
-          <cell r="E9">
-            <v>88619.199999999997</v>
-          </cell>
-          <cell r="F9">
-            <v>15679.7</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>11747</v>
-          </cell>
-          <cell r="E10">
-            <v>102712.9</v>
-          </cell>
-          <cell r="F10">
-            <v>14659.7</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>13300.8</v>
-          </cell>
-          <cell r="E11">
-            <v>124550</v>
-          </cell>
-          <cell r="F11">
-            <v>16672.7</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>19634.7</v>
-          </cell>
-          <cell r="E12">
-            <v>12720.5</v>
-          </cell>
-          <cell r="F12">
-            <v>3669.8</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>14538.9</v>
-          </cell>
-          <cell r="E13">
-            <v>167025.29999999999</v>
-          </cell>
-          <cell r="F13">
-            <v>22829.7</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>12970.8</v>
-          </cell>
-          <cell r="E14">
-            <v>180370.4</v>
-          </cell>
-          <cell r="F14">
-            <v>26722.799999999999</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>10320.299999999999</v>
-          </cell>
-          <cell r="E15">
-            <v>187962.1</v>
-          </cell>
-          <cell r="F15">
-            <v>29747.7</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>9210.1</v>
-          </cell>
-          <cell r="E16">
-            <v>193710</v>
-          </cell>
-          <cell r="F16">
-            <v>29805.599999999999</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="K19">
-            <v>1660.7</v>
-          </cell>
-          <cell r="L19">
-            <v>375.5</v>
-          </cell>
-          <cell r="M19">
-            <v>285.8</v>
-          </cell>
-          <cell r="N19">
-            <v>4365.1000000000004</v>
-          </cell>
-          <cell r="O19">
-            <v>241.6</v>
-          </cell>
-          <cell r="P19">
-            <v>1671</v>
-          </cell>
-          <cell r="Q19">
-            <v>4051</v>
-          </cell>
-          <cell r="R19">
-            <v>531.1</v>
-          </cell>
-          <cell r="S19">
-            <v>2153.1</v>
-          </cell>
-          <cell r="T19">
-            <v>2.5</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="K20">
-            <v>1657.7</v>
-          </cell>
-          <cell r="L20">
-            <v>420.8</v>
-          </cell>
-          <cell r="M20">
-            <v>333.1</v>
-          </cell>
-          <cell r="N20">
-            <v>5071.7</v>
-          </cell>
-          <cell r="O20">
-            <v>313.7</v>
-          </cell>
-          <cell r="P20">
-            <v>2024</v>
-          </cell>
-          <cell r="Q20">
-            <v>516.70000000000005</v>
-          </cell>
-          <cell r="R20">
-            <v>773.1</v>
-          </cell>
-          <cell r="S20">
-            <v>2437</v>
-          </cell>
-          <cell r="T20">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="K21">
-            <v>1581.8</v>
-          </cell>
-          <cell r="L21">
-            <v>549.6</v>
-          </cell>
-          <cell r="M21">
-            <v>435.1</v>
-          </cell>
-          <cell r="N21">
-            <v>6274.1</v>
-          </cell>
-          <cell r="O21">
-            <v>363.5</v>
-          </cell>
-          <cell r="P21">
-            <v>2209</v>
-          </cell>
-          <cell r="Q21">
-            <v>661.8</v>
-          </cell>
-          <cell r="R21">
-            <v>857.1</v>
-          </cell>
-          <cell r="S21">
-            <v>2926.1</v>
-          </cell>
-          <cell r="T21">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="K22">
-            <v>1875.9</v>
-          </cell>
-          <cell r="L22">
-            <v>725.6</v>
-          </cell>
-          <cell r="M22">
-            <v>495.3</v>
-          </cell>
-          <cell r="N22">
-            <v>8152.7</v>
-          </cell>
-          <cell r="O22">
-            <v>389.5</v>
-          </cell>
-          <cell r="P22">
-            <v>2270</v>
-          </cell>
-          <cell r="Q22">
-            <v>769</v>
-          </cell>
-          <cell r="R22">
-            <v>955.4</v>
-          </cell>
-          <cell r="S22">
-            <v>2990.1</v>
-          </cell>
-          <cell r="T22">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="K23">
-            <v>1848.1</v>
-          </cell>
-          <cell r="L23">
-            <v>949.3</v>
-          </cell>
-          <cell r="M23">
-            <v>560</v>
-          </cell>
-          <cell r="N23">
-            <v>10154.299999999999</v>
-          </cell>
-          <cell r="O23">
-            <v>434.7</v>
-          </cell>
-          <cell r="P23">
-            <v>2375</v>
-          </cell>
-          <cell r="Q23">
-            <v>885</v>
-          </cell>
-          <cell r="R23">
-            <v>1243.4000000000001</v>
-          </cell>
-          <cell r="S23">
-            <v>3166.1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="K24">
-            <v>260.60000000000002</v>
-          </cell>
-          <cell r="L24">
-            <v>782</v>
-          </cell>
-          <cell r="M24">
-            <v>13634.1</v>
-          </cell>
-          <cell r="N24">
-            <v>622.1</v>
-          </cell>
-          <cell r="O24">
-            <v>2523</v>
-          </cell>
-          <cell r="P24">
-            <v>1155.0999999999999</v>
-          </cell>
-          <cell r="Q24">
-            <v>1589.1</v>
-          </cell>
-          <cell r="R24">
-            <v>3748.1</v>
-          </cell>
-          <cell r="S24">
-            <v>0.3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="K25">
-            <v>2589.1</v>
-          </cell>
-          <cell r="L25">
-            <v>2036.2</v>
-          </cell>
-          <cell r="M25">
-            <v>1200.8</v>
-          </cell>
-          <cell r="N25">
-            <v>19874.400000000001</v>
-          </cell>
-          <cell r="O25">
-            <v>801.1</v>
-          </cell>
-          <cell r="P25">
-            <v>3621</v>
-          </cell>
-          <cell r="Q25">
-            <v>1858.1</v>
-          </cell>
-          <cell r="R25">
-            <v>2383.4</v>
-          </cell>
-          <cell r="S25">
-            <v>4736.1000000000004</v>
-          </cell>
-          <cell r="T25">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="K26">
-            <v>2454.5</v>
-          </cell>
-          <cell r="L26">
-            <v>2652.6</v>
-          </cell>
-          <cell r="M26">
-            <v>1379.3</v>
-          </cell>
-          <cell r="N26">
-            <v>24827.4</v>
-          </cell>
-          <cell r="O26">
-            <v>1114.0999999999999</v>
-          </cell>
-          <cell r="P26">
-            <v>4033</v>
-          </cell>
-          <cell r="Q26">
-            <v>2119.1</v>
-          </cell>
-          <cell r="R26">
-            <v>2959.4</v>
-          </cell>
-          <cell r="S26">
-            <v>5676.6</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="K27">
-            <v>2174.4</v>
-          </cell>
-          <cell r="L27">
-            <v>3382.8</v>
-          </cell>
-          <cell r="M27">
-            <v>1679.8</v>
-          </cell>
-          <cell r="N27">
-            <v>24523.1</v>
-          </cell>
-          <cell r="O27">
-            <v>1443.3</v>
-          </cell>
-          <cell r="P27">
-            <v>3894.6</v>
-          </cell>
-          <cell r="Q27">
-            <v>2330.3000000000002</v>
-          </cell>
-          <cell r="R27">
-            <v>3162</v>
-          </cell>
-          <cell r="S27">
-            <v>5647.8</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="K28">
-            <v>2692</v>
-          </cell>
-          <cell r="L28">
-            <v>4700.3999999999996</v>
-          </cell>
-          <cell r="M28">
-            <v>2475.8000000000002</v>
-          </cell>
-          <cell r="N28">
-            <v>29621.599999999999</v>
-          </cell>
-          <cell r="O28">
-            <v>1905</v>
-          </cell>
-          <cell r="P28">
-            <v>4613</v>
-          </cell>
-          <cell r="Q28">
-            <v>2617.1</v>
-          </cell>
-          <cell r="R28">
-            <v>4271.3</v>
-          </cell>
-          <cell r="S28">
-            <v>6047.4</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="K29">
-            <v>3133.2</v>
-          </cell>
-          <cell r="L29">
-            <v>5433</v>
-          </cell>
-          <cell r="M29">
-            <v>5874.1</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="K30">
-            <v>1363</v>
-          </cell>
-          <cell r="L30">
-            <v>46225</v>
-          </cell>
-          <cell r="M30">
-            <v>2371.6999999999998</v>
-          </cell>
-          <cell r="N30">
-            <v>6708.7</v>
-          </cell>
-          <cell r="O30">
-            <v>3991.5</v>
-          </cell>
-          <cell r="P30">
-            <v>6178.4</v>
-          </cell>
-          <cell r="Q30">
-            <v>7200.5</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="K31">
-            <v>5521.9</v>
-          </cell>
-          <cell r="L31">
-            <v>9447.9</v>
-          </cell>
-          <cell r="M31">
-            <v>4752</v>
-          </cell>
-          <cell r="N31">
-            <v>55679.6</v>
-          </cell>
-          <cell r="O31">
-            <v>2730.3</v>
-          </cell>
-          <cell r="P31">
-            <v>7726.8</v>
-          </cell>
-          <cell r="Q31">
-            <v>5175.6000000000004</v>
-          </cell>
-          <cell r="R31">
-            <v>6728.3</v>
-          </cell>
-          <cell r="S31">
-            <v>7851.1</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="K32">
-            <v>6325.5</v>
-          </cell>
-          <cell r="L32">
-            <v>12341.9</v>
-          </cell>
-          <cell r="M32">
-            <v>5567.8</v>
-          </cell>
-          <cell r="N32">
-            <v>68647.600000000006</v>
-          </cell>
-          <cell r="O32">
-            <v>2750.9</v>
-          </cell>
-          <cell r="P32">
-            <v>9326.7000000000007</v>
-          </cell>
-          <cell r="Q32">
-            <v>6282.1</v>
-          </cell>
-          <cell r="R32">
-            <v>7834.2</v>
-          </cell>
-          <cell r="S32">
-            <v>8187.7</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="K33">
-            <v>6997.4</v>
-          </cell>
-          <cell r="L33">
-            <v>13357.1</v>
-          </cell>
-          <cell r="M33">
-            <v>5932.5</v>
-          </cell>
-          <cell r="N33">
-            <v>82106.100000000006</v>
-          </cell>
-          <cell r="O33">
-            <v>2752.6</v>
-          </cell>
-          <cell r="P33">
-            <v>11104.3</v>
-          </cell>
-          <cell r="Q33">
-            <v>7327.9</v>
-          </cell>
-          <cell r="R33">
-            <v>8734.7999999999993</v>
-          </cell>
-          <cell r="S33">
-            <v>7931.5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1340,97 +1342,96 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A16"/>
+      <selection activeCell="A1" sqref="A1:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10"/>
     <col min="5" max="5" width="10"/>
     <col min="12" max="13" width="10"/>
-    <col min="24" max="24" width="9.54296875"/>
-    <col min="31" max="31" width="9.54296875"/>
+    <col min="24" max="24" width="9.53982300884956"/>
+    <col min="31" max="31" width="9.53982300884956"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="94.5" spans="1:22">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.75" spans="1:22">
       <c r="A2" s="3">
         <v>2003</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>285.8</v>
       </c>
       <c r="P2" s="3">
-        <v>4365.1000000000004</v>
+        <v>4365.1</v>
       </c>
       <c r="Q2" s="3">
         <v>241.6</v>
@@ -1498,12 +1499,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" ht="15.75" spans="1:22">
       <c r="A3" s="3">
         <v>2004</v>
       </c>
       <c r="B3" s="3">
-        <v>70477.399999999994</v>
+        <v>70477.4</v>
       </c>
       <c r="C3" s="3">
         <v>1890.7</v>
@@ -1521,7 +1522,7 @@
         <v>964</v>
       </c>
       <c r="H3" s="3">
-        <v>1273.0999999999999</v>
+        <v>1273.1</v>
       </c>
       <c r="I3" s="3">
         <v>7646.2</v>
@@ -1536,7 +1537,7 @@
         <v>136</v>
       </c>
       <c r="M3" s="3">
-        <v>16678.900000000001</v>
+        <v>16678.9</v>
       </c>
       <c r="N3" s="3">
         <v>420.8</v>
@@ -1554,7 +1555,7 @@
         <v>2024</v>
       </c>
       <c r="S3" s="3">
-        <v>516.70000000000005</v>
+        <v>516.7</v>
       </c>
       <c r="T3" s="3">
         <v>773.1</v>
@@ -1566,7 +1567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" ht="15.75" spans="1:22">
       <c r="A4" s="3">
         <v>2005</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>88773.6</v>
       </c>
       <c r="C4" s="3">
-        <v>2323.6999999999998</v>
+        <v>2323.7</v>
       </c>
       <c r="D4" s="3">
         <v>3687.4</v>
@@ -1634,7 +1635,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" ht="15.75" spans="1:22">
       <c r="A5" s="3">
         <v>2006</v>
       </c>
@@ -1645,7 +1646,7 @@
         <v>2749.9</v>
       </c>
       <c r="D5" s="3">
-        <v>4678.3999999999996</v>
+        <v>4678.4</v>
       </c>
       <c r="E5" s="3">
         <v>34089.5</v>
@@ -1657,7 +1658,7 @@
         <v>1125</v>
       </c>
       <c r="H5" s="3">
-        <v>2265.3000000000002</v>
+        <v>2265.3</v>
       </c>
       <c r="I5" s="3">
         <v>12138.1</v>
@@ -1672,7 +1673,7 @@
         <v>121.4</v>
       </c>
       <c r="M5" s="3">
-        <v>24524.400000000001</v>
+        <v>24524.4</v>
       </c>
       <c r="N5" s="3">
         <v>725.6</v>
@@ -1702,7 +1703,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" ht="15.75" spans="1:22">
       <c r="A6" s="3">
         <v>2007</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>560</v>
       </c>
       <c r="P6" s="3">
-        <v>10154.299999999999</v>
+        <v>10154.3</v>
       </c>
       <c r="Q6" s="3">
         <v>434.7</v>
@@ -1761,14 +1762,14 @@
         <v>885</v>
       </c>
       <c r="T6" s="3">
-        <v>1243.4000000000001</v>
+        <v>1243.4</v>
       </c>
       <c r="U6" s="3">
         <v>3166.1</v>
       </c>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" spans="1:22">
       <c r="A7" s="3">
         <v>2008</v>
       </c>
@@ -1782,7 +1783,7 @@
         <v>7706.8</v>
       </c>
       <c r="E7" s="3">
-        <v>56702.400000000001</v>
+        <v>56702.4</v>
       </c>
       <c r="F7" s="3">
         <v>10997.2</v>
@@ -1791,7 +1792,7 @@
         <v>3741.8</v>
       </c>
       <c r="H7" s="3">
-        <v>17024.400000000001</v>
+        <v>17024.4</v>
       </c>
       <c r="I7" s="3">
         <v>1959.2</v>
@@ -1800,10 +1801,10 @@
         <v>2162.6</v>
       </c>
       <c r="K7" s="3">
-        <v>260.60000000000002</v>
+        <v>260.6</v>
       </c>
       <c r="L7" s="3">
-        <v>40441.800000000003</v>
+        <v>40441.8</v>
       </c>
       <c r="M7" s="3">
         <v>1355.9</v>
@@ -1821,7 +1822,7 @@
         <v>2523</v>
       </c>
       <c r="R7" s="3">
-        <v>1155.0999999999999</v>
+        <v>1155.1</v>
       </c>
       <c r="S7" s="3">
         <v>1589.1</v>
@@ -1832,9 +1833,9 @@
       <c r="U7" s="3">
         <v>0.3</v>
       </c>
-      <c r="V7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" ht="15.75" spans="1:22">
       <c r="A8" s="3">
         <v>2009</v>
       </c>
@@ -1845,10 +1846,10 @@
         <v>6894.9</v>
       </c>
       <c r="D8" s="3">
-        <v>9210.7999999999993</v>
+        <v>9210.8</v>
       </c>
       <c r="E8" s="3">
-        <v>70612.899999999994</v>
+        <v>70612.9</v>
       </c>
       <c r="F8" s="3">
         <v>14434.6</v>
@@ -1881,7 +1882,7 @@
         <v>1200.8</v>
       </c>
       <c r="P8" s="3">
-        <v>19874.400000000001</v>
+        <v>19874.4</v>
       </c>
       <c r="Q8" s="3">
         <v>801.1</v>
@@ -1896,18 +1897,18 @@
         <v>2383.4</v>
       </c>
       <c r="U8" s="3">
-        <v>4736.1000000000004</v>
+        <v>4736.1</v>
       </c>
       <c r="V8" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" ht="15.75" spans="1:22">
       <c r="A9" s="3">
         <v>2010</v>
       </c>
       <c r="B9" s="3">
-        <v>278121.90000000002</v>
+        <v>278121.9</v>
       </c>
       <c r="C9" s="3">
         <v>7923.1</v>
@@ -1916,7 +1917,7 @@
         <v>11000.9</v>
       </c>
       <c r="E9" s="3">
-        <v>88619.199999999997</v>
+        <v>88619.2</v>
       </c>
       <c r="F9" s="3">
         <v>15679.7</v>
@@ -1952,7 +1953,7 @@
         <v>24827.4</v>
       </c>
       <c r="Q9" s="3">
-        <v>1114.0999999999999</v>
+        <v>1114.1</v>
       </c>
       <c r="R9" s="3">
         <v>4033</v>
@@ -1966,17 +1967,17 @@
       <c r="U9" s="3">
         <v>5676.6</v>
       </c>
-      <c r="V9" s="6"/>
-    </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:22">
       <c r="A10" s="3">
         <v>2011</v>
       </c>
       <c r="B10" s="3">
-        <v>311485.09999999998</v>
+        <v>311485.1</v>
       </c>
       <c r="C10" s="3">
-        <v>8757.7999999999993</v>
+        <v>8757.8</v>
       </c>
       <c r="D10" s="3">
         <v>11747</v>
@@ -2003,10 +2004,10 @@
         <v>2174.4</v>
       </c>
       <c r="L10" s="3">
-        <v>638.70000000000005</v>
+        <v>638.7</v>
       </c>
       <c r="M10" s="3">
-        <v>81686.100000000006</v>
+        <v>81686.1</v>
       </c>
       <c r="N10" s="3">
         <v>3382.8</v>
@@ -2024,7 +2025,7 @@
         <v>3894.6</v>
       </c>
       <c r="S10" s="3">
-        <v>2330.3000000000002</v>
+        <v>2330.3</v>
       </c>
       <c r="T10" s="3">
         <v>3162</v>
@@ -2034,7 +2035,7 @@
       </c>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" ht="15.75" spans="1:22">
       <c r="A11" s="3">
         <v>2012</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>3739</v>
       </c>
       <c r="H11" s="3">
-        <v>9810.7000000000007</v>
+        <v>9810.7</v>
       </c>
       <c r="I11" s="3">
         <v>31444.9</v>
@@ -2075,13 +2076,13 @@
         <v>99159.3</v>
       </c>
       <c r="N11" s="3">
-        <v>4700.3999999999996</v>
+        <v>4700.4</v>
       </c>
       <c r="O11" s="3">
-        <v>2475.8000000000002</v>
+        <v>2475.8</v>
       </c>
       <c r="P11" s="3">
-        <v>29621.599999999999</v>
+        <v>29621.6</v>
       </c>
       <c r="Q11" s="3">
         <v>1905</v>
@@ -2100,7 +2101,7 @@
       </c>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" ht="15.75" spans="1:22">
       <c r="A12" s="3">
         <v>2013</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>3133.2</v>
       </c>
       <c r="L12" s="3">
-        <v>5231.1000000000004</v>
+        <v>5231.1</v>
       </c>
       <c r="M12" s="3">
         <v>37663.9</v>
@@ -2154,7 +2155,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" ht="15.75" spans="1:22">
       <c r="A13" s="3">
         <v>2014</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>14538.9</v>
       </c>
       <c r="E13" s="3">
-        <v>167025.29999999999</v>
+        <v>167025.3</v>
       </c>
       <c r="F13" s="3">
         <v>22829.7</v>
@@ -2189,16 +2190,16 @@
         <v>1363</v>
       </c>
       <c r="L13" s="3">
-        <v>131348.20000000001</v>
+        <v>131348.2</v>
       </c>
       <c r="M13" s="3">
-        <v>4219.1000000000004</v>
+        <v>4219.1</v>
       </c>
       <c r="N13" s="3">
         <v>46225</v>
       </c>
       <c r="O13" s="3">
-        <v>2371.6999999999998</v>
+        <v>2371.7</v>
       </c>
       <c r="P13" s="3">
         <v>6708.7</v>
@@ -2216,12 +2217,12 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" ht="15.75" spans="1:22">
       <c r="A14" s="3">
         <v>2015</v>
       </c>
       <c r="B14" s="3">
-        <v>561999.80000000005</v>
+        <v>561999.8</v>
       </c>
       <c r="C14" s="3">
         <v>21042.7</v>
@@ -2233,13 +2234,13 @@
         <v>180370.4</v>
       </c>
       <c r="F14" s="3">
-        <v>26722.799999999999</v>
+        <v>26722.8</v>
       </c>
       <c r="G14" s="3">
-        <v>4956.6000000000004</v>
+        <v>4956.6</v>
       </c>
       <c r="H14" s="3">
-        <v>18924.900000000001</v>
+        <v>18924.9</v>
       </c>
       <c r="I14" s="3">
         <v>49200</v>
@@ -2254,7 +2255,7 @@
         <v>1367.2</v>
       </c>
       <c r="M14" s="3">
-        <v>134284.29999999999</v>
+        <v>134284.3</v>
       </c>
       <c r="N14" s="3">
         <v>9447.9</v>
@@ -2272,7 +2273,7 @@
         <v>7726.8</v>
       </c>
       <c r="S14" s="3">
-        <v>5175.6000000000004</v>
+        <v>5175.6</v>
       </c>
       <c r="T14" s="3">
         <v>6728.3</v>
@@ -2282,18 +2283,18 @@
       </c>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" ht="15.75" spans="1:22">
       <c r="A15" s="3">
         <v>2016</v>
       </c>
       <c r="B15" s="3">
-        <v>606465.69999999995</v>
+        <v>606465.7</v>
       </c>
       <c r="C15" s="3">
         <v>24853.1</v>
       </c>
       <c r="D15" s="3">
-        <v>10320.299999999999</v>
+        <v>10320.3</v>
       </c>
       <c r="E15" s="3">
         <v>187962.1</v>
@@ -2302,13 +2303,13 @@
         <v>29747.7</v>
       </c>
       <c r="G15" s="3">
-        <v>4614.8999999999996</v>
+        <v>4614.9</v>
       </c>
       <c r="H15" s="3">
-        <v>18166.900000000001</v>
+        <v>18166.9</v>
       </c>
       <c r="I15" s="3">
-        <v>53890.400000000001</v>
+        <v>53890.4</v>
       </c>
       <c r="J15" s="3">
         <v>5976.2</v>
@@ -2329,13 +2330,13 @@
         <v>5567.8</v>
       </c>
       <c r="P15" s="3">
-        <v>68647.600000000006</v>
+        <v>68647.6</v>
       </c>
       <c r="Q15" s="3">
         <v>2750.9</v>
       </c>
       <c r="R15" s="3">
-        <v>9326.7000000000007</v>
+        <v>9326.7</v>
       </c>
       <c r="S15" s="3">
         <v>6282.1</v>
@@ -2348,7 +2349,7 @@
       </c>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" ht="15.75" spans="1:22">
       <c r="A16" s="3">
         <v>2017</v>
       </c>
@@ -2365,13 +2366,13 @@
         <v>193710</v>
       </c>
       <c r="F16" s="3">
-        <v>29805.599999999999</v>
+        <v>29805.6</v>
       </c>
       <c r="G16" s="3">
         <v>3838.9</v>
       </c>
       <c r="H16" s="3">
-        <v>16779.900000000001</v>
+        <v>16779.9</v>
       </c>
       <c r="I16" s="3">
         <v>61449.9</v>
@@ -2395,7 +2396,7 @@
         <v>5932.5</v>
       </c>
       <c r="P16" s="3">
-        <v>82106.100000000006</v>
+        <v>82106.1</v>
       </c>
       <c r="Q16" s="3">
         <v>2752.6</v>
@@ -2407,46 +2408,46 @@
         <v>7327.9</v>
       </c>
       <c r="T16" s="3">
-        <v>8734.7999999999993</v>
+        <v>8734.8</v>
       </c>
       <c r="U16" s="3">
         <v>7931.5</v>
       </c>
-      <c r="V16" s="6"/>
-    </row>
-    <row r="18" spans="11:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="K18" s="1" t="s">
+      <c r="V16" s="7"/>
+    </row>
+    <row r="18" ht="78.75" spans="11:20">
+      <c r="K18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="11:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" ht="15.75" spans="11:20">
       <c r="K19" s="3">
         <v>1660.7</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>285.8</v>
       </c>
       <c r="N19" s="3">
-        <v>4365.1000000000004</v>
+        <v>4365.1</v>
       </c>
       <c r="O19" s="3">
         <v>241.6</v>
@@ -2478,7 +2479,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="11:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" ht="15.75" spans="11:20">
       <c r="K20" s="3">
         <v>1657.7</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>2024</v>
       </c>
       <c r="Q20" s="3">
-        <v>516.70000000000005</v>
+        <v>516.7</v>
       </c>
       <c r="R20" s="3">
         <v>773.1</v>
@@ -2510,7 +2511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="11:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" ht="15.75" spans="11:20">
       <c r="K21" s="3">
         <v>1581.8</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="11:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" ht="15.75" spans="11:20">
       <c r="K22" s="3">
         <v>1875.9</v>
       </c>
@@ -2574,7 +2575,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="11:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" ht="15.75" spans="11:20">
       <c r="K23" s="3">
         <v>1848.1</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>560</v>
       </c>
       <c r="N23" s="3">
-        <v>10154.299999999999</v>
+        <v>10154.3</v>
       </c>
       <c r="O23" s="3">
         <v>434.7</v>
@@ -2597,16 +2598,16 @@
         <v>885</v>
       </c>
       <c r="R23" s="3">
-        <v>1243.4000000000001</v>
+        <v>1243.4</v>
       </c>
       <c r="S23" s="3">
         <v>3166.1</v>
       </c>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="11:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" ht="15.75" spans="11:20">
       <c r="K24" s="3">
-        <v>260.60000000000002</v>
+        <v>260.6</v>
       </c>
       <c r="L24" s="3">
         <v>782</v>
@@ -2621,7 +2622,7 @@
         <v>2523</v>
       </c>
       <c r="P24" s="3">
-        <v>1155.0999999999999</v>
+        <v>1155.1</v>
       </c>
       <c r="Q24" s="3">
         <v>1589.1</v>
@@ -2632,9 +2633,9 @@
       <c r="S24" s="3">
         <v>0.3</v>
       </c>
-      <c r="T24" s="6"/>
-    </row>
-    <row r="25" spans="11:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="T24" s="7"/>
+    </row>
+    <row r="25" ht="15.75" spans="11:20">
       <c r="K25" s="3">
         <v>2589.1</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>1200.8</v>
       </c>
       <c r="N25" s="3">
-        <v>19874.400000000001</v>
+        <v>19874.4</v>
       </c>
       <c r="O25" s="3">
         <v>801.1</v>
@@ -2660,13 +2661,13 @@
         <v>2383.4</v>
       </c>
       <c r="S25" s="3">
-        <v>4736.1000000000004</v>
+        <v>4736.1</v>
       </c>
       <c r="T25" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="11:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" ht="15.75" spans="11:20">
       <c r="K26" s="3">
         <v>2454.5</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>24827.4</v>
       </c>
       <c r="O26" s="3">
-        <v>1114.0999999999999</v>
+        <v>1114.1</v>
       </c>
       <c r="P26" s="3">
         <v>4033</v>
@@ -2694,9 +2695,9 @@
       <c r="S26" s="3">
         <v>5676.6</v>
       </c>
-      <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="11:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="T26" s="7"/>
+    </row>
+    <row r="27" ht="15.75" spans="11:20">
       <c r="K27" s="3">
         <v>2174.4</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>3894.6</v>
       </c>
       <c r="Q27" s="3">
-        <v>2330.3000000000002</v>
+        <v>2330.3</v>
       </c>
       <c r="R27" s="3">
         <v>3162</v>
@@ -2726,18 +2727,18 @@
       </c>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="11:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" ht="15.75" spans="11:20">
       <c r="K28" s="3">
         <v>2692</v>
       </c>
       <c r="L28" s="3">
-        <v>4700.3999999999996</v>
+        <v>4700.4</v>
       </c>
       <c r="M28" s="3">
-        <v>2475.8000000000002</v>
+        <v>2475.8</v>
       </c>
       <c r="N28" s="3">
-        <v>29621.599999999999</v>
+        <v>29621.6</v>
       </c>
       <c r="O28" s="3">
         <v>1905</v>
@@ -2756,7 +2757,7 @@
       </c>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" spans="11:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" ht="15.75" spans="11:20">
       <c r="K29" s="3">
         <v>3133.2</v>
       </c>
@@ -2774,7 +2775,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="11:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" ht="15.75" spans="11:20">
       <c r="K30" s="3">
         <v>1363</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>46225</v>
       </c>
       <c r="M30" s="3">
-        <v>2371.6999999999998</v>
+        <v>2371.7</v>
       </c>
       <c r="N30" s="3">
         <v>6708.7</v>
@@ -2800,7 +2801,7 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" spans="11:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" ht="15.75" spans="11:20">
       <c r="K31" s="3">
         <v>5521.9</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>7726.8</v>
       </c>
       <c r="Q31" s="3">
-        <v>5175.6000000000004</v>
+        <v>5175.6</v>
       </c>
       <c r="R31" s="3">
         <v>6728.3</v>
@@ -2830,7 +2831,7 @@
       </c>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="11:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" ht="15.75" spans="11:20">
       <c r="K32" s="3">
         <v>6325.5</v>
       </c>
@@ -2841,13 +2842,13 @@
         <v>5567.8</v>
       </c>
       <c r="N32" s="3">
-        <v>68647.600000000006</v>
+        <v>68647.6</v>
       </c>
       <c r="O32" s="3">
         <v>2750.9</v>
       </c>
       <c r="P32" s="3">
-        <v>9326.7000000000007</v>
+        <v>9326.7</v>
       </c>
       <c r="Q32" s="3">
         <v>6282.1</v>
@@ -2860,7 +2861,7 @@
       </c>
       <c r="T32" s="3"/>
     </row>
-    <row r="33" spans="11:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" ht="15.75" spans="11:20">
       <c r="K33" s="3">
         <v>6997.4</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>5932.5</v>
       </c>
       <c r="N33" s="3">
-        <v>82106.100000000006</v>
+        <v>82106.1</v>
       </c>
       <c r="O33" s="3">
         <v>2752.6</v>
@@ -2883,66 +2884,67 @@
         <v>7327.9</v>
       </c>
       <c r="R33" s="3">
-        <v>8734.7999999999993</v>
+        <v>8734.8</v>
       </c>
       <c r="S33" s="3">
         <v>7931.5</v>
       </c>
-      <c r="T33" s="6"/>
+      <c r="T33" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="A1:J22"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5398230088496" customWidth="1"/>
+    <col min="7" max="7" width="12.3451327433628"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" ht="15.75" spans="1:10">
       <c r="A2" s="3">
         <v>2003</v>
       </c>
@@ -2950,8 +2952,8 @@
         <v>1652.3</v>
       </c>
       <c r="C2" s="3">
-        <f>SUM([1]Sheet1!D2:F2)</f>
-        <v>20427.100000000002</v>
+        <f>SUM(Sheet1!D2:F2)</f>
+        <v>20427.1</v>
       </c>
       <c r="D2" s="3">
         <v>924</v>
@@ -2972,11 +2974,11 @@
         <v>13143.4</v>
       </c>
       <c r="J2" s="3">
-        <f>SUM([1]Sheet1!K19:T19)</f>
-        <v>15337.400000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <f>SUM(Sheet1!K19:T19)</f>
+        <v>15337.4</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:10">
       <c r="A3" s="3">
         <v>2004</v>
       </c>
@@ -2984,14 +2986,14 @@
         <v>1890.7</v>
       </c>
       <c r="C3" s="3">
-        <f>SUM([1]Sheet1!D3:F3)</f>
+        <f>SUM(Sheet1!D3:F3)</f>
         <v>27876.5</v>
       </c>
       <c r="D3" s="3">
         <v>964</v>
       </c>
       <c r="E3" s="3">
-        <v>1273.0999999999999</v>
+        <v>1273.1</v>
       </c>
       <c r="F3" s="3">
         <v>7646.2</v>
@@ -3003,23 +3005,23 @@
         <v>136</v>
       </c>
       <c r="I3" s="3">
-        <v>16678.900000000001</v>
+        <v>16678.9</v>
       </c>
       <c r="J3" s="3">
-        <f>SUM([1]Sheet1!K20:T20)</f>
-        <v>13549.800000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <f>SUM(Sheet1!K20:T20)</f>
+        <v>13549.8</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:10">
       <c r="A4" s="3">
         <v>2005</v>
       </c>
       <c r="B4" s="3">
-        <v>2323.6999999999998</v>
+        <v>2323.7</v>
       </c>
       <c r="C4" s="3">
-        <f>SUM([1]Sheet1!D4:F4)</f>
-        <v>37817.800000000003</v>
+        <f>SUM(Sheet1!D4:F4)</f>
+        <v>37817.8</v>
       </c>
       <c r="D4" s="3">
         <v>1119</v>
@@ -3040,11 +3042,11 @@
         <v>19505.3</v>
       </c>
       <c r="J4" s="3">
-        <f>SUM([1]Sheet1!K21:T21)</f>
-        <v>15858.300000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <f>SUM(Sheet1!K21:T21)</f>
+        <v>15858.3</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:10">
       <c r="A5" s="3">
         <v>2006</v>
       </c>
@@ -3052,14 +3054,14 @@
         <v>2749.9</v>
       </c>
       <c r="C5" s="3">
-        <f>SUM([1]Sheet1!D5:F5)</f>
+        <f>SUM(Sheet1!D5:F5)</f>
         <v>47353</v>
       </c>
       <c r="D5" s="3">
         <v>1125</v>
       </c>
       <c r="E5" s="3">
-        <v>2265.3000000000002</v>
+        <v>2265.3</v>
       </c>
       <c r="F5" s="3">
         <v>12138.1</v>
@@ -3071,14 +3073,14 @@
         <v>121.4</v>
       </c>
       <c r="I5" s="3">
-        <v>24524.400000000001</v>
+        <v>24524.4</v>
       </c>
       <c r="J5" s="3">
-        <f>SUM([1]Sheet1!K22:T22)</f>
-        <v>18623.599999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <f>SUM(Sheet1!K22:T22)</f>
+        <v>18623.6</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:10">
       <c r="A6" s="3">
         <v>2007</v>
       </c>
@@ -3086,7 +3088,7 @@
         <v>3403.5</v>
       </c>
       <c r="C6" s="3">
-        <f>SUM([1]Sheet1!D6:F6)</f>
+        <f>SUM(Sheet1!D6:F6)</f>
         <v>59851</v>
       </c>
       <c r="D6" s="3">
@@ -3108,11 +3110,11 @@
         <v>32438.9</v>
       </c>
       <c r="J6" s="3">
-        <f>SUM([1]Sheet1!K23:T23)</f>
+        <f>SUM(Sheet1!K23:T23)</f>
         <v>21615.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" ht="15.75" spans="1:10">
       <c r="A7" s="3">
         <v>2008</v>
       </c>
@@ -3120,14 +3122,14 @@
         <v>5064.5</v>
       </c>
       <c r="C7" s="3">
-        <f>SUM([1]Sheet1!D7:F7)</f>
-        <v>75406.400000000009</v>
+        <f>SUM(Sheet1!D7:F7)</f>
+        <v>75406.4</v>
       </c>
       <c r="D7" s="3">
         <v>3741.8</v>
       </c>
       <c r="E7" s="3">
-        <v>17024.400000000001</v>
+        <v>17024.4</v>
       </c>
       <c r="F7" s="3">
         <v>1959.2</v>
@@ -3136,17 +3138,17 @@
         <v>2162.6</v>
       </c>
       <c r="H7" s="3">
-        <v>40441.800000000003</v>
+        <v>40441.8</v>
       </c>
       <c r="I7" s="3">
         <v>1355.9</v>
       </c>
       <c r="J7" s="3">
-        <f>SUM([1]Sheet1!K24:T24)</f>
-        <v>24314.399999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <f>SUM(Sheet1!K24:T24)</f>
+        <v>24314.4</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:10">
       <c r="A8" s="3">
         <v>2009</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>6894.9</v>
       </c>
       <c r="C8" s="3">
-        <f>SUM([1]Sheet1!D8:F8)</f>
+        <f>SUM(Sheet1!D8:F8)</f>
         <v>94258.3</v>
       </c>
       <c r="D8" s="3">
@@ -3176,11 +3178,11 @@
         <v>49368.5</v>
       </c>
       <c r="J8" s="3">
-        <f>SUM([1]Sheet1!K25:T25)</f>
-        <v>39100.399999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <f>SUM(Sheet1!K25:T25)</f>
+        <v>39100.4</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:10">
       <c r="A9" s="3">
         <v>2010</v>
       </c>
@@ -3188,8 +3190,8 @@
         <v>7923.1</v>
       </c>
       <c r="C9" s="3">
-        <f>SUM([1]Sheet1!D9:F9)</f>
-        <v>115299.79999999999</v>
+        <f>SUM(Sheet1!D9:F9)</f>
+        <v>115299.8</v>
       </c>
       <c r="D9" s="3">
         <v>2802.2</v>
@@ -3210,20 +3212,20 @@
         <v>64877.3</v>
       </c>
       <c r="J9" s="3">
-        <f>SUM([1]Sheet1!K26:T26)</f>
+        <f>SUM(Sheet1!K26:T26)</f>
         <v>47216</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" ht="15.75" spans="1:10">
       <c r="A10" s="3">
         <v>2011</v>
       </c>
       <c r="B10" s="3">
-        <v>8757.7999999999993</v>
+        <v>8757.8</v>
       </c>
       <c r="C10" s="3">
-        <f>SUM([1]Sheet1!D10:F10)</f>
-        <v>129119.59999999999</v>
+        <f>SUM(Sheet1!D10:F10)</f>
+        <v>129119.6</v>
       </c>
       <c r="D10" s="3">
         <v>3357.1</v>
@@ -3238,17 +3240,17 @@
         <v>3956.6</v>
       </c>
       <c r="H10" s="3">
-        <v>638.70000000000005</v>
+        <v>638.7</v>
       </c>
       <c r="I10" s="3">
-        <v>81686.100000000006</v>
+        <v>81686.1</v>
       </c>
       <c r="J10" s="3">
-        <f>SUM([1]Sheet1!K27:T27)</f>
-        <v>48238.100000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <f>SUM(Sheet1!K27:T27)</f>
+        <v>48238.1</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:10">
       <c r="A11" s="3">
         <v>2012</v>
       </c>
@@ -3256,14 +3258,14 @@
         <v>10996.4</v>
       </c>
       <c r="C11" s="3">
-        <f>SUM([1]Sheet1!D11:F11)</f>
+        <f>SUM(Sheet1!D11:F11)</f>
         <v>154523.5</v>
       </c>
       <c r="D11" s="3">
         <v>3739</v>
       </c>
       <c r="E11" s="3">
-        <v>9810.7000000000007</v>
+        <v>9810.7</v>
       </c>
       <c r="F11" s="3">
         <v>31444.9</v>
@@ -3278,11 +3280,11 @@
         <v>99159.3</v>
       </c>
       <c r="J11" s="3">
-        <f>SUM([1]Sheet1!K28:T28)</f>
-        <v>58943.600000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <f>SUM(Sheet1!K28:T28)</f>
+        <v>58943.6</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:10">
       <c r="A12" s="3">
         <v>2013</v>
       </c>
@@ -3290,7 +3292,7 @@
         <v>13478.8</v>
       </c>
       <c r="C12" s="3">
-        <f>SUM([1]Sheet1!D12:F12)</f>
+        <f>SUM(Sheet1!D12:F12)</f>
         <v>36025</v>
       </c>
       <c r="D12" s="3">
@@ -3306,17 +3308,17 @@
         <v>5893.2</v>
       </c>
       <c r="H12" s="3">
-        <v>5231.1000000000004</v>
+        <v>5231.1</v>
       </c>
       <c r="I12" s="3">
         <v>37663.9</v>
       </c>
       <c r="J12" s="3">
-        <f>SUM([1]Sheet1!K29:T29)</f>
-        <v>14440.300000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <f>SUM(Sheet1!K29:T29)</f>
+        <v>14440.3</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="1:10">
       <c r="A13" s="3">
         <v>2014</v>
       </c>
@@ -3324,7 +3326,7 @@
         <v>16573.8</v>
       </c>
       <c r="C13" s="3">
-        <f>SUM([1]Sheet1!D13:F13)</f>
+        <f>SUM(Sheet1!D13:F13)</f>
         <v>204393.9</v>
       </c>
       <c r="D13" s="3">
@@ -3340,17 +3342,17 @@
         <v>4110</v>
       </c>
       <c r="H13" s="3">
-        <v>131348.20000000001</v>
+        <v>131348.2</v>
       </c>
       <c r="I13" s="3">
-        <v>4219.1000000000004</v>
+        <v>4219.1</v>
       </c>
       <c r="J13" s="3">
-        <f>SUM([1]Sheet1!K30:T30)</f>
-        <v>74038.799999999988</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <f>SUM(Sheet1!K30:T30)</f>
+        <v>74038.8</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="1:10">
       <c r="A14" s="3">
         <v>2015</v>
       </c>
@@ -3358,14 +3360,14 @@
         <v>21042.7</v>
       </c>
       <c r="C14" s="3">
-        <f>SUM([1]Sheet1!D14:F14)</f>
-        <v>220063.99999999997</v>
+        <f>SUM(Sheet1!D14:F14)</f>
+        <v>220064</v>
       </c>
       <c r="D14" s="3">
-        <v>4956.6000000000004</v>
+        <v>4956.6</v>
       </c>
       <c r="E14" s="3">
-        <v>18924.900000000001</v>
+        <v>18924.9</v>
       </c>
       <c r="F14" s="3">
         <v>49200</v>
@@ -3377,14 +3379,14 @@
         <v>1367.2</v>
       </c>
       <c r="I14" s="3">
-        <v>134284.29999999999</v>
+        <v>134284.3</v>
       </c>
       <c r="J14" s="3">
-        <f>SUM([1]Sheet1!K31:T31)</f>
-        <v>105613.50000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <f>SUM(Sheet1!K31:T31)</f>
+        <v>105613.5</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:13">
       <c r="A15" s="3">
         <v>2016</v>
       </c>
@@ -3392,17 +3394,17 @@
         <v>24853.1</v>
       </c>
       <c r="C15" s="3">
-        <f>SUM([1]Sheet1!D15:F15)</f>
+        <f>SUM(Sheet1!D15:F15)</f>
         <v>228030.1</v>
       </c>
       <c r="D15" s="3">
-        <v>4614.8999999999996</v>
+        <v>4614.9</v>
       </c>
       <c r="E15" s="3">
-        <v>18166.900000000001</v>
+        <v>18166.9</v>
       </c>
       <c r="F15" s="3">
-        <v>53890.400000000001</v>
+        <v>53890.4</v>
       </c>
       <c r="G15" s="3">
         <v>5976.2</v>
@@ -3414,12 +3416,12 @@
         <v>142359.4</v>
       </c>
       <c r="J15" s="3">
-        <f>SUM([1]Sheet1!K32:T32)</f>
+        <f>SUM(Sheet1!K32:T32)</f>
         <v>127264.4</v>
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" ht="15.75" spans="1:10">
       <c r="A16" s="3">
         <v>2017</v>
       </c>
@@ -3427,14 +3429,14 @@
         <v>26708</v>
       </c>
       <c r="C16" s="3">
-        <f>SUM([1]Sheet1!D16:F16)</f>
+        <f>SUM(Sheet1!D16:F16)</f>
         <v>232725.7</v>
       </c>
       <c r="D16" s="3">
         <v>3838.9</v>
       </c>
       <c r="E16" s="3">
-        <v>16779.900000000001</v>
+        <v>16779.9</v>
       </c>
       <c r="F16" s="3">
         <v>61449.9</v>
@@ -3449,31 +3451,31 @@
         <v>146225.5</v>
       </c>
       <c r="J16" s="3">
-        <f>SUM([1]Sheet1!K33:T33)</f>
-        <v>146244.20000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <f>SUM(Sheet1!K33:T33)</f>
+        <v>146244.2</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:10">
       <c r="A17" s="3">
         <v>2018</v>
       </c>
       <c r="B17" s="3">
         <f>PRODUCT(B16,1.123)</f>
-        <v>29993.083999999999</v>
+        <v>29993.084</v>
       </c>
       <c r="C17" s="3">
         <v>248783.7733</v>
       </c>
       <c r="D17" s="3">
-        <v>330529.28999999998</v>
+        <v>330529.29</v>
       </c>
       <c r="E17" s="3">
         <f>PRODUCT(E16*0.785)</f>
-        <v>13172.221500000001</v>
+        <v>13172.2215</v>
       </c>
       <c r="F17" s="3">
         <f>PRODUCT(F16*1.039)</f>
-        <v>63846.446099999994</v>
+        <v>63846.4461</v>
       </c>
       <c r="G17" s="3">
         <f>PRODUCT(G16*0.966)</f>
@@ -3481,7 +3483,7 @@
       </c>
       <c r="H17" s="3">
         <f>PRODUCT(H16*0.869)</f>
-        <v>974.58349999999996</v>
+        <v>974.5835</v>
       </c>
       <c r="I17" s="3">
         <v>179125.6</v>
@@ -3490,7 +3492,7 @@
         <v>367869.8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" ht="15.75" spans="1:10">
       <c r="A18" s="3">
         <v>2019</v>
       </c>
@@ -3498,18 +3500,18 @@
         <v>30203</v>
       </c>
       <c r="C18" s="3">
-        <v>327648.22943609999</v>
+        <v>327648.2294361</v>
       </c>
       <c r="D18" s="3">
         <v>265084.49</v>
       </c>
       <c r="E18" s="3">
         <f>PRODUCT(E17*0.802)</f>
-        <v>10564.121643000002</v>
+        <v>10564.121643</v>
       </c>
       <c r="F18" s="3">
         <f>PRODUCT(F17*1.034)</f>
-        <v>66017.22526739999</v>
+        <v>66017.2252674</v>
       </c>
       <c r="G18" s="3">
         <f>PRODUCT(G17*0.988)</f>
@@ -3523,110 +3525,110 @@
         <v>223907</v>
       </c>
       <c r="J18" s="3">
-        <v>520903.63679999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>520903.6368</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:10">
       <c r="A19" s="3">
         <v>2020</v>
       </c>
       <c r="B19" s="3">
-        <v>35971.800000000003</v>
+        <v>35971.8</v>
       </c>
       <c r="C19" s="3">
-        <v>331907.65641876898</v>
+        <v>331907.656418769</v>
       </c>
       <c r="D19" s="3">
         <v>289472.26</v>
       </c>
       <c r="E19" s="3">
         <f>PRODUCT(E18*1.092)</f>
-        <v>11536.020834156003</v>
+        <v>11536.020834156</v>
       </c>
       <c r="F19" s="3">
         <f>PRODUCT(F18*1.014)</f>
-        <v>66941.466421143588</v>
+        <v>66941.4664211436</v>
       </c>
       <c r="G19" s="3">
         <f>PRODUCT(G18*0.945)</f>
-        <v>5542.2711161999996</v>
+        <v>5542.2711162</v>
       </c>
       <c r="H19" s="3">
         <f>PRODUCT(H18*0.867)</f>
-        <v>932.84013952800001</v>
+        <v>932.840139528</v>
       </c>
       <c r="I19" s="3">
         <v>246297.7</v>
       </c>
       <c r="J19" s="3">
-        <v>792294.43157280004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>792294.4315728</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:10">
       <c r="A20" s="3">
         <v>2021</v>
       </c>
       <c r="B20" s="3">
-        <v>39317.194219999998</v>
+        <v>39317.19422</v>
       </c>
       <c r="C20" s="3">
-        <v>416544.10880555498</v>
+        <v>416544.108805555</v>
       </c>
       <c r="D20" s="3">
         <v>294103.81</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" ref="E20:F20" si="0">PRODUCT(E19*1.016)</f>
-        <v>11720.597167502499</v>
+        <f t="shared" ref="D20:F20" si="0">PRODUCT(E19*1.016)</f>
+        <v>11720.5971675025</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>68012.529883881885</v>
+        <v>68012.5298838819</v>
       </c>
       <c r="G20" s="3">
         <f>PRODUCT(G19*1.066)</f>
-        <v>5908.0610098691996</v>
+        <v>5908.0610098692</v>
       </c>
       <c r="H20" s="3">
         <f>PRODUCT(H19*1.019)</f>
-        <v>950.56410217903192</v>
+        <v>950.564102179032</v>
       </c>
       <c r="I20" s="3">
-        <v>292109.09999999998</v>
+        <v>292109.1</v>
       </c>
       <c r="J20" s="3">
         <v>465869.125764806</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" ht="15.75" spans="1:10">
       <c r="A21" s="3">
         <v>2022</v>
       </c>
       <c r="B21" s="3">
         <f>PRODUCT(B20*1.042)</f>
-        <v>40968.516377239997</v>
+        <v>40968.51637724</v>
       </c>
       <c r="C21" s="3">
-        <v>553587.12060258305</v>
+        <v>553587.120602583</v>
       </c>
       <c r="D21" s="3">
         <v>299985.89</v>
       </c>
       <c r="E21" s="3">
         <f>PRODUCT(E20*1.02)</f>
-        <v>11955.00911085255</v>
+        <v>11955.0091108526</v>
       </c>
       <c r="F21" s="3">
         <f>PRODUCT(F20*1.091)</f>
-        <v>74201.670103315133</v>
+        <v>74201.6701033151</v>
       </c>
       <c r="G21" s="3">
         <f>PRODUCT(G20*1.075)</f>
-        <v>6351.1655856093894</v>
+        <v>6351.16558560939</v>
       </c>
       <c r="H21" s="3">
         <f>PRODUCT(H20*1.105)</f>
-        <v>1050.3733329078302</v>
+        <v>1050.37333290783</v>
       </c>
       <c r="I21" s="3">
         <v>309927.7</v>
@@ -3635,44 +3637,44 @@
         <v>1173990.19692731</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" ht="15.75" spans="1:10">
       <c r="A22" s="3">
         <v>2023</v>
       </c>
       <c r="B22" s="3">
-        <v>491.62218999999999</v>
+        <v>491.62219</v>
       </c>
       <c r="C22" s="3">
-        <v>728520.65071299905</v>
+        <v>728520.650712999</v>
       </c>
       <c r="D22" s="3">
         <v>367482.72</v>
       </c>
       <c r="E22" s="3">
         <f>PRODUCT(E21*0.6)</f>
-        <v>7173.0054665115304</v>
+        <v>7173.00546651153</v>
       </c>
       <c r="F22" s="3">
         <f>PRODUCT(F21*1.105)</f>
-        <v>81992.845464163227</v>
+        <v>81992.8454641632</v>
       </c>
       <c r="G22" s="3">
         <f>PRODUCT(G21*1.082)</f>
-        <v>6871.9611636293594</v>
+        <v>6871.96116362936</v>
       </c>
       <c r="H22" s="3">
         <f>PRODUCT(H21*0.881)</f>
-        <v>925.37890629179844</v>
+        <v>925.378906291798</v>
       </c>
       <c r="I22" s="3">
-        <v>315506.40000000002</v>
+        <v>315506.4</v>
       </c>
       <c r="J22" s="3">
-        <v>1319564.9813463001</v>
+        <v>1319564.9813463</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/近二十年各产业投资情况数据表.xlsx
+++ b/data/近二十年各产业投资情况数据表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实操\vscode实操\华数杯国际模板01\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B490537-12A8-4394-8B6C-167C4794344B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="11055" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -129,14 +134,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,12 +148,14 @@
       <sz val="12"/>
       <color rgb="FF060607"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF060607"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -162,160 +163,25 @@
       <sz val="12"/>
       <color rgb="FF060607"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,194 +206,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -550,251 +230,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -824,89 +262,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -917,7 +424,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -945,154 +452,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1342,28 +735,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A16"/>
+      <selection sqref="A1:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10"/>
     <col min="5" max="5" width="10"/>
     <col min="12" max="13" width="10"/>
-    <col min="24" max="24" width="9.53982300884956"/>
-    <col min="31" max="31" width="9.53982300884956"/>
+    <col min="24" max="24" width="9.54296875"/>
+    <col min="31" max="31" width="9.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="94.5" spans="1:22">
+    <row r="1" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:22">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2003</v>
       </c>
@@ -1478,7 +872,7 @@
         <v>285.8</v>
       </c>
       <c r="P2" s="3">
-        <v>4365.1</v>
+        <v>4365.1000000000004</v>
       </c>
       <c r="Q2" s="3">
         <v>241.6</v>
@@ -1499,12 +893,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:22">
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2004</v>
       </c>
       <c r="B3" s="3">
-        <v>70477.4</v>
+        <v>70477.399999999994</v>
       </c>
       <c r="C3" s="3">
         <v>1890.7</v>
@@ -1522,7 +916,7 @@
         <v>964</v>
       </c>
       <c r="H3" s="3">
-        <v>1273.1</v>
+        <v>1273.0999999999999</v>
       </c>
       <c r="I3" s="3">
         <v>7646.2</v>
@@ -1537,7 +931,7 @@
         <v>136</v>
       </c>
       <c r="M3" s="3">
-        <v>16678.9</v>
+        <v>16678.900000000001</v>
       </c>
       <c r="N3" s="3">
         <v>420.8</v>
@@ -1555,7 +949,7 @@
         <v>2024</v>
       </c>
       <c r="S3" s="3">
-        <v>516.7</v>
+        <v>516.70000000000005</v>
       </c>
       <c r="T3" s="3">
         <v>773.1</v>
@@ -1567,7 +961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:22">
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2005</v>
       </c>
@@ -1575,7 +969,7 @@
         <v>88773.6</v>
       </c>
       <c r="C4" s="3">
-        <v>2323.7</v>
+        <v>2323.6999999999998</v>
       </c>
       <c r="D4" s="3">
         <v>3687.4</v>
@@ -1635,7 +1029,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:22">
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2006</v>
       </c>
@@ -1646,7 +1040,7 @@
         <v>2749.9</v>
       </c>
       <c r="D5" s="3">
-        <v>4678.4</v>
+        <v>4678.3999999999996</v>
       </c>
       <c r="E5" s="3">
         <v>34089.5</v>
@@ -1658,7 +1052,7 @@
         <v>1125</v>
       </c>
       <c r="H5" s="3">
-        <v>2265.3</v>
+        <v>2265.3000000000002</v>
       </c>
       <c r="I5" s="3">
         <v>12138.1</v>
@@ -1673,7 +1067,7 @@
         <v>121.4</v>
       </c>
       <c r="M5" s="3">
-        <v>24524.4</v>
+        <v>24524.400000000001</v>
       </c>
       <c r="N5" s="3">
         <v>725.6</v>
@@ -1703,7 +1097,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:22">
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2007</v>
       </c>
@@ -1750,7 +1144,7 @@
         <v>560</v>
       </c>
       <c r="P6" s="3">
-        <v>10154.3</v>
+        <v>10154.299999999999</v>
       </c>
       <c r="Q6" s="3">
         <v>434.7</v>
@@ -1762,14 +1156,14 @@
         <v>885</v>
       </c>
       <c r="T6" s="3">
-        <v>1243.4</v>
+        <v>1243.4000000000001</v>
       </c>
       <c r="U6" s="3">
         <v>3166.1</v>
       </c>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" ht="15.75" spans="1:22">
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2008</v>
       </c>
@@ -1783,7 +1177,7 @@
         <v>7706.8</v>
       </c>
       <c r="E7" s="3">
-        <v>56702.4</v>
+        <v>56702.400000000001</v>
       </c>
       <c r="F7" s="3">
         <v>10997.2</v>
@@ -1792,7 +1186,7 @@
         <v>3741.8</v>
       </c>
       <c r="H7" s="3">
-        <v>17024.4</v>
+        <v>17024.400000000001</v>
       </c>
       <c r="I7" s="3">
         <v>1959.2</v>
@@ -1801,10 +1195,10 @@
         <v>2162.6</v>
       </c>
       <c r="K7" s="3">
-        <v>260.6</v>
+        <v>260.60000000000002</v>
       </c>
       <c r="L7" s="3">
-        <v>40441.8</v>
+        <v>40441.800000000003</v>
       </c>
       <c r="M7" s="3">
         <v>1355.9</v>
@@ -1822,7 +1216,7 @@
         <v>2523</v>
       </c>
       <c r="R7" s="3">
-        <v>1155.1</v>
+        <v>1155.0999999999999</v>
       </c>
       <c r="S7" s="3">
         <v>1589.1</v>
@@ -1835,7 +1229,7 @@
       </c>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" ht="15.75" spans="1:22">
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2009</v>
       </c>
@@ -1846,10 +1240,10 @@
         <v>6894.9</v>
       </c>
       <c r="D8" s="3">
-        <v>9210.8</v>
+        <v>9210.7999999999993</v>
       </c>
       <c r="E8" s="3">
-        <v>70612.9</v>
+        <v>70612.899999999994</v>
       </c>
       <c r="F8" s="3">
         <v>14434.6</v>
@@ -1882,7 +1276,7 @@
         <v>1200.8</v>
       </c>
       <c r="P8" s="3">
-        <v>19874.4</v>
+        <v>19874.400000000001</v>
       </c>
       <c r="Q8" s="3">
         <v>801.1</v>
@@ -1897,18 +1291,18 @@
         <v>2383.4</v>
       </c>
       <c r="U8" s="3">
-        <v>4736.1</v>
+        <v>4736.1000000000004</v>
       </c>
       <c r="V8" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:22">
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2010</v>
       </c>
       <c r="B9" s="3">
-        <v>278121.9</v>
+        <v>278121.90000000002</v>
       </c>
       <c r="C9" s="3">
         <v>7923.1</v>
@@ -1917,7 +1311,7 @@
         <v>11000.9</v>
       </c>
       <c r="E9" s="3">
-        <v>88619.2</v>
+        <v>88619.199999999997</v>
       </c>
       <c r="F9" s="3">
         <v>15679.7</v>
@@ -1953,7 +1347,7 @@
         <v>24827.4</v>
       </c>
       <c r="Q9" s="3">
-        <v>1114.1</v>
+        <v>1114.0999999999999</v>
       </c>
       <c r="R9" s="3">
         <v>4033</v>
@@ -1969,15 +1363,15 @@
       </c>
       <c r="V9" s="7"/>
     </row>
-    <row r="10" ht="15.75" spans="1:22">
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2011</v>
       </c>
       <c r="B10" s="3">
-        <v>311485.1</v>
+        <v>311485.09999999998</v>
       </c>
       <c r="C10" s="3">
-        <v>8757.8</v>
+        <v>8757.7999999999993</v>
       </c>
       <c r="D10" s="3">
         <v>11747</v>
@@ -2004,10 +1398,10 @@
         <v>2174.4</v>
       </c>
       <c r="L10" s="3">
-        <v>638.7</v>
+        <v>638.70000000000005</v>
       </c>
       <c r="M10" s="3">
-        <v>81686.1</v>
+        <v>81686.100000000006</v>
       </c>
       <c r="N10" s="3">
         <v>3382.8</v>
@@ -2025,7 +1419,7 @@
         <v>3894.6</v>
       </c>
       <c r="S10" s="3">
-        <v>2330.3</v>
+        <v>2330.3000000000002</v>
       </c>
       <c r="T10" s="3">
         <v>3162</v>
@@ -2035,7 +1429,7 @@
       </c>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" ht="15.75" spans="1:22">
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2012</v>
       </c>
@@ -2058,7 +1452,7 @@
         <v>3739</v>
       </c>
       <c r="H11" s="3">
-        <v>9810.7</v>
+        <v>9810.7000000000007</v>
       </c>
       <c r="I11" s="3">
         <v>31444.9</v>
@@ -2076,13 +1470,13 @@
         <v>99159.3</v>
       </c>
       <c r="N11" s="3">
-        <v>4700.4</v>
+        <v>4700.3999999999996</v>
       </c>
       <c r="O11" s="3">
-        <v>2475.8</v>
+        <v>2475.8000000000002</v>
       </c>
       <c r="P11" s="3">
-        <v>29621.6</v>
+        <v>29621.599999999999</v>
       </c>
       <c r="Q11" s="3">
         <v>1905</v>
@@ -2101,7 +1495,7 @@
       </c>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" ht="15.75" spans="1:22">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2013</v>
       </c>
@@ -2136,7 +1530,7 @@
         <v>3133.2</v>
       </c>
       <c r="L12" s="3">
-        <v>5231.1</v>
+        <v>5231.1000000000004</v>
       </c>
       <c r="M12" s="3">
         <v>37663.9</v>
@@ -2155,7 +1549,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" ht="15.75" spans="1:22">
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2014</v>
       </c>
@@ -2169,7 +1563,7 @@
         <v>14538.9</v>
       </c>
       <c r="E13" s="3">
-        <v>167025.3</v>
+        <v>167025.29999999999</v>
       </c>
       <c r="F13" s="3">
         <v>22829.7</v>
@@ -2190,16 +1584,16 @@
         <v>1363</v>
       </c>
       <c r="L13" s="3">
-        <v>131348.2</v>
+        <v>131348.20000000001</v>
       </c>
       <c r="M13" s="3">
-        <v>4219.1</v>
+        <v>4219.1000000000004</v>
       </c>
       <c r="N13" s="3">
         <v>46225</v>
       </c>
       <c r="O13" s="3">
-        <v>2371.7</v>
+        <v>2371.6999999999998</v>
       </c>
       <c r="P13" s="3">
         <v>6708.7</v>
@@ -2217,12 +1611,12 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" ht="15.75" spans="1:22">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2015</v>
       </c>
       <c r="B14" s="3">
-        <v>561999.8</v>
+        <v>561999.80000000005</v>
       </c>
       <c r="C14" s="3">
         <v>21042.7</v>
@@ -2234,13 +1628,13 @@
         <v>180370.4</v>
       </c>
       <c r="F14" s="3">
-        <v>26722.8</v>
+        <v>26722.799999999999</v>
       </c>
       <c r="G14" s="3">
-        <v>4956.6</v>
+        <v>4956.6000000000004</v>
       </c>
       <c r="H14" s="3">
-        <v>18924.9</v>
+        <v>18924.900000000001</v>
       </c>
       <c r="I14" s="3">
         <v>49200</v>
@@ -2255,7 +1649,7 @@
         <v>1367.2</v>
       </c>
       <c r="M14" s="3">
-        <v>134284.3</v>
+        <v>134284.29999999999</v>
       </c>
       <c r="N14" s="3">
         <v>9447.9</v>
@@ -2273,7 +1667,7 @@
         <v>7726.8</v>
       </c>
       <c r="S14" s="3">
-        <v>5175.6</v>
+        <v>5175.6000000000004</v>
       </c>
       <c r="T14" s="3">
         <v>6728.3</v>
@@ -2283,18 +1677,18 @@
       </c>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" ht="15.75" spans="1:22">
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2016</v>
       </c>
       <c r="B15" s="3">
-        <v>606465.7</v>
+        <v>606465.69999999995</v>
       </c>
       <c r="C15" s="3">
         <v>24853.1</v>
       </c>
       <c r="D15" s="3">
-        <v>10320.3</v>
+        <v>10320.299999999999</v>
       </c>
       <c r="E15" s="3">
         <v>187962.1</v>
@@ -2303,13 +1697,13 @@
         <v>29747.7</v>
       </c>
       <c r="G15" s="3">
-        <v>4614.9</v>
+        <v>4614.8999999999996</v>
       </c>
       <c r="H15" s="3">
-        <v>18166.9</v>
+        <v>18166.900000000001</v>
       </c>
       <c r="I15" s="3">
-        <v>53890.4</v>
+        <v>53890.400000000001</v>
       </c>
       <c r="J15" s="3">
         <v>5976.2</v>
@@ -2330,13 +1724,13 @@
         <v>5567.8</v>
       </c>
       <c r="P15" s="3">
-        <v>68647.6</v>
+        <v>68647.600000000006</v>
       </c>
       <c r="Q15" s="3">
         <v>2750.9</v>
       </c>
       <c r="R15" s="3">
-        <v>9326.7</v>
+        <v>9326.7000000000007</v>
       </c>
       <c r="S15" s="3">
         <v>6282.1</v>
@@ -2349,7 +1743,7 @@
       </c>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" ht="15.75" spans="1:22">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2017</v>
       </c>
@@ -2366,13 +1760,13 @@
         <v>193710</v>
       </c>
       <c r="F16" s="3">
-        <v>29805.6</v>
+        <v>29805.599999999999</v>
       </c>
       <c r="G16" s="3">
         <v>3838.9</v>
       </c>
       <c r="H16" s="3">
-        <v>16779.9</v>
+        <v>16779.900000000001</v>
       </c>
       <c r="I16" s="3">
         <v>61449.9</v>
@@ -2396,7 +1790,7 @@
         <v>5932.5</v>
       </c>
       <c r="P16" s="3">
-        <v>82106.1</v>
+        <v>82106.100000000006</v>
       </c>
       <c r="Q16" s="3">
         <v>2752.6</v>
@@ -2408,14 +1802,14 @@
         <v>7327.9</v>
       </c>
       <c r="T16" s="3">
-        <v>8734.8</v>
+        <v>8734.7999999999993</v>
       </c>
       <c r="U16" s="3">
         <v>7931.5</v>
       </c>
       <c r="V16" s="7"/>
     </row>
-    <row r="18" ht="78.75" spans="11:20">
+    <row r="18" spans="11:20" ht="75" x14ac:dyDescent="0.25">
       <c r="K18" s="4" t="s">
         <v>10</v>
       </c>
@@ -2447,7 +1841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="11:20">
+    <row r="19" spans="11:20" ht="15" x14ac:dyDescent="0.25">
       <c r="K19" s="3">
         <v>1660.7</v>
       </c>
@@ -2458,7 +1852,7 @@
         <v>285.8</v>
       </c>
       <c r="N19" s="3">
-        <v>4365.1</v>
+        <v>4365.1000000000004</v>
       </c>
       <c r="O19" s="3">
         <v>241.6</v>
@@ -2479,7 +1873,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="11:20">
+    <row r="20" spans="11:20" ht="15" x14ac:dyDescent="0.25">
       <c r="K20" s="3">
         <v>1657.7</v>
       </c>
@@ -2499,7 +1893,7 @@
         <v>2024</v>
       </c>
       <c r="Q20" s="3">
-        <v>516.7</v>
+        <v>516.70000000000005</v>
       </c>
       <c r="R20" s="3">
         <v>773.1</v>
@@ -2511,7 +1905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="11:20">
+    <row r="21" spans="11:20" ht="15" x14ac:dyDescent="0.25">
       <c r="K21" s="3">
         <v>1581.8</v>
       </c>
@@ -2543,7 +1937,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="11:20">
+    <row r="22" spans="11:20" ht="15" x14ac:dyDescent="0.25">
       <c r="K22" s="3">
         <v>1875.9</v>
       </c>
@@ -2575,7 +1969,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="11:20">
+    <row r="23" spans="11:20" ht="15" x14ac:dyDescent="0.25">
       <c r="K23" s="3">
         <v>1848.1</v>
       </c>
@@ -2586,7 +1980,7 @@
         <v>560</v>
       </c>
       <c r="N23" s="3">
-        <v>10154.3</v>
+        <v>10154.299999999999</v>
       </c>
       <c r="O23" s="3">
         <v>434.7</v>
@@ -2598,16 +1992,16 @@
         <v>885</v>
       </c>
       <c r="R23" s="3">
-        <v>1243.4</v>
+        <v>1243.4000000000001</v>
       </c>
       <c r="S23" s="3">
         <v>3166.1</v>
       </c>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" ht="15.75" spans="11:20">
+    <row r="24" spans="11:20" ht="15" x14ac:dyDescent="0.25">
       <c r="K24" s="3">
-        <v>260.6</v>
+        <v>260.60000000000002</v>
       </c>
       <c r="L24" s="3">
         <v>782</v>
@@ -2622,7 +2016,7 @@
         <v>2523</v>
       </c>
       <c r="P24" s="3">
-        <v>1155.1</v>
+        <v>1155.0999999999999</v>
       </c>
       <c r="Q24" s="3">
         <v>1589.1</v>
@@ -2635,7 +2029,7 @@
       </c>
       <c r="T24" s="7"/>
     </row>
-    <row r="25" ht="15.75" spans="11:20">
+    <row r="25" spans="11:20" ht="15" x14ac:dyDescent="0.25">
       <c r="K25" s="3">
         <v>2589.1</v>
       </c>
@@ -2646,7 +2040,7 @@
         <v>1200.8</v>
       </c>
       <c r="N25" s="3">
-        <v>19874.4</v>
+        <v>19874.400000000001</v>
       </c>
       <c r="O25" s="3">
         <v>801.1</v>
@@ -2661,13 +2055,13 @@
         <v>2383.4</v>
       </c>
       <c r="S25" s="3">
-        <v>4736.1</v>
+        <v>4736.1000000000004</v>
       </c>
       <c r="T25" s="3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" ht="15.75" spans="11:20">
+    <row r="26" spans="11:20" ht="15" x14ac:dyDescent="0.25">
       <c r="K26" s="3">
         <v>2454.5</v>
       </c>
@@ -2681,7 +2075,7 @@
         <v>24827.4</v>
       </c>
       <c r="O26" s="3">
-        <v>1114.1</v>
+        <v>1114.0999999999999</v>
       </c>
       <c r="P26" s="3">
         <v>4033</v>
@@ -2697,7 +2091,7 @@
       </c>
       <c r="T26" s="7"/>
     </row>
-    <row r="27" ht="15.75" spans="11:20">
+    <row r="27" spans="11:20" ht="15" x14ac:dyDescent="0.25">
       <c r="K27" s="3">
         <v>2174.4</v>
       </c>
@@ -2717,7 +2111,7 @@
         <v>3894.6</v>
       </c>
       <c r="Q27" s="3">
-        <v>2330.3</v>
+        <v>2330.3000000000002</v>
       </c>
       <c r="R27" s="3">
         <v>3162</v>
@@ -2727,18 +2121,18 @@
       </c>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" ht="15.75" spans="11:20">
+    <row r="28" spans="11:20" ht="15" x14ac:dyDescent="0.25">
       <c r="K28" s="3">
         <v>2692</v>
       </c>
       <c r="L28" s="3">
-        <v>4700.4</v>
+        <v>4700.3999999999996</v>
       </c>
       <c r="M28" s="3">
-        <v>2475.8</v>
+        <v>2475.8000000000002</v>
       </c>
       <c r="N28" s="3">
-        <v>29621.6</v>
+        <v>29621.599999999999</v>
       </c>
       <c r="O28" s="3">
         <v>1905</v>
@@ -2757,7 +2151,7 @@
       </c>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" ht="15.75" spans="11:20">
+    <row r="29" spans="11:20" ht="15" x14ac:dyDescent="0.25">
       <c r="K29" s="3">
         <v>3133.2</v>
       </c>
@@ -2775,7 +2169,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" ht="15.75" spans="11:20">
+    <row r="30" spans="11:20" ht="15" x14ac:dyDescent="0.25">
       <c r="K30" s="3">
         <v>1363</v>
       </c>
@@ -2783,7 +2177,7 @@
         <v>46225</v>
       </c>
       <c r="M30" s="3">
-        <v>2371.7</v>
+        <v>2371.6999999999998</v>
       </c>
       <c r="N30" s="3">
         <v>6708.7</v>
@@ -2801,7 +2195,7 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" ht="15.75" spans="11:20">
+    <row r="31" spans="11:20" ht="15" x14ac:dyDescent="0.25">
       <c r="K31" s="3">
         <v>5521.9</v>
       </c>
@@ -2821,7 +2215,7 @@
         <v>7726.8</v>
       </c>
       <c r="Q31" s="3">
-        <v>5175.6</v>
+        <v>5175.6000000000004</v>
       </c>
       <c r="R31" s="3">
         <v>6728.3</v>
@@ -2831,7 +2225,7 @@
       </c>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" ht="15.75" spans="11:20">
+    <row r="32" spans="11:20" ht="15" x14ac:dyDescent="0.25">
       <c r="K32" s="3">
         <v>6325.5</v>
       </c>
@@ -2842,13 +2236,13 @@
         <v>5567.8</v>
       </c>
       <c r="N32" s="3">
-        <v>68647.6</v>
+        <v>68647.600000000006</v>
       </c>
       <c r="O32" s="3">
         <v>2750.9</v>
       </c>
       <c r="P32" s="3">
-        <v>9326.7</v>
+        <v>9326.7000000000007</v>
       </c>
       <c r="Q32" s="3">
         <v>6282.1</v>
@@ -2861,7 +2255,7 @@
       </c>
       <c r="T32" s="3"/>
     </row>
-    <row r="33" ht="15.75" spans="11:20">
+    <row r="33" spans="11:20" ht="15" x14ac:dyDescent="0.25">
       <c r="K33" s="3">
         <v>6997.4</v>
       </c>
@@ -2872,7 +2266,7 @@
         <v>5932.5</v>
       </c>
       <c r="N33" s="3">
-        <v>82106.1</v>
+        <v>82106.100000000006</v>
       </c>
       <c r="O33" s="3">
         <v>2752.6</v>
@@ -2884,7 +2278,7 @@
         <v>7327.9</v>
       </c>
       <c r="R33" s="3">
-        <v>8734.8</v>
+        <v>8734.7999999999993</v>
       </c>
       <c r="S33" s="3">
         <v>7931.5</v>
@@ -2892,27 +2286,27 @@
       <c r="T33" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.5398230088496" customWidth="1"/>
-    <col min="7" max="7" width="12.3451327433628"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:10">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2944,7 +2338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:10">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2003</v>
       </c>
@@ -2953,7 +2347,7 @@
       </c>
       <c r="C2" s="3">
         <f>SUM(Sheet1!D2:F2)</f>
-        <v>20427.1</v>
+        <v>20427.099999999999</v>
       </c>
       <c r="D2" s="3">
         <v>924</v>
@@ -2978,7 +2372,7 @@
         <v>15337.4</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:10">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2004</v>
       </c>
@@ -2993,7 +2387,7 @@
         <v>964</v>
       </c>
       <c r="E3" s="3">
-        <v>1273.1</v>
+        <v>1273.0999999999999</v>
       </c>
       <c r="F3" s="3">
         <v>7646.2</v>
@@ -3005,23 +2399,23 @@
         <v>136</v>
       </c>
       <c r="I3" s="3">
-        <v>16678.9</v>
+        <v>16678.900000000001</v>
       </c>
       <c r="J3" s="3">
         <f>SUM(Sheet1!K20:T20)</f>
         <v>13549.8</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:10">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2005</v>
       </c>
       <c r="B4" s="3">
-        <v>2323.7</v>
+        <v>2323.6999999999998</v>
       </c>
       <c r="C4" s="3">
         <f>SUM(Sheet1!D4:F4)</f>
-        <v>37817.8</v>
+        <v>37817.800000000003</v>
       </c>
       <c r="D4" s="3">
         <v>1119</v>
@@ -3046,7 +2440,7 @@
         <v>15858.3</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:10">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2006</v>
       </c>
@@ -3061,7 +2455,7 @@
         <v>1125</v>
       </c>
       <c r="E5" s="3">
-        <v>2265.3</v>
+        <v>2265.3000000000002</v>
       </c>
       <c r="F5" s="3">
         <v>12138.1</v>
@@ -3073,14 +2467,14 @@
         <v>121.4</v>
       </c>
       <c r="I5" s="3">
-        <v>24524.4</v>
+        <v>24524.400000000001</v>
       </c>
       <c r="J5" s="3">
         <f>SUM(Sheet1!K22:T22)</f>
-        <v>18623.6</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:10">
+        <v>18623.599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2007</v>
       </c>
@@ -3114,7 +2508,7 @@
         <v>21615.9</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:10">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2008</v>
       </c>
@@ -3123,13 +2517,13 @@
       </c>
       <c r="C7" s="3">
         <f>SUM(Sheet1!D7:F7)</f>
-        <v>75406.4</v>
+        <v>75406.399999999994</v>
       </c>
       <c r="D7" s="3">
         <v>3741.8</v>
       </c>
       <c r="E7" s="3">
-        <v>17024.4</v>
+        <v>17024.400000000001</v>
       </c>
       <c r="F7" s="3">
         <v>1959.2</v>
@@ -3138,17 +2532,17 @@
         <v>2162.6</v>
       </c>
       <c r="H7" s="3">
-        <v>40441.8</v>
+        <v>40441.800000000003</v>
       </c>
       <c r="I7" s="3">
         <v>1355.9</v>
       </c>
       <c r="J7" s="3">
         <f>SUM(Sheet1!K24:T24)</f>
-        <v>24314.4</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:10">
+        <v>24314.400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2009</v>
       </c>
@@ -3179,10 +2573,10 @@
       </c>
       <c r="J8" s="3">
         <f>SUM(Sheet1!K25:T25)</f>
-        <v>39100.4</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:10">
+        <v>39100.400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2010</v>
       </c>
@@ -3216,12 +2610,12 @@
         <v>47216</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:10">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2011</v>
       </c>
       <c r="B10" s="3">
-        <v>8757.8</v>
+        <v>8757.7999999999993</v>
       </c>
       <c r="C10" s="3">
         <f>SUM(Sheet1!D10:F10)</f>
@@ -3240,17 +2634,17 @@
         <v>3956.6</v>
       </c>
       <c r="H10" s="3">
-        <v>638.7</v>
+        <v>638.70000000000005</v>
       </c>
       <c r="I10" s="3">
-        <v>81686.1</v>
+        <v>81686.100000000006</v>
       </c>
       <c r="J10" s="3">
         <f>SUM(Sheet1!K27:T27)</f>
         <v>48238.1</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:10">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2012</v>
       </c>
@@ -3265,7 +2659,7 @@
         <v>3739</v>
       </c>
       <c r="E11" s="3">
-        <v>9810.7</v>
+        <v>9810.7000000000007</v>
       </c>
       <c r="F11" s="3">
         <v>31444.9</v>
@@ -3284,7 +2678,7 @@
         <v>58943.6</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:10">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2013</v>
       </c>
@@ -3308,7 +2702,7 @@
         <v>5893.2</v>
       </c>
       <c r="H12" s="3">
-        <v>5231.1</v>
+        <v>5231.1000000000004</v>
       </c>
       <c r="I12" s="3">
         <v>37663.9</v>
@@ -3318,7 +2712,7 @@
         <v>14440.3</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:10">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2014</v>
       </c>
@@ -3342,17 +2736,17 @@
         <v>4110</v>
       </c>
       <c r="H13" s="3">
-        <v>131348.2</v>
+        <v>131348.20000000001</v>
       </c>
       <c r="I13" s="3">
-        <v>4219.1</v>
+        <v>4219.1000000000004</v>
       </c>
       <c r="J13" s="3">
         <f>SUM(Sheet1!K30:T30)</f>
         <v>74038.8</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="1:10">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2015</v>
       </c>
@@ -3364,10 +2758,10 @@
         <v>220064</v>
       </c>
       <c r="D14" s="3">
-        <v>4956.6</v>
+        <v>4956.6000000000004</v>
       </c>
       <c r="E14" s="3">
-        <v>18924.9</v>
+        <v>18924.900000000001</v>
       </c>
       <c r="F14" s="3">
         <v>49200</v>
@@ -3379,14 +2773,14 @@
         <v>1367.2</v>
       </c>
       <c r="I14" s="3">
-        <v>134284.3</v>
+        <v>134284.29999999999</v>
       </c>
       <c r="J14" s="3">
         <f>SUM(Sheet1!K31:T31)</f>
         <v>105613.5</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="1:13">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2016</v>
       </c>
@@ -3398,13 +2792,13 @@
         <v>228030.1</v>
       </c>
       <c r="D15" s="3">
-        <v>4614.9</v>
+        <v>4614.8999999999996</v>
       </c>
       <c r="E15" s="3">
-        <v>18166.9</v>
+        <v>18166.900000000001</v>
       </c>
       <c r="F15" s="3">
-        <v>53890.4</v>
+        <v>53890.400000000001</v>
       </c>
       <c r="G15" s="3">
         <v>5976.2</v>
@@ -3421,7 +2815,7 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" ht="15.75" spans="1:10">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2017</v>
       </c>
@@ -3436,7 +2830,7 @@
         <v>3838.9</v>
       </c>
       <c r="E16" s="3">
-        <v>16779.9</v>
+        <v>16779.900000000001</v>
       </c>
       <c r="F16" s="3">
         <v>61449.9</v>
@@ -3452,22 +2846,22 @@
       </c>
       <c r="J16" s="3">
         <f>SUM(Sheet1!K33:T33)</f>
-        <v>146244.2</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" spans="1:10">
+        <v>146244.20000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2018</v>
       </c>
       <c r="B17" s="3">
         <f>PRODUCT(B16,1.123)</f>
-        <v>29993.084</v>
+        <v>29993.083999999999</v>
       </c>
       <c r="C17" s="3">
         <v>248783.7733</v>
       </c>
       <c r="D17" s="3">
-        <v>330529.29</v>
+        <v>330529.28999999998</v>
       </c>
       <c r="E17" s="3">
         <f>PRODUCT(E16*0.785)</f>
@@ -3475,7 +2869,7 @@
       </c>
       <c r="F17" s="3">
         <f>PRODUCT(F16*1.039)</f>
-        <v>63846.4461</v>
+        <v>63846.446100000001</v>
       </c>
       <c r="G17" s="3">
         <f>PRODUCT(G16*0.966)</f>
@@ -3483,7 +2877,7 @@
       </c>
       <c r="H17" s="3">
         <f>PRODUCT(H16*0.869)</f>
-        <v>974.5835</v>
+        <v>974.58349999999996</v>
       </c>
       <c r="I17" s="3">
         <v>179125.6</v>
@@ -3492,7 +2886,7 @@
         <v>367869.8</v>
       </c>
     </row>
-    <row r="18" ht="15.75" spans="1:10">
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2019</v>
       </c>
@@ -3500,7 +2894,7 @@
         <v>30203</v>
       </c>
       <c r="C18" s="3">
-        <v>327648.2294361</v>
+        <v>327648.22943609999</v>
       </c>
       <c r="D18" s="3">
         <v>265084.49</v>
@@ -3511,7 +2905,7 @@
       </c>
       <c r="F18" s="3">
         <f>PRODUCT(F17*1.034)</f>
-        <v>66017.2252674</v>
+        <v>66017.225267400005</v>
       </c>
       <c r="G18" s="3">
         <f>PRODUCT(G17*0.988)</f>
@@ -3525,61 +2919,61 @@
         <v>223907</v>
       </c>
       <c r="J18" s="3">
-        <v>520903.6368</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="1:10">
+        <v>520903.63679999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2020</v>
       </c>
       <c r="B19" s="3">
-        <v>35971.8</v>
+        <v>35971.800000000003</v>
       </c>
       <c r="C19" s="3">
-        <v>331907.656418769</v>
+        <v>331907.65641876898</v>
       </c>
       <c r="D19" s="3">
         <v>289472.26</v>
       </c>
       <c r="E19" s="3">
         <f>PRODUCT(E18*1.092)</f>
-        <v>11536.020834156</v>
+        <v>11536.020834155999</v>
       </c>
       <c r="F19" s="3">
         <f>PRODUCT(F18*1.014)</f>
-        <v>66941.4664211436</v>
+        <v>66941.466421143603</v>
       </c>
       <c r="G19" s="3">
         <f>PRODUCT(G18*0.945)</f>
-        <v>5542.2711162</v>
+        <v>5542.2711161999996</v>
       </c>
       <c r="H19" s="3">
         <f>PRODUCT(H18*0.867)</f>
-        <v>932.840139528</v>
+        <v>932.84013952800001</v>
       </c>
       <c r="I19" s="3">
         <v>246297.7</v>
       </c>
       <c r="J19" s="3">
-        <v>792294.4315728</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" spans="1:10">
+        <v>792294.43157280004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2021</v>
       </c>
       <c r="B20" s="3">
-        <v>39317.19422</v>
+        <v>39317.194219999998</v>
       </c>
       <c r="C20" s="3">
-        <v>416544.108805555</v>
+        <v>416544.10880555498</v>
       </c>
       <c r="D20" s="3">
         <v>294103.81</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" ref="D20:F20" si="0">PRODUCT(E19*1.016)</f>
-        <v>11720.5971675025</v>
+        <f t="shared" ref="E20:F20" si="0">PRODUCT(E19*1.016)</f>
+        <v>11720.597167502499</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
@@ -3587,48 +2981,48 @@
       </c>
       <c r="G20" s="3">
         <f>PRODUCT(G19*1.066)</f>
-        <v>5908.0610098692</v>
+        <v>5908.0610098691996</v>
       </c>
       <c r="H20" s="3">
         <f>PRODUCT(H19*1.019)</f>
-        <v>950.564102179032</v>
+        <v>950.56410217903192</v>
       </c>
       <c r="I20" s="3">
-        <v>292109.1</v>
+        <v>292109.09999999998</v>
       </c>
       <c r="J20" s="3">
         <v>465869.125764806</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="1:10">
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2022</v>
       </c>
       <c r="B21" s="3">
         <f>PRODUCT(B20*1.042)</f>
-        <v>40968.51637724</v>
+        <v>40968.516377239997</v>
       </c>
       <c r="C21" s="3">
-        <v>553587.120602583</v>
+        <v>553587.12060258305</v>
       </c>
       <c r="D21" s="3">
         <v>299985.89</v>
       </c>
       <c r="E21" s="3">
         <f>PRODUCT(E20*1.02)</f>
-        <v>11955.0091108526</v>
+        <v>11955.009110852599</v>
       </c>
       <c r="F21" s="3">
         <f>PRODUCT(F20*1.091)</f>
-        <v>74201.6701033151</v>
+        <v>74201.670103315104</v>
       </c>
       <c r="G21" s="3">
         <f>PRODUCT(G20*1.075)</f>
-        <v>6351.16558560939</v>
+        <v>6351.1655856093903</v>
       </c>
       <c r="H21" s="3">
         <f>PRODUCT(H20*1.105)</f>
-        <v>1050.37333290783</v>
+        <v>1050.3733329078302</v>
       </c>
       <c r="I21" s="3">
         <v>309927.7</v>
@@ -3637,44 +3031,44 @@
         <v>1173990.19692731</v>
       </c>
     </row>
-    <row r="22" ht="15.75" spans="1:10">
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2023</v>
       </c>
       <c r="B22" s="3">
-        <v>491.62219</v>
+        <v>491.62218999999999</v>
       </c>
       <c r="C22" s="3">
-        <v>728520.650712999</v>
+        <v>728520.65071299905</v>
       </c>
       <c r="D22" s="3">
         <v>367482.72</v>
       </c>
       <c r="E22" s="3">
         <f>PRODUCT(E21*0.6)</f>
-        <v>7173.00546651153</v>
+        <v>7173.0054665115304</v>
       </c>
       <c r="F22" s="3">
         <f>PRODUCT(F21*1.105)</f>
-        <v>81992.8454641632</v>
+        <v>81992.845464163198</v>
       </c>
       <c r="G22" s="3">
         <f>PRODUCT(G21*1.082)</f>
-        <v>6871.96116362936</v>
+        <v>6871.9611636293603</v>
       </c>
       <c r="H22" s="3">
         <f>PRODUCT(H21*0.881)</f>
-        <v>925.378906291798</v>
+        <v>925.37890629179844</v>
       </c>
       <c r="I22" s="3">
-        <v>315506.4</v>
+        <v>315506.40000000002</v>
       </c>
       <c r="J22" s="3">
-        <v>1319564.9813463</v>
+        <v>1319564.9813463001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/近二十年各产业投资情况数据表.xlsx
+++ b/data/近二十年各产业投资情况数据表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实操\vscode实操\华数杯国际模板01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B490537-12A8-4394-8B6C-167C4794344B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D9837D-46E9-461C-BF31-B021DBC2AA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6610" yWindow="3280" windowWidth="15580" windowHeight="11600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2296,17 +2296,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.54296875" customWidth="1"/>
     <col min="7" max="7" width="12.36328125"/>
+    <col min="8" max="8" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2328,7 +2329,7 @@
       <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -2338,7 +2339,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2003</v>
       </c>
@@ -2347,7 +2348,7 @@
       </c>
       <c r="C2" s="3">
         <f>SUM(Sheet1!D2:F2)</f>
-        <v>20427.099999999999</v>
+        <v>20427.100000000002</v>
       </c>
       <c r="D2" s="3">
         <v>924</v>
@@ -2369,10 +2370,10 @@
       </c>
       <c r="J2" s="3">
         <f>SUM(Sheet1!K19:T19)</f>
-        <v>15337.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>15337.400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2004</v>
       </c>
@@ -2403,10 +2404,10 @@
       </c>
       <c r="J3" s="3">
         <f>SUM(Sheet1!K20:T20)</f>
-        <v>13549.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>13549.800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2005</v>
       </c>
@@ -2437,10 +2438,10 @@
       </c>
       <c r="J4" s="3">
         <f>SUM(Sheet1!K21:T21)</f>
-        <v>15858.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>15858.300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2006</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>18623.599999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2007</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>21615.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2008</v>
       </c>
@@ -2517,7 +2518,7 @@
       </c>
       <c r="C7" s="3">
         <f>SUM(Sheet1!D7:F7)</f>
-        <v>75406.399999999994</v>
+        <v>75406.400000000009</v>
       </c>
       <c r="D7" s="3">
         <v>3741.8</v>
@@ -2539,10 +2540,10 @@
       </c>
       <c r="J7" s="3">
         <f>SUM(Sheet1!K24:T24)</f>
-        <v>24314.400000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>24314.399999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2009</v>
       </c>
@@ -2573,10 +2574,11 @@
       </c>
       <c r="J8" s="3">
         <f>SUM(Sheet1!K25:T25)</f>
-        <v>39100.400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>39100.399999999994</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2010</v>
       </c>
@@ -2585,7 +2587,7 @@
       </c>
       <c r="C9" s="3">
         <f>SUM(Sheet1!D9:F9)</f>
-        <v>115299.8</v>
+        <v>115299.79999999999</v>
       </c>
       <c r="D9" s="3">
         <v>2802.2</v>
@@ -2610,7 +2612,7 @@
         <v>47216</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2011</v>
       </c>
@@ -2619,7 +2621,7 @@
       </c>
       <c r="C10" s="3">
         <f>SUM(Sheet1!D10:F10)</f>
-        <v>129119.6</v>
+        <v>129119.59999999999</v>
       </c>
       <c r="D10" s="3">
         <v>3357.1</v>
@@ -2641,10 +2643,10 @@
       </c>
       <c r="J10" s="3">
         <f>SUM(Sheet1!K27:T27)</f>
-        <v>48238.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>48238.100000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2012</v>
       </c>
@@ -2675,10 +2677,10 @@
       </c>
       <c r="J11" s="3">
         <f>SUM(Sheet1!K28:T28)</f>
-        <v>58943.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>58943.600000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2013</v>
       </c>
@@ -2709,10 +2711,10 @@
       </c>
       <c r="J12" s="3">
         <f>SUM(Sheet1!K29:T29)</f>
-        <v>14440.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>14440.300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2014</v>
       </c>
@@ -2743,10 +2745,10 @@
       </c>
       <c r="J13" s="3">
         <f>SUM(Sheet1!K30:T30)</f>
-        <v>74038.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>74038.799999999988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2015</v>
       </c>
@@ -2755,7 +2757,7 @@
       </c>
       <c r="C14" s="3">
         <f>SUM(Sheet1!D14:F14)</f>
-        <v>220064</v>
+        <v>220063.99999999997</v>
       </c>
       <c r="D14" s="3">
         <v>4956.6000000000004</v>
@@ -2777,10 +2779,10 @@
       </c>
       <c r="J14" s="3">
         <f>SUM(Sheet1!K31:T31)</f>
-        <v>105613.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>105613.50000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2016</v>
       </c>
@@ -2815,7 +2817,7 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2017</v>
       </c>
@@ -2849,7 +2851,7 @@
         <v>146244.20000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2018</v>
       </c>
@@ -2865,11 +2867,11 @@
       </c>
       <c r="E17" s="3">
         <f>PRODUCT(E16*0.785)</f>
-        <v>13172.2215</v>
+        <v>13172.221500000001</v>
       </c>
       <c r="F17" s="3">
         <f>PRODUCT(F16*1.039)</f>
-        <v>63846.446100000001</v>
+        <v>63846.446099999994</v>
       </c>
       <c r="G17" s="3">
         <f>PRODUCT(G16*0.966)</f>
@@ -2886,7 +2888,7 @@
         <v>367869.8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2019</v>
       </c>
@@ -2901,11 +2903,11 @@
       </c>
       <c r="E18" s="3">
         <f>PRODUCT(E17*0.802)</f>
-        <v>10564.121643</v>
+        <v>10564.121643000002</v>
       </c>
       <c r="F18" s="3">
         <f>PRODUCT(F17*1.034)</f>
-        <v>66017.225267400005</v>
+        <v>66017.22526739999</v>
       </c>
       <c r="G18" s="3">
         <f>PRODUCT(G17*0.988)</f>
@@ -2922,7 +2924,7 @@
         <v>520903.63679999998</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2020</v>
       </c>
@@ -2937,11 +2939,11 @@
       </c>
       <c r="E19" s="3">
         <f>PRODUCT(E18*1.092)</f>
-        <v>11536.020834155999</v>
+        <v>11536.020834156003</v>
       </c>
       <c r="F19" s="3">
         <f>PRODUCT(F18*1.014)</f>
-        <v>66941.466421143603</v>
+        <v>66941.466421143588</v>
       </c>
       <c r="G19" s="3">
         <f>PRODUCT(G18*0.945)</f>
@@ -2958,7 +2960,7 @@
         <v>792294.43157280004</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2021</v>
       </c>
@@ -2977,7 +2979,7 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>68012.5298838819</v>
+        <v>68012.529883881885</v>
       </c>
       <c r="G20" s="3">
         <f>PRODUCT(G19*1.066)</f>
@@ -2994,7 +2996,7 @@
         <v>465869.125764806</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2022</v>
       </c>
@@ -3010,15 +3012,15 @@
       </c>
       <c r="E21" s="3">
         <f>PRODUCT(E20*1.02)</f>
-        <v>11955.009110852599</v>
+        <v>11955.00911085255</v>
       </c>
       <c r="F21" s="3">
         <f>PRODUCT(F20*1.091)</f>
-        <v>74201.670103315104</v>
+        <v>74201.670103315133</v>
       </c>
       <c r="G21" s="3">
         <f>PRODUCT(G20*1.075)</f>
-        <v>6351.1655856093903</v>
+        <v>6351.1655856093894</v>
       </c>
       <c r="H21" s="3">
         <f>PRODUCT(H20*1.105)</f>
@@ -3031,7 +3033,7 @@
         <v>1173990.19692731</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2023</v>
       </c>
@@ -3050,11 +3052,11 @@
       </c>
       <c r="F22" s="3">
         <f>PRODUCT(F21*1.105)</f>
-        <v>81992.845464163198</v>
+        <v>81992.845464163227</v>
       </c>
       <c r="G22" s="3">
         <f>PRODUCT(G21*1.082)</f>
-        <v>6871.9611636293603</v>
+        <v>6871.9611636293594</v>
       </c>
       <c r="H22" s="3">
         <f>PRODUCT(H21*0.881)</f>

--- a/data/近二十年各产业投资情况数据表.xlsx
+++ b/data/近二十年各产业投资情况数据表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实操\vscode实操\华数杯国际模板01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D9837D-46E9-461C-BF31-B021DBC2AA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FB6B9-D82A-4A43-AD65-2D8DC233E84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6610" yWindow="3280" windowWidth="15580" windowHeight="11600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,21 +135,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF060607"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -236,30 +228,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,1535 +747,1535 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>2003</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>55566.1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>1652.3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>1775.2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>14689.5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>3962.4</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>924</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>9221</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>6289.4</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>423.1</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="1">
         <v>1660.7</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="1">
         <v>90.1</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="1">
         <v>13143.4</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="1">
         <v>375.5</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="1">
         <v>285.8</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="1">
         <v>4365.1000000000004</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="1">
         <v>241.6</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="1">
         <v>1671</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="1">
         <v>4051</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="1">
         <v>531.1</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="1">
         <v>2153.1</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="1">
         <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2004</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>70477.399999999994</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>1890.7</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>2395.9</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>19685.5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>5795.1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>964</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>1273.0999999999999</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>7646.2</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <v>560.1</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="1">
         <v>1657.7</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="1">
         <v>136</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
         <v>16678.900000000001</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="1">
         <v>420.8</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="1">
         <v>333.1</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="1">
         <v>5071.7</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="1">
         <v>313.7</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="1">
         <v>2024</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="1">
         <v>516.70000000000005</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="1">
         <v>773.1</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="1">
         <v>2437</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>2005</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>88773.6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>2323.6999999999998</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>3687.4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>26576</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>7554.4</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>1119</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>1716</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>9614.1</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <v>808.1</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="1">
         <v>1581.8</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="1">
         <v>109.6</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <v>19505.3</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="1">
         <v>549.6</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="1">
         <v>435.1</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="1">
         <v>6274.1</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="1">
         <v>363.5</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="1">
         <v>2209</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="1">
         <v>661.8</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="1">
         <v>857.1</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="1">
         <v>2926.1</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>2006</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>109998.2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>2749.9</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>4678.3999999999996</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>34089.5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>8585.1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>1125</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>2265.3000000000002</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>12138.1</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>1095.7</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>1875.9</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <v>121.4</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <v>24524.400000000001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="1">
         <v>725.6</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="1">
         <v>495.3</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="1">
         <v>8152.7</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="1">
         <v>389.5</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="1">
         <v>2270</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="1">
         <v>769</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="1">
         <v>955.4</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="1">
         <v>2990.1</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>2007</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>137323.9</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>3403.5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>5878.8</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>44505.1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>9467.1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>1302.3</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>2880.3</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>14154</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <v>1519.4</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <v>1848.1</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <v>157.6</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <v>32438.9</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <v>949.3</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="1">
         <v>560</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="1">
         <v>10154.299999999999</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="1">
         <v>434.7</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="1">
         <v>2375</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="1">
         <v>885</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="1">
         <v>1243.4000000000001</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="1">
         <v>3166.1</v>
       </c>
-      <c r="V6" s="3"/>
+      <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>2008</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>172828.4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>5064.5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>7706.8</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>56702.400000000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>10997.2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>3741.8</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>17024.400000000001</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>1959.2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="1">
         <v>2162.6</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="1">
         <v>260.60000000000002</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="1">
         <v>40441.800000000003</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="1">
         <v>1355.9</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="1">
         <v>782</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="1">
         <v>13634.1</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="1">
         <v>622.1</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="1">
         <v>2523</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="1">
         <v>1155.0999999999999</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="1">
         <v>1589.1</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="1">
         <v>3748.1</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="1">
         <v>0.3</v>
       </c>
-      <c r="V7" s="7"/>
+      <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>2009</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>224598.1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>6894.9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>9210.7999999999993</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>70612.899999999994</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>14434.6</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>1992.5</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>5132.8</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>24974.1</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <v>2625.4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="1">
         <v>2589.1</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="1">
         <v>360.2</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="1">
         <v>49368.5</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="1">
         <v>2036.2</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="1">
         <v>1200.8</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="1">
         <v>19874.400000000001</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="1">
         <v>801.1</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="1">
         <v>3621</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="1">
         <v>1858.1</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="1">
         <v>2383.4</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="1">
         <v>4736.1000000000004</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>2010</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>278121.90000000002</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>7923.1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>11000.9</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>88619.199999999997</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>15679.7</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>2802.2</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>60322</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>30074.5</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="1">
         <v>3366.1</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="1">
         <v>2454.5</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="1">
         <v>489.4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="1">
         <v>64877.3</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="1">
         <v>2652.6</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="1">
         <v>1379.3</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="1">
         <v>24827.4</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="1">
         <v>1114.0999999999999</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="1">
         <v>4033</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="1">
         <v>2119.1</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="1">
         <v>2959.4</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="1">
         <v>5676.6</v>
       </c>
-      <c r="V9" s="7"/>
+      <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>2011</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>311485.09999999998</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>8757.7999999999993</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>11747</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>102712.9</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>14659.7</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>3357.1</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>7439.4</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>28291.7</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="1">
         <v>3956.6</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="1">
         <v>2174.4</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="1">
         <v>638.70000000000005</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="1">
         <v>81686.100000000006</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="1">
         <v>3382.8</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="1">
         <v>1679.8</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="1">
         <v>24523.1</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="1">
         <v>1443.3</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="1">
         <v>3894.6</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="1">
         <v>2330.3000000000002</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="1">
         <v>3162</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="1">
         <v>5647.8</v>
       </c>
-      <c r="V10" s="3"/>
+      <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>2012</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>374694.7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>10996.4</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>13300.8</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>124550</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>16672.7</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>3739</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>9810.7000000000007</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>31444.9</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="1">
         <v>5153.5</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="1">
         <v>2692</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="1">
         <v>923.9</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="1">
         <v>99159.3</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="1">
         <v>4700.3999999999996</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="1">
         <v>2475.8000000000002</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="1">
         <v>29621.599999999999</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="1">
         <v>1905</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="1">
         <v>4613</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="1">
         <v>2617.1</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="1">
         <v>4271.3</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="1">
         <v>6047.4</v>
       </c>
-      <c r="V11" s="3"/>
+      <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>2013</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>446294.1</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>13478.8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>19634.7</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>12720.5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>3669.8</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>36790.1</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>6041.1</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>3084.9</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="1">
         <v>5893.2</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="1">
         <v>3133.2</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="1">
         <v>5231.1000000000004</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="1">
         <v>37663.9</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="1">
         <v>5433</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="1">
         <v>5874.1</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>2014</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>512020.7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>16573.8</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>14538.9</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>167025.29999999999</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>22829.7</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>4125.8</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>15800.2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>43215.7</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="1">
         <v>4110</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="1">
         <v>1363</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="1">
         <v>131348.20000000001</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="1">
         <v>4219.1000000000004</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="1">
         <v>46225</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="1">
         <v>2371.6999999999998</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="1">
         <v>6708.7</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="1">
         <v>3991.5</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="1">
         <v>6178.4</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="1">
         <v>7200.5</v>
       </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>2015</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>561999.80000000005</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>21042.7</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>12970.8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>180370.4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>26722.799999999999</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>4956.6000000000004</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <v>18924.900000000001</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
         <v>49200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="1">
         <v>6546.7</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="1">
         <v>5521.9</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="1">
         <v>1367.2</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="1">
         <v>134284.29999999999</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="1">
         <v>9447.9</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="1">
         <v>4752</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="1">
         <v>55679.6</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="1">
         <v>2730.3</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="1">
         <v>7726.8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="1">
         <v>5175.6000000000004</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="1">
         <v>6728.3</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="1">
         <v>7851.1</v>
       </c>
-      <c r="V14" s="3"/>
+      <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>2016</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>606465.69999999995</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>24853.1</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>10320.299999999999</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>187962.1</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>29747.7</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>4614.8999999999996</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>18166.900000000001</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <v>53890.400000000001</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="1">
         <v>5976.2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="1">
         <v>6325.5</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="1">
         <v>1310.2</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="1">
         <v>142359.4</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="1">
         <v>12341.9</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="1">
         <v>5567.8</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="1">
         <v>68647.600000000006</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="1">
         <v>2750.9</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="1">
         <v>9326.7000000000007</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="1">
         <v>6282.1</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="1">
         <v>7834.2</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="1">
         <v>8187.7</v>
       </c>
-      <c r="V15" s="3"/>
+      <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>2017</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>641238.4</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>26708</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>9210.1</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>193710</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>29805.599999999999</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>3838.9</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>16779.900000000001</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="1">
         <v>61449.9</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="1">
         <v>6145</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="1">
         <v>6997.4</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="1">
         <v>1121.5</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="1">
         <v>146225.5</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="1">
         <v>13357.1</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="1">
         <v>5932.5</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="1">
         <v>82106.100000000006</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="1">
         <v>2752.6</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="1">
         <v>11104.3</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="1">
         <v>7327.9</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="1">
         <v>8734.7999999999993</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="1">
         <v>7931.5</v>
       </c>
-      <c r="V16" s="7"/>
+      <c r="V16" s="5"/>
     </row>
     <row r="18" spans="11:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R18" s="4" t="s">
+      <c r="R18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="T18" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K19" s="3">
+      <c r="K19" s="1">
         <v>1660.7</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="1">
         <v>375.5</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="1">
         <v>285.8</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="1">
         <v>4365.1000000000004</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="1">
         <v>241.6</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="1">
         <v>1671</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="1">
         <v>4051</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="1">
         <v>531.1</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="1">
         <v>2153.1</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="1">
         <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K20" s="3">
+      <c r="K20" s="1">
         <v>1657.7</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="1">
         <v>420.8</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="1">
         <v>333.1</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="1">
         <v>5071.7</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="1">
         <v>313.7</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="1">
         <v>2024</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="1">
         <v>516.70000000000005</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="1">
         <v>773.1</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="1">
         <v>2437</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K21" s="3">
+      <c r="K21" s="1">
         <v>1581.8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="1">
         <v>549.6</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="1">
         <v>435.1</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="1">
         <v>6274.1</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="1">
         <v>363.5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="1">
         <v>2209</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="1">
         <v>661.8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="1">
         <v>857.1</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="1">
         <v>2926.1</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K22" s="3">
+      <c r="K22" s="1">
         <v>1875.9</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="1">
         <v>725.6</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="1">
         <v>495.3</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="1">
         <v>8152.7</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="1">
         <v>389.5</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="1">
         <v>2270</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="1">
         <v>769</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="1">
         <v>955.4</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="1">
         <v>2990.1</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="1">
         <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K23" s="3">
+      <c r="K23" s="1">
         <v>1848.1</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="1">
         <v>949.3</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="1">
         <v>560</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="1">
         <v>10154.299999999999</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="1">
         <v>434.7</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="1">
         <v>2375</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="1">
         <v>885</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="1">
         <v>1243.4000000000001</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="1">
         <v>3166.1</v>
       </c>
-      <c r="T23" s="3"/>
+      <c r="T23" s="1"/>
     </row>
     <row r="24" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K24" s="3">
+      <c r="K24" s="1">
         <v>260.60000000000002</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="1">
         <v>782</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="1">
         <v>13634.1</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="1">
         <v>622.1</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="1">
         <v>2523</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="1">
         <v>1155.0999999999999</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="1">
         <v>1589.1</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="1">
         <v>3748.1</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="1">
         <v>0.3</v>
       </c>
-      <c r="T24" s="7"/>
+      <c r="T24" s="5"/>
     </row>
     <row r="25" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K25" s="3">
+      <c r="K25" s="1">
         <v>2589.1</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="1">
         <v>2036.2</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="1">
         <v>1200.8</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="1">
         <v>19874.400000000001</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="1">
         <v>801.1</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="1">
         <v>3621</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="1">
         <v>1858.1</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="1">
         <v>2383.4</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="1">
         <v>4736.1000000000004</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K26" s="3">
+      <c r="K26" s="1">
         <v>2454.5</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="1">
         <v>2652.6</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="1">
         <v>1379.3</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="1">
         <v>24827.4</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="1">
         <v>1114.0999999999999</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="1">
         <v>4033</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="1">
         <v>2119.1</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="1">
         <v>2959.4</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="1">
         <v>5676.6</v>
       </c>
-      <c r="T26" s="7"/>
+      <c r="T26" s="5"/>
     </row>
     <row r="27" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K27" s="3">
+      <c r="K27" s="1">
         <v>2174.4</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="1">
         <v>3382.8</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="1">
         <v>1679.8</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="1">
         <v>24523.1</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="1">
         <v>1443.3</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="1">
         <v>3894.6</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="1">
         <v>2330.3000000000002</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="1">
         <v>3162</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="1">
         <v>5647.8</v>
       </c>
-      <c r="T27" s="3"/>
+      <c r="T27" s="1"/>
     </row>
     <row r="28" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K28" s="3">
+      <c r="K28" s="1">
         <v>2692</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="1">
         <v>4700.3999999999996</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="1">
         <v>2475.8000000000002</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="1">
         <v>29621.599999999999</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="1">
         <v>1905</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="1">
         <v>4613</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28" s="1">
         <v>2617.1</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="1">
         <v>4271.3</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="1">
         <v>6047.4</v>
       </c>
-      <c r="T28" s="3"/>
+      <c r="T28" s="1"/>
     </row>
     <row r="29" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K29" s="3">
+      <c r="K29" s="1">
         <v>3133.2</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="1">
         <v>5433</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="1">
         <v>5874.1</v>
       </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
     </row>
     <row r="30" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K30" s="3">
+      <c r="K30" s="1">
         <v>1363</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="1">
         <v>46225</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="1">
         <v>2371.6999999999998</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="1">
         <v>6708.7</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="1">
         <v>3991.5</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="1">
         <v>6178.4</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="1">
         <v>7200.5</v>
       </c>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
     </row>
     <row r="31" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K31" s="3">
+      <c r="K31" s="1">
         <v>5521.9</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="1">
         <v>9447.9</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="1">
         <v>4752</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="1">
         <v>55679.6</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="1">
         <v>2730.3</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="1">
         <v>7726.8</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q31" s="1">
         <v>5175.6000000000004</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31" s="1">
         <v>6728.3</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S31" s="1">
         <v>7851.1</v>
       </c>
-      <c r="T31" s="3"/>
+      <c r="T31" s="1"/>
     </row>
     <row r="32" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K32" s="3">
+      <c r="K32" s="1">
         <v>6325.5</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="1">
         <v>12341.9</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="1">
         <v>5567.8</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="1">
         <v>68647.600000000006</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="1">
         <v>2750.9</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="1">
         <v>9326.7000000000007</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="1">
         <v>6282.1</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="1">
         <v>7834.2</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="1">
         <v>8187.7</v>
       </c>
-      <c r="T32" s="3"/>
+      <c r="T32" s="1"/>
     </row>
     <row r="33" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K33" s="3">
+      <c r="K33" s="1">
         <v>6997.4</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="1">
         <v>13357.1</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="1">
         <v>5932.5</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="1">
         <v>82106.100000000006</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="1">
         <v>2752.6</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="1">
         <v>11104.3</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="1">
         <v>7327.9</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="1">
         <v>8734.7999999999993</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="1">
         <v>7931.5</v>
       </c>
-      <c r="T33" s="7"/>
+      <c r="T33" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2294,783 +2283,720 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125"/>
-    <col min="8" max="8" width="9" style="3"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>2003</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>1652.3</v>
       </c>
-      <c r="C2" s="3">
-        <f>SUM(Sheet1!D2:F2)</f>
+      <c r="C2" s="6">
         <v>20427.100000000002</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>924</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>9221</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="6">
         <v>6289.4</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>423.1</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>90.1</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="6">
         <v>13143.4</v>
       </c>
-      <c r="J2" s="3">
-        <f>SUM(Sheet1!K19:T19)</f>
+      <c r="J2" s="6">
         <v>15337.400000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2004</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>1890.7</v>
       </c>
-      <c r="C3" s="3">
-        <f>SUM(Sheet1!D3:F3)</f>
+      <c r="C3" s="6">
         <v>27876.5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>964</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>1273.0999999999999</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>7646.2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
         <v>560.1</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <v>136</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <v>16678.900000000001</v>
       </c>
-      <c r="J3" s="3">
-        <f>SUM(Sheet1!K20:T20)</f>
+      <c r="J3" s="6">
         <v>13549.800000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2005</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>2323.6999999999998</v>
       </c>
-      <c r="C4" s="3">
-        <f>SUM(Sheet1!D4:F4)</f>
+      <c r="C4" s="6">
         <v>37817.800000000003</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>1119</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>1716</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="6">
         <v>9614.1</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
         <v>808.1</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <v>109.6</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="6">
         <v>19505.3</v>
       </c>
-      <c r="J4" s="3">
-        <f>SUM(Sheet1!K21:T21)</f>
+      <c r="J4" s="6">
         <v>15858.300000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>2006</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>2749.9</v>
       </c>
-      <c r="C5" s="3">
-        <f>SUM(Sheet1!D5:F5)</f>
+      <c r="C5" s="6">
         <v>47353</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>1125</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>2265.3000000000002</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="6">
         <v>12138.1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
         <v>1095.7</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>121.4</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>24524.400000000001</v>
       </c>
-      <c r="J5" s="3">
-        <f>SUM(Sheet1!K22:T22)</f>
+      <c r="J5" s="6">
         <v>18623.599999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>2007</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>3403.5</v>
       </c>
-      <c r="C6" s="3">
-        <f>SUM(Sheet1!D6:F6)</f>
+      <c r="C6" s="6">
         <v>59851</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>1302.3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>2880.3</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="6">
         <v>14154</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
         <v>1519.4</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <v>157.6</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>32438.9</v>
       </c>
-      <c r="J6" s="3">
-        <f>SUM(Sheet1!K23:T23)</f>
+      <c r="J6" s="6">
         <v>21615.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>2008</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>5064.5</v>
       </c>
-      <c r="C7" s="3">
-        <f>SUM(Sheet1!D7:F7)</f>
+      <c r="C7" s="6">
         <v>75406.400000000009</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>3741.8</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>17024.400000000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="6">
         <v>1959.2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>2162.6</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>40441.800000000003</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>1355.9</v>
       </c>
-      <c r="J7" s="3">
-        <f>SUM(Sheet1!K24:T24)</f>
+      <c r="J7" s="6">
         <v>24314.399999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>2009</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>6894.9</v>
       </c>
-      <c r="C8" s="3">
-        <f>SUM(Sheet1!D8:F8)</f>
+      <c r="C8" s="6">
         <v>94258.3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>1992.5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>5132.8</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="6">
         <v>24974.1</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <v>2625.4</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <v>360.2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="6">
         <v>49368.5</v>
       </c>
-      <c r="J8" s="3">
-        <f>SUM(Sheet1!K25:T25)</f>
+      <c r="J8" s="6">
         <v>39100.399999999994</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    </row>
+    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>2010</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>7923.1</v>
       </c>
-      <c r="C9" s="3">
-        <f>SUM(Sheet1!D9:F9)</f>
+      <c r="C9" s="6">
         <v>115299.79999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>2802.2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="6">
         <v>60322</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>30074.5</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="6">
         <v>3366.1</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>489.4</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>64877.3</v>
       </c>
-      <c r="J9" s="3">
-        <f>SUM(Sheet1!K26:T26)</f>
+      <c r="J9" s="6">
         <v>47216</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>2011</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>8757.7999999999993</v>
       </c>
-      <c r="C10" s="3">
-        <f>SUM(Sheet1!D10:F10)</f>
+      <c r="C10" s="6">
         <v>129119.59999999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>3357.1</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <v>7439.4</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="6">
         <v>28291.7</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="6">
         <v>3956.6</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <v>638.70000000000005</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>81686.100000000006</v>
       </c>
-      <c r="J10" s="3">
-        <f>SUM(Sheet1!K27:T27)</f>
+      <c r="J10" s="6">
         <v>48238.100000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>2012</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>10996.4</v>
       </c>
-      <c r="C11" s="3">
-        <f>SUM(Sheet1!D11:F11)</f>
+      <c r="C11" s="6">
         <v>154523.5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>3739</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>9810.7000000000007</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>31444.9</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>5153.5</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <v>923.9</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>99159.3</v>
       </c>
-      <c r="J11" s="3">
-        <f>SUM(Sheet1!K28:T28)</f>
+      <c r="J11" s="6">
         <v>58943.600000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>2013</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>13478.8</v>
       </c>
-      <c r="C12" s="3">
-        <f>SUM(Sheet1!D12:F12)</f>
+      <c r="C12" s="6">
         <v>36025</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <v>36790.1</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
         <v>6041.1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="6">
         <v>3084.9</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="6">
         <v>5893.2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="6">
         <v>5231.1000000000004</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="6">
         <v>37663.9</v>
       </c>
-      <c r="J12" s="3">
-        <f>SUM(Sheet1!K29:T29)</f>
+      <c r="J12" s="6">
         <v>14440.300000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>2014</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <v>16573.8</v>
       </c>
-      <c r="C13" s="3">
-        <f>SUM(Sheet1!D13:F13)</f>
+      <c r="C13" s="6">
         <v>204393.9</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <v>4125.8</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>15800.2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="6">
         <v>43215.7</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="6">
         <v>4110</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="6">
         <v>131348.20000000001</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="6">
         <v>4219.1000000000004</v>
       </c>
-      <c r="J13" s="3">
-        <f>SUM(Sheet1!K30:T30)</f>
+      <c r="J13" s="6">
         <v>74038.799999999988</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>2015</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>21042.7</v>
       </c>
-      <c r="C14" s="3">
-        <f>SUM(Sheet1!D14:F14)</f>
+      <c r="C14" s="6">
         <v>220063.99999999997</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6">
         <v>4956.6000000000004</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>18924.900000000001</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="6">
         <v>49200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <v>6546.7</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <v>1367.2</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="6">
         <v>134284.29999999999</v>
       </c>
-      <c r="J14" s="3">
-        <f>SUM(Sheet1!K31:T31)</f>
+      <c r="J14" s="6">
         <v>105613.50000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>2016</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>24853.1</v>
       </c>
-      <c r="C15" s="3">
-        <f>SUM(Sheet1!D15:F15)</f>
+      <c r="C15" s="6">
         <v>228030.1</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="6">
         <v>4614.8999999999996</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="6">
         <v>18166.900000000001</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="6">
         <v>53890.400000000001</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="6">
         <v>5976.2</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="6">
         <v>1310.2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="6">
         <v>142359.4</v>
       </c>
-      <c r="J15" s="3">
-        <f>SUM(Sheet1!K32:T32)</f>
+      <c r="J15" s="6">
         <v>127264.4</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    </row>
+    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>2017</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <v>26708</v>
       </c>
-      <c r="C16" s="3">
-        <f>SUM(Sheet1!D16:F16)</f>
+      <c r="C16" s="6">
         <v>232725.7</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="6">
         <v>3838.9</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="6">
         <v>16779.900000000001</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="6">
         <v>61449.9</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="6">
         <v>6145</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="6">
         <v>1121.5</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="6">
         <v>146225.5</v>
       </c>
-      <c r="J16" s="3">
-        <f>SUM(Sheet1!K33:T33)</f>
+      <c r="J16" s="6">
         <v>146244.20000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>2018</v>
       </c>
-      <c r="B17" s="3">
-        <f>PRODUCT(B16,1.123)</f>
+      <c r="B17" s="6">
         <v>29993.083999999999</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>248783.7733</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="6">
         <v>330529.28999999998</v>
       </c>
-      <c r="E17" s="3">
-        <f>PRODUCT(E16*0.785)</f>
+      <c r="E17" s="6">
         <v>13172.221500000001</v>
       </c>
-      <c r="F17" s="3">
-        <f>PRODUCT(F16*1.039)</f>
+      <c r="F17" s="6">
         <v>63846.446099999994</v>
       </c>
-      <c r="G17" s="3">
-        <f>PRODUCT(G16*0.966)</f>
+      <c r="G17" s="6">
         <v>5936.07</v>
       </c>
-      <c r="H17" s="3">
-        <f>PRODUCT(H16*0.869)</f>
+      <c r="H17" s="6">
         <v>974.58349999999996</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="6">
         <v>179125.6</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="6">
         <v>367869.8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>2019</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>30203</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>327648.22943609999</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="6">
         <v>265084.49</v>
       </c>
-      <c r="E18" s="3">
-        <f>PRODUCT(E17*0.802)</f>
+      <c r="E18" s="6">
         <v>10564.121643000002</v>
       </c>
-      <c r="F18" s="3">
-        <f>PRODUCT(F17*1.034)</f>
+      <c r="F18" s="6">
         <v>66017.22526739999</v>
       </c>
-      <c r="G18" s="3">
-        <f>PRODUCT(G17*0.988)</f>
+      <c r="G18" s="6">
         <v>5864.83716</v>
       </c>
-      <c r="H18" s="3">
-        <f>PRODUCT(H17*1.104)</f>
+      <c r="H18" s="6">
         <v>1075.940184</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="6">
         <v>223907</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="6">
         <v>520903.63679999998</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>2020</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>35971.800000000003</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>331907.65641876898</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="6">
         <v>289472.26</v>
       </c>
-      <c r="E19" s="3">
-        <f>PRODUCT(E18*1.092)</f>
+      <c r="E19" s="6">
         <v>11536.020834156003</v>
       </c>
-      <c r="F19" s="3">
-        <f>PRODUCT(F18*1.014)</f>
+      <c r="F19" s="6">
         <v>66941.466421143588</v>
       </c>
-      <c r="G19" s="3">
-        <f>PRODUCT(G18*0.945)</f>
+      <c r="G19" s="6">
         <v>5542.2711161999996</v>
       </c>
-      <c r="H19" s="3">
-        <f>PRODUCT(H18*0.867)</f>
+      <c r="H19" s="6">
         <v>932.84013952800001</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="6">
         <v>246297.7</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="6">
         <v>792294.43157280004</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>2021</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>39317.194219999998</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="6">
         <v>416544.10880555498</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="6">
         <v>294103.81</v>
       </c>
-      <c r="E20" s="3">
-        <f t="shared" ref="E20:F20" si="0">PRODUCT(E19*1.016)</f>
+      <c r="E20" s="6">
         <v>11720.597167502499</v>
       </c>
-      <c r="F20" s="3">
-        <f t="shared" si="0"/>
+      <c r="F20" s="6">
         <v>68012.529883881885</v>
       </c>
-      <c r="G20" s="3">
-        <f>PRODUCT(G19*1.066)</f>
+      <c r="G20" s="6">
         <v>5908.0610098691996</v>
       </c>
-      <c r="H20" s="3">
-        <f>PRODUCT(H19*1.019)</f>
+      <c r="H20" s="6">
         <v>950.56410217903192</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="6">
         <v>292109.09999999998</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="6">
         <v>465869.125764806</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>2022</v>
       </c>
-      <c r="B21" s="3">
-        <f>PRODUCT(B20*1.042)</f>
+      <c r="B21" s="6">
         <v>40968.516377239997</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="6">
         <v>553587.12060258305</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="6">
         <v>299985.89</v>
       </c>
-      <c r="E21" s="3">
-        <f>PRODUCT(E20*1.02)</f>
+      <c r="E21" s="6">
         <v>11955.00911085255</v>
       </c>
-      <c r="F21" s="3">
-        <f>PRODUCT(F20*1.091)</f>
+      <c r="F21" s="6">
         <v>74201.670103315133</v>
       </c>
-      <c r="G21" s="3">
-        <f>PRODUCT(G20*1.075)</f>
+      <c r="G21" s="6">
         <v>6351.1655856093894</v>
       </c>
-      <c r="H21" s="3">
-        <f>PRODUCT(H20*1.105)</f>
+      <c r="H21" s="6">
         <v>1050.3733329078302</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="6">
         <v>309927.7</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="6">
         <v>1173990.19692731</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>2023</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="6">
         <v>491.62218999999999</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="6">
         <v>728520.65071299905</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="6">
         <v>367482.72</v>
       </c>
-      <c r="E22" s="3">
-        <f>PRODUCT(E21*0.6)</f>
+      <c r="E22" s="6">
         <v>7173.0054665115304</v>
       </c>
-      <c r="F22" s="3">
-        <f>PRODUCT(F21*1.105)</f>
+      <c r="F22" s="6">
         <v>81992.845464163227</v>
       </c>
-      <c r="G22" s="3">
-        <f>PRODUCT(G21*1.082)</f>
+      <c r="G22" s="6">
         <v>6871.9611636293594</v>
       </c>
-      <c r="H22" s="3">
-        <f>PRODUCT(H21*0.881)</f>
+      <c r="H22" s="6">
         <v>925.37890629179844</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="6">
         <v>315506.40000000002</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="6">
         <v>1319564.9813463001</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/近二十年各产业投资情况数据表.xlsx
+++ b/data/近二十年各产业投资情况数据表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实操\vscode实操\华数杯国际模板01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FB6B9-D82A-4A43-AD65-2D8DC233E84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C381AA06-3FFC-4EB7-9C3B-F5F84EEA0D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>年份</t>
   </si>
@@ -101,10 +101,13 @@
     <t>国际组织</t>
   </si>
   <si>
-    <t>Years</t>
+    <t>增长率</t>
   </si>
   <si>
-    <t>S2</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>SUM</t>
   </si>
   <si>
     <t>S3</t>
@@ -128,17 +131,50 @@
     <t>S9</t>
   </si>
   <si>
+    <t>S2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>S10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF060607"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF060607"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -149,28 +185,6 @@
       <name val="仿宋"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF060607"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -228,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,17 +252,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,26 +754,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P8:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10"/>
-    <col min="5" max="5" width="10"/>
-    <col min="12" max="13" width="10"/>
+    <col min="2" max="21" width="12.81640625"/>
     <col min="24" max="24" width="9.54296875"/>
     <col min="31" max="31" width="9.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -777,7 +798,7 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -786,1493 +807,1940 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>2003</v>
       </c>
-      <c r="B2" s="1">
-        <v>55566.1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="2">
+        <v>55566.6</v>
+      </c>
+      <c r="C2" s="2">
         <v>1652.3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>1775.2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>14689.5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>3962.4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>924</v>
       </c>
-      <c r="H2" s="1">
-        <v>9221</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="H2" s="2">
+        <v>922.7</v>
+      </c>
+      <c r="I2" s="2">
         <v>6289.4</v>
       </c>
-      <c r="J2" s="1">
-        <v>423.1</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="J2" s="2">
+        <v>423</v>
+      </c>
+      <c r="K2" s="2">
         <v>1660.7</v>
       </c>
-      <c r="L2" s="1">
-        <v>90.1</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="L2" s="2">
+        <v>90.2</v>
+      </c>
+      <c r="M2" s="2">
         <v>13143.4</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>375.5</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="2">
         <v>285.8</v>
       </c>
-      <c r="P2" s="1">
-        <v>4365.1000000000004</v>
-      </c>
-      <c r="Q2" s="1">
+      <c r="P2" s="2">
+        <v>4365.8</v>
+      </c>
+      <c r="Q2" s="2">
         <v>241.6</v>
       </c>
-      <c r="R2" s="1">
-        <v>1671</v>
-      </c>
-      <c r="S2" s="1">
-        <v>4051</v>
-      </c>
-      <c r="T2" s="1">
-        <v>531.1</v>
-      </c>
-      <c r="U2" s="1">
+      <c r="R2" s="2">
+        <v>1671.1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>405.8</v>
+      </c>
+      <c r="T2" s="2">
+        <v>531.5</v>
+      </c>
+      <c r="U2" s="2">
         <v>2153.1</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="2">
         <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2004</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>70477.399999999994</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1890.7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>2395.9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>19685.5</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>5795.1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>964</v>
       </c>
-      <c r="H3" s="1">
-        <v>1273.0999999999999</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3" s="2">
+        <v>1273</v>
+      </c>
+      <c r="I3" s="2">
         <v>7646.2</v>
       </c>
-      <c r="J3" s="1">
-        <v>560.1</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="J3" s="2">
+        <v>560.79999999999995</v>
+      </c>
+      <c r="K3" s="2">
         <v>1657.7</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>136</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>16678.900000000001</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="2">
         <v>420.8</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="2">
         <v>333.1</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="2">
         <v>5071.7</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="2">
         <v>313.7</v>
       </c>
-      <c r="R3" s="1">
-        <v>2024</v>
-      </c>
-      <c r="S3" s="1">
+      <c r="R3" s="2">
+        <v>2024.8</v>
+      </c>
+      <c r="S3" s="2">
         <v>516.70000000000005</v>
       </c>
-      <c r="T3" s="1">
-        <v>773.1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>2437</v>
-      </c>
-      <c r="V3" s="1">
+      <c r="T3" s="2">
+        <v>773.4</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2437.4</v>
+      </c>
+      <c r="V3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2005</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>88773.6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>2323.6999999999998</v>
       </c>
-      <c r="D4" s="1">
-        <v>3687.4</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="2">
+        <v>3587.4</v>
+      </c>
+      <c r="E4" s="2">
         <v>26576</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>7554.4</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>1119</v>
       </c>
-      <c r="H4" s="1">
-        <v>1716</v>
-      </c>
-      <c r="I4" s="1">
-        <v>9614.1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>808.1</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="H4" s="2">
+        <v>1716.4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>9614</v>
+      </c>
+      <c r="J4" s="2">
+        <v>808.8</v>
+      </c>
+      <c r="K4" s="2">
         <v>1581.8</v>
       </c>
-      <c r="L4" s="1">
-        <v>109.6</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="L4" s="2">
+        <v>109.5</v>
+      </c>
+      <c r="M4" s="2">
         <v>19505.3</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="2">
         <v>549.6</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="2">
         <v>435.1</v>
       </c>
-      <c r="P4" s="1">
-        <v>6274.1</v>
-      </c>
-      <c r="Q4" s="1">
+      <c r="P4" s="2">
+        <v>6274.3</v>
+      </c>
+      <c r="Q4" s="2">
         <v>363.5</v>
       </c>
-      <c r="R4" s="1">
-        <v>2209</v>
-      </c>
-      <c r="S4" s="1">
+      <c r="R4" s="2">
+        <v>2209.1999999999998</v>
+      </c>
+      <c r="S4" s="2">
         <v>661.8</v>
       </c>
-      <c r="T4" s="1">
-        <v>857.1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>2926.1</v>
-      </c>
-      <c r="V4" s="1">
+      <c r="T4" s="2">
+        <v>857</v>
+      </c>
+      <c r="U4" s="2">
+        <v>2926.8</v>
+      </c>
+      <c r="V4" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>2006</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>109998.2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>2749.9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>4678.3999999999996</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>34089.5</v>
       </c>
-      <c r="F5" s="1">
-        <v>8585.1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1125</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="F5" s="2">
+        <v>8585.7000000000007</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1125.5</v>
+      </c>
+      <c r="H5" s="2">
         <v>2265.3000000000002</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>12138.1</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>1095.7</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>1875.9</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>121.4</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>24524.400000000001</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>725.6</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="2">
         <v>495.3</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="2">
         <v>8152.7</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="2">
         <v>389.5</v>
       </c>
-      <c r="R5" s="1">
-        <v>2270</v>
-      </c>
-      <c r="S5" s="1">
+      <c r="R5" s="2">
+        <v>2270.1999999999998</v>
+      </c>
+      <c r="S5" s="2">
         <v>769</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="2">
         <v>955.4</v>
       </c>
-      <c r="U5" s="1">
-        <v>2990.1</v>
-      </c>
-      <c r="V5" s="1">
+      <c r="U5" s="2">
+        <v>2990.5</v>
+      </c>
+      <c r="V5" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>2007</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>137323.9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>3403.5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>5878.8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>44505.1</v>
       </c>
-      <c r="F6" s="1">
-        <v>9467.1</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="2">
+        <v>9467.6</v>
+      </c>
+      <c r="G6" s="2">
         <v>1302.3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>2880.3</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>14154</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>1519.4</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>1848.1</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>157.6</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>32438.9</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="2">
         <v>949.3</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="2">
         <v>560</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="2">
         <v>10154.299999999999</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="2">
         <v>434.7</v>
       </c>
-      <c r="R6" s="1">
-        <v>2375</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="R6" s="2">
+        <v>2375.6</v>
+      </c>
+      <c r="S6" s="2">
         <v>885</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="2">
         <v>1243.4000000000001</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="2">
         <v>3166.1</v>
       </c>
-      <c r="V6" s="1"/>
+      <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>2008</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>172828.4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>5064.5</v>
       </c>
-      <c r="D7" s="1">
-        <v>7706.8</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2">
+        <v>7705.8</v>
+      </c>
+      <c r="E7" s="2">
         <v>56702.400000000001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>10997.2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
+        <v>1555.9</v>
+      </c>
+      <c r="H7" s="2">
         <v>3741.8</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="2">
         <v>17024.400000000001</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="2">
         <v>1959.2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="2">
         <v>2162.6</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="2">
         <v>260.60000000000002</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="2">
         <v>40441.800000000003</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="2">
         <v>1355.9</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="2">
         <v>782</v>
       </c>
-      <c r="O7" s="1">
-        <v>13634.1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>622.1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>2523</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1155.0999999999999</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1589.1</v>
-      </c>
-      <c r="T7" s="1">
-        <v>3748.1</v>
-      </c>
-      <c r="U7" s="1">
+      <c r="P7" s="2">
+        <v>13534.3</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>522</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2523.8000000000002</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1155.5999999999999</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1589.9</v>
+      </c>
+      <c r="U7" s="2">
+        <v>3748.5</v>
+      </c>
+      <c r="V7" s="8">
         <v>0.3</v>
       </c>
-      <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>2009</v>
       </c>
-      <c r="B8" s="1">
-        <v>224598.1</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="2">
+        <v>224598.8</v>
+      </c>
+      <c r="C8" s="2">
         <v>6894.9</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>9210.7999999999993</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>70612.899999999994</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>14434.6</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>1992.5</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>5132.8</v>
       </c>
-      <c r="I8" s="1">
-        <v>24974.1</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="2">
+        <v>24974.7</v>
+      </c>
+      <c r="J8" s="2">
         <v>2625.4</v>
       </c>
-      <c r="K8" s="1">
-        <v>2589.1</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="K8" s="2">
+        <v>2589</v>
+      </c>
+      <c r="L8" s="2">
         <v>360.2</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <v>49368.5</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="2">
         <v>2036.2</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="2">
         <v>1200.8</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="2">
         <v>19874.400000000001</v>
       </c>
-      <c r="Q8" s="1">
-        <v>801.1</v>
-      </c>
-      <c r="R8" s="1">
-        <v>3621</v>
-      </c>
-      <c r="S8" s="1">
-        <v>1858.1</v>
-      </c>
-      <c r="T8" s="1">
+      <c r="Q8" s="2">
+        <v>801.9</v>
+      </c>
+      <c r="R8" s="2">
+        <v>3521.2</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1858.6</v>
+      </c>
+      <c r="T8" s="2">
         <v>2383.4</v>
       </c>
-      <c r="U8" s="1">
-        <v>4736.1000000000004</v>
-      </c>
-      <c r="V8" s="1">
+      <c r="U8" s="2">
+        <v>4735.8999999999996</v>
+      </c>
+      <c r="V8" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>2010</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>278121.90000000002</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>7923.1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>11000.9</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>88619.199999999997</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>15679.7</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>2802.2</v>
       </c>
-      <c r="H9" s="1">
-        <v>60322</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="2">
+        <v>6032.2</v>
+      </c>
+      <c r="I9" s="2">
         <v>30074.5</v>
       </c>
-      <c r="J9" s="1">
-        <v>3366.1</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="J9" s="2">
+        <v>3366.8</v>
+      </c>
+      <c r="K9" s="2">
         <v>2454.5</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>489.4</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
         <v>64877.3</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="2">
         <v>2652.6</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="2">
         <v>1379.3</v>
       </c>
-      <c r="P9" s="1">
-        <v>24827.4</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="P9" s="2">
+        <v>24827.599999999999</v>
+      </c>
+      <c r="Q9" s="2">
         <v>1114.0999999999999</v>
       </c>
-      <c r="R9" s="1">
-        <v>4033</v>
-      </c>
-      <c r="S9" s="1">
-        <v>2119.1</v>
-      </c>
-      <c r="T9" s="1">
+      <c r="R9" s="2">
+        <v>4033.6</v>
+      </c>
+      <c r="S9" s="2">
+        <v>2119</v>
+      </c>
+      <c r="T9" s="2">
         <v>2959.4</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="2">
         <v>5676.6</v>
       </c>
-      <c r="V9" s="5"/>
+      <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>2011</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>311485.09999999998</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>8757.7999999999993</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>11747</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>102712.9</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>14659.7</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>3357.1</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>7439.4</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>28291.7</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>3956.6</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>2174.4</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>638.70000000000005</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
         <v>81686.100000000006</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="2">
         <v>3382.8</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="2">
         <v>1679.8</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="2">
         <v>24523.1</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="2">
         <v>1443.3</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="2">
         <v>3894.6</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="2">
         <v>2330.3000000000002</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="2">
         <v>3162</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="2">
         <v>5647.8</v>
       </c>
-      <c r="V10" s="1"/>
+      <c r="V10" s="2"/>
     </row>
     <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>2012</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>374694.7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>10996.4</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>13300.8</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>124550</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>16672.7</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>3739</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>9810.7000000000007</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>31444.9</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>5153.5</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <v>2692</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <v>923.9</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
         <v>99159.3</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="2">
         <v>4700.3999999999996</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="2">
         <v>2475.8000000000002</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="2">
         <v>29621.599999999999</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="2">
         <v>1905</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="2">
         <v>4613</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="2">
         <v>2617.1</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="2">
         <v>4271.3</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="2">
         <v>6047.4</v>
       </c>
-      <c r="V11" s="1"/>
+      <c r="V11" s="2"/>
     </row>
     <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>2013</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>446294.1</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>13478.8</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
+        <v>14650.8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>147705</v>
+      </c>
+      <c r="F12" s="2">
         <v>19634.7</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="2">
+        <v>3669.8</v>
+      </c>
+      <c r="H12" s="2">
         <v>12720.5</v>
       </c>
-      <c r="F12" s="1">
-        <v>3669.8</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="I12" s="2">
         <v>36790.1</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="2">
         <v>6041.1</v>
       </c>
-      <c r="I12" s="1">
+      <c r="K12" s="2">
         <v>3084.9</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="2">
+        <v>1242</v>
+      </c>
+      <c r="M12" s="2">
+        <v>118809.4</v>
+      </c>
+      <c r="N12" s="2">
         <v>5893.2</v>
       </c>
-      <c r="K12" s="1">
+      <c r="O12" s="2">
         <v>3133.2</v>
       </c>
-      <c r="L12" s="1">
+      <c r="P12" s="2">
+        <v>37663.9</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2099.3000000000002</v>
+      </c>
+      <c r="R12" s="2">
+        <v>5433</v>
+      </c>
+      <c r="S12" s="2">
+        <v>3139.3</v>
+      </c>
+      <c r="T12" s="2">
         <v>5231.1000000000004</v>
       </c>
-      <c r="M12" s="1">
-        <v>37663.9</v>
-      </c>
-      <c r="N12" s="1">
-        <v>5433</v>
-      </c>
-      <c r="O12" s="1">
+      <c r="U12" s="2">
         <v>5874.1</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>2014</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>512020.7</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>16573.8</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>14538.9</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>167025.29999999999</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>22829.7</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>4125.8</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>15800.2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>43215.7</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
+        <v>6230.1</v>
+      </c>
+      <c r="K13" s="2">
         <v>4110</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="2">
         <v>1363</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="2">
         <v>131348.20000000001</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="2">
+        <v>7965.2</v>
+      </c>
+      <c r="O13" s="2">
         <v>4219.1000000000004</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="7">
         <v>46225</v>
       </c>
-      <c r="O13" s="1">
+      <c r="Q13" s="2">
         <v>2371.6999999999998</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13" s="2">
         <v>6708.7</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="S13" s="2">
         <v>3991.5</v>
       </c>
-      <c r="R13" s="1">
+      <c r="T13" s="2">
         <v>6178.4</v>
       </c>
-      <c r="S13" s="1">
+      <c r="U13" s="2">
         <v>7200.5</v>
       </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>2015</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>561999.80000000005</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>21042.7</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>12970.8</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>180370.4</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>26722.799999999999</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>4956.6000000000004</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>18924.900000000001</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>49200</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>6546.7</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <v>5521.9</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="2">
         <v>1367.2</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="2">
         <v>134284.29999999999</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="2">
         <v>9447.9</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="2">
         <v>4752</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="2">
         <v>55679.6</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="2">
         <v>2730.3</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="2">
         <v>7726.8</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="2">
         <v>5175.6000000000004</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="2">
         <v>6728.3</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="2">
         <v>7851.1</v>
       </c>
-      <c r="V14" s="1"/>
+      <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>2016</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>606465.69999999995</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>24853.1</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>10320.299999999999</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>187962.1</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>29747.7</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>4614.8999999999996</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>18166.900000000001</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>53890.400000000001</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>5976.2</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <v>6325.5</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2">
         <v>1310.2</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="2">
         <v>142359.4</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="2">
         <v>12341.9</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="2">
         <v>5567.8</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="2">
         <v>68647.600000000006</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="2">
         <v>2750.9</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="2">
         <v>9326.7000000000007</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="2">
         <v>6282.1</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="2">
         <v>7834.2</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="2">
         <v>8187.7</v>
       </c>
-      <c r="V15" s="1"/>
+      <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>2017</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>641238.4</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>26708</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>9210.1</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>193710</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>29805.599999999999</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>3838.9</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>16779.900000000001</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>61449.9</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>6145</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <v>6997.4</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
         <v>1121.5</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="2">
         <v>146225.5</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="2">
         <v>13357.1</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="2">
         <v>5932.5</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="2">
         <v>82106.100000000006</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="2">
         <v>2752.6</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="2">
         <v>11104.3</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="2">
         <v>7327.9</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="2">
         <v>8734.7999999999993</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="2">
         <v>7931.5</v>
       </c>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="18" spans="11:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="K18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K19" s="1">
-        <v>1660.7</v>
-      </c>
-      <c r="L19" s="1">
-        <v>375.5</v>
-      </c>
-      <c r="M19" s="1">
-        <v>285.8</v>
-      </c>
-      <c r="N19" s="1">
-        <v>4365.1000000000004</v>
-      </c>
-      <c r="O19" s="1">
-        <v>241.6</v>
-      </c>
-      <c r="P19" s="1">
-        <v>1671</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>4051</v>
-      </c>
-      <c r="R19" s="1">
-        <v>531.1</v>
-      </c>
-      <c r="S19" s="1">
-        <v>2153.1</v>
-      </c>
-      <c r="T19" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K20" s="1">
-        <v>1657.7</v>
-      </c>
-      <c r="L20" s="1">
-        <v>420.8</v>
-      </c>
-      <c r="M20" s="1">
-        <v>333.1</v>
-      </c>
-      <c r="N20" s="1">
-        <v>5071.7</v>
-      </c>
-      <c r="O20" s="1">
-        <v>313.7</v>
-      </c>
-      <c r="P20" s="1">
-        <v>2024</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>516.70000000000005</v>
-      </c>
-      <c r="R20" s="1">
-        <v>773.1</v>
-      </c>
-      <c r="S20" s="1">
-        <v>2437</v>
-      </c>
-      <c r="T20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K21" s="1">
-        <v>1581.8</v>
-      </c>
-      <c r="L21" s="1">
-        <v>549.6</v>
-      </c>
-      <c r="M21" s="1">
-        <v>435.1</v>
-      </c>
-      <c r="N21" s="1">
-        <v>6274.1</v>
-      </c>
-      <c r="O21" s="1">
-        <v>363.5</v>
-      </c>
-      <c r="P21" s="1">
-        <v>2209</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>661.8</v>
-      </c>
-      <c r="R21" s="1">
-        <v>857.1</v>
-      </c>
-      <c r="S21" s="1">
-        <v>2926.1</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K22" s="1">
-        <v>1875.9</v>
-      </c>
-      <c r="L22" s="1">
-        <v>725.6</v>
-      </c>
-      <c r="M22" s="1">
-        <v>495.3</v>
-      </c>
-      <c r="N22" s="1">
-        <v>8152.7</v>
-      </c>
-      <c r="O22" s="1">
-        <v>389.5</v>
-      </c>
-      <c r="P22" s="1">
-        <v>2270</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>769</v>
-      </c>
-      <c r="R22" s="1">
-        <v>955.4</v>
-      </c>
-      <c r="S22" s="1">
-        <v>2990.1</v>
-      </c>
-      <c r="T22" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K23" s="1">
-        <v>1848.1</v>
-      </c>
-      <c r="L23" s="1">
-        <v>949.3</v>
-      </c>
-      <c r="M23" s="1">
-        <v>560</v>
-      </c>
-      <c r="N23" s="1">
-        <v>10154.299999999999</v>
-      </c>
-      <c r="O23" s="1">
-        <v>434.7</v>
-      </c>
-      <c r="P23" s="1">
-        <v>2375</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>885</v>
-      </c>
-      <c r="R23" s="1">
-        <v>1243.4000000000001</v>
-      </c>
-      <c r="S23" s="1">
-        <v>3166.1</v>
-      </c>
-      <c r="T23" s="1"/>
-    </row>
-    <row r="24" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K24" s="1">
-        <v>260.60000000000002</v>
-      </c>
-      <c r="L24" s="1">
-        <v>782</v>
-      </c>
-      <c r="M24" s="1">
-        <v>13634.1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>622.1</v>
-      </c>
-      <c r="O24" s="1">
-        <v>2523</v>
-      </c>
-      <c r="P24" s="1">
-        <v>1155.0999999999999</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>1589.1</v>
-      </c>
-      <c r="R24" s="1">
-        <v>3748.1</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="T24" s="5"/>
-    </row>
-    <row r="25" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K25" s="1">
-        <v>2589.1</v>
-      </c>
-      <c r="L25" s="1">
-        <v>2036.2</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1200.8</v>
-      </c>
-      <c r="N25" s="1">
-        <v>19874.400000000001</v>
-      </c>
-      <c r="O25" s="1">
-        <v>801.1</v>
-      </c>
-      <c r="P25" s="1">
-        <v>3621</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>1858.1</v>
-      </c>
-      <c r="R25" s="1">
-        <v>2383.4</v>
-      </c>
-      <c r="S25" s="1">
-        <v>4736.1000000000004</v>
-      </c>
-      <c r="T25" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K26" s="1">
-        <v>2454.5</v>
-      </c>
-      <c r="L26" s="1">
-        <v>2652.6</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1379.3</v>
-      </c>
-      <c r="N26" s="1">
-        <v>24827.4</v>
-      </c>
-      <c r="O26" s="1">
-        <v>1114.0999999999999</v>
-      </c>
-      <c r="P26" s="1">
-        <v>4033</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>2119.1</v>
-      </c>
-      <c r="R26" s="1">
-        <v>2959.4</v>
-      </c>
-      <c r="S26" s="1">
-        <v>5676.6</v>
-      </c>
-      <c r="T26" s="5"/>
-    </row>
-    <row r="27" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K27" s="1">
-        <v>2174.4</v>
-      </c>
-      <c r="L27" s="1">
-        <v>3382.8</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1679.8</v>
-      </c>
-      <c r="N27" s="1">
-        <v>24523.1</v>
-      </c>
-      <c r="O27" s="1">
-        <v>1443.3</v>
-      </c>
-      <c r="P27" s="1">
-        <v>3894.6</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>2330.3000000000002</v>
-      </c>
-      <c r="R27" s="1">
-        <v>3162</v>
-      </c>
-      <c r="S27" s="1">
-        <v>5647.8</v>
-      </c>
-      <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K28" s="1">
-        <v>2692</v>
-      </c>
-      <c r="L28" s="1">
-        <v>4700.3999999999996</v>
-      </c>
-      <c r="M28" s="1">
-        <v>2475.8000000000002</v>
-      </c>
-      <c r="N28" s="1">
-        <v>29621.599999999999</v>
-      </c>
-      <c r="O28" s="1">
-        <v>1905</v>
-      </c>
-      <c r="P28" s="1">
-        <v>4613</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>2617.1</v>
-      </c>
-      <c r="R28" s="1">
-        <v>4271.3</v>
-      </c>
-      <c r="S28" s="1">
-        <v>6047.4</v>
-      </c>
-      <c r="T28" s="1"/>
-    </row>
-    <row r="29" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K29" s="1">
-        <v>3133.2</v>
-      </c>
-      <c r="L29" s="1">
-        <v>5433</v>
-      </c>
-      <c r="M29" s="1">
-        <v>5874.1</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K30" s="1">
-        <v>1363</v>
-      </c>
-      <c r="L30" s="1">
-        <v>46225</v>
-      </c>
-      <c r="M30" s="1">
-        <v>2371.6999999999998</v>
-      </c>
-      <c r="N30" s="1">
-        <v>6708.7</v>
-      </c>
-      <c r="O30" s="1">
-        <v>3991.5</v>
-      </c>
-      <c r="P30" s="1">
-        <v>6178.4</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>7200.5</v>
-      </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K31" s="1">
-        <v>5521.9</v>
-      </c>
-      <c r="L31" s="1">
-        <v>9447.9</v>
-      </c>
-      <c r="M31" s="1">
-        <v>4752</v>
-      </c>
-      <c r="N31" s="1">
-        <v>55679.6</v>
-      </c>
-      <c r="O31" s="1">
-        <v>2730.3</v>
-      </c>
-      <c r="P31" s="1">
-        <v>7726.8</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>5175.6000000000004</v>
-      </c>
-      <c r="R31" s="1">
-        <v>6728.3</v>
-      </c>
-      <c r="S31" s="1">
-        <v>7851.1</v>
-      </c>
-      <c r="T31" s="1"/>
-    </row>
-    <row r="32" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K32" s="1">
-        <v>6325.5</v>
-      </c>
-      <c r="L32" s="1">
-        <v>12341.9</v>
-      </c>
-      <c r="M32" s="1">
-        <v>5567.8</v>
-      </c>
-      <c r="N32" s="1">
-        <v>68647.600000000006</v>
-      </c>
-      <c r="O32" s="1">
-        <v>2750.9</v>
-      </c>
-      <c r="P32" s="1">
-        <v>9326.7000000000007</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>6282.1</v>
-      </c>
-      <c r="R32" s="1">
-        <v>7834.2</v>
-      </c>
-      <c r="S32" s="1">
-        <v>8187.7</v>
-      </c>
-      <c r="T32" s="1"/>
-    </row>
-    <row r="33" spans="11:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="K33" s="1">
-        <v>6997.4</v>
-      </c>
-      <c r="L33" s="1">
-        <v>13357.1</v>
-      </c>
-      <c r="M33" s="1">
-        <v>5932.5</v>
-      </c>
-      <c r="N33" s="1">
-        <v>82106.100000000006</v>
-      </c>
-      <c r="O33" s="1">
-        <v>2752.6</v>
-      </c>
-      <c r="P33" s="1">
-        <v>11104.3</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>7327.9</v>
-      </c>
-      <c r="R33" s="1">
-        <v>8734.7999999999993</v>
-      </c>
-      <c r="S33" s="1">
-        <v>7931.5</v>
-      </c>
-      <c r="T33" s="5"/>
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:J17" si="0">(1+B24)*B16</f>
+        <v>679071.4656</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>29993.083999999999</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>9587.7140999999992</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>212112.45</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>27808.624800000001</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>3305.2928999999999</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>13172.2215</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>63846.446100000001</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>5936.07</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:U17" si="1">(1+K24)*K16</f>
+        <v>7277.2960000000003</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>974.58349999999996</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>158362.21650000001</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>15253.808199999999</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>6739.32</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>84815.601299999995</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>2356.2256000000002</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>11903.809600000001</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>7943.4435999999996</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>10586.577600000001</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>6503.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:U18" si="2">(1+B25)*B17</f>
+        <v>715741.32474239997</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>30203.035587999999</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>11898.3531981</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>218687.93595000001</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>29060.012916</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>535.45744979999995</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>11077.8382815</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>66017.225267400005</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>5864.83716</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>7903.1434559999998</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>1075.940184</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>172931.54041799999</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>17663.909895600002</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>7945.6582799999996</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>87275.253737699997</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>2141.8090704000001</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>14010.7838992</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>8364.4461107999996</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>12058.1118864</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>5489.2325199999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:U19" si="3">(1+B26)*B18</f>
+        <v>736497.82315992902</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>35971.815385308</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>10220.685397167899</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>213876.80135910001</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>34174.575189215997</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>584.71953518160001</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>8696.1030509774992</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>66941.466421143603</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>5542.2711161999996</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>9381.0312822720007</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>932.84013952800001</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>181578.11743889999</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>18547.105390379998</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>8215.8106615199995</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>87449.804245175401</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>2079.6966073583999</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>15734.1103188016</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>10606.1176684944</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>12178.693005264</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="3"/>
+        <v>5137.9216387200004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2021</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:U20" si="4">(1+B27)*B19</f>
+        <v>772586.21649476595</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>39317.194216141601</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>11334.740105459199</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>242750.16954257799</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>34550.4955162974</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>594.07504774450604</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>8183.0329709698299</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>68012.5298838819</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>5908.0610098691996</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>8236.5454658348208</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>950.56410217903203</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>190657.02331084499</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>21069.5117234717</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>9407.1032074403993</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>86400.406594233296</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>1865.4878568004799</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="4"/>
+        <v>17575.001226101402</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>12674.310613850799</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="4"/>
+        <v>12373.5520933482</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>3175.2355727289601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2022</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:U21" si="5">(1+B28)*B20</f>
+        <v>811988.11353599897</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="5"/>
+        <v>40968.516373219602</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>11844.803410204901</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>264840.43497095298</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>41218.741150942798</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>605.95654869939597</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>8616.7337184312291</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>74201.670103315104</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>6351.1655856093903</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>10032.1123773868</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>1050.37333290783</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>174641.83335273399</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>24124.590923375101</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>11382.5948810029</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>95299.648473439302</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>2272.1642095829902</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="5"/>
+        <v>18524.051292310902</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="5"/>
+        <v>15982.305684065899</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>12806.6264166154</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="5"/>
+        <v>4512.0097488478496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2023</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:U22" si="6">(1+B29)*B21</f>
+        <v>836347.75694207905</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="6"/>
+        <v>41460.138569698203</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="6"/>
+        <v>12093.5442818192</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>282055.06324406498</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="6"/>
+        <v>50699.051615659599</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>742.29677215675997</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>8582.2667835574994</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>81992.845464163198</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="6"/>
+        <v>6871.9611636293603</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>11416.543885466201</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>925.37890629179799</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>160495.84485116301</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>26512.925424789199</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>13442.8445544644</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>95394.948121912705</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>2631.1661546971</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>19042.724728495599</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="6"/>
+        <v>15374.978068071399</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="6"/>
+        <v>13139.5987034474</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="6"/>
+        <v>2842.5661417741499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.123</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F24" s="5">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>-0.13900000000000001</v>
+      </c>
+      <c r="H24" s="5">
+        <v>-0.215</v>
+      </c>
+      <c r="I24" s="5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J24" s="5">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="L24" s="5">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="M24" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="P24" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="R24" s="5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S24" s="5">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="U24" s="6">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="5">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C25" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="E25" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>-0.83799999999999997</v>
+      </c>
+      <c r="H25" s="5">
+        <v>-0.159</v>
+      </c>
+      <c r="I25" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J25" s="5">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="K25" s="5">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="M25" s="5">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.158</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="P25" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="S25" s="5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="U25" s="5">
+        <v>-0.156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2020</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.191</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-0.14099999999999999</v>
+      </c>
+      <c r="E26" s="5">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="G26" s="5">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>-0.215</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J26" s="5">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.187</v>
+      </c>
+      <c r="L26" s="5">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O26" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P26" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0.123</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="T26" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="U26" s="5">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.109</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H27" s="5">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J27" s="5">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K27" s="5">
+        <v>-0.122</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="P27" s="5">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="R27" s="5">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="T27" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="U27" s="5">
+        <v>-0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C28" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.193</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="H28" s="5">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I28" s="5">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="J28" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.218</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="M28" s="5">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0.218</v>
+      </c>
+      <c r="R28" s="5">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="T28" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="U28" s="5">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2023</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E29" s="5">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H29" s="5">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="J29" s="5">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="L29" s="5">
+        <v>-0.11899999999999999</v>
+      </c>
+      <c r="M29" s="5">
+        <v>-8.1000000000000003E-2</v>
+      </c>
+      <c r="N29" s="5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="P29" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>0.158</v>
+      </c>
+      <c r="R29" s="5">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="S29" s="5">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="T29" s="5">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U29" s="6">
+        <v>-0.37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2283,716 +2751,786 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>2003</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="2">
+        <v>55566.6</v>
+      </c>
+      <c r="C2" s="2">
         <v>1652.3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="D2" s="2">
         <v>20427.100000000002</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="2">
         <v>924</v>
       </c>
-      <c r="E2" s="6">
-        <v>9221</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
+        <v>922.7</v>
+      </c>
+      <c r="G2" s="2">
         <v>6289.4</v>
       </c>
-      <c r="G2" s="6">
-        <v>423.1</v>
-      </c>
-      <c r="H2" s="6">
-        <v>90.1</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="H2" s="2">
+        <v>423</v>
+      </c>
+      <c r="I2" s="2">
+        <v>90.2</v>
+      </c>
+      <c r="J2" s="2">
         <v>13143.4</v>
       </c>
-      <c r="J2" s="6">
-        <v>15337.400000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="K2" s="9">
+        <v>11693.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2004</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="2">
+        <v>70477.399999999994</v>
+      </c>
+      <c r="C3" s="2">
         <v>1890.7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="2">
         <v>27876.5</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="2">
         <v>964</v>
       </c>
-      <c r="E3" s="6">
-        <v>1273.0999999999999</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="F3" s="2">
+        <v>1273</v>
+      </c>
+      <c r="G3" s="2">
         <v>7646.2</v>
       </c>
-      <c r="G3" s="6">
-        <v>560.1</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="H3" s="2">
+        <v>560.79999999999995</v>
+      </c>
+      <c r="I3" s="2">
         <v>136</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="2">
         <v>16678.900000000001</v>
       </c>
-      <c r="J3" s="6">
-        <v>13549.800000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="K3" s="2">
+        <v>13551.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2005</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="2">
+        <v>88773.6</v>
+      </c>
+      <c r="C4" s="2">
         <v>2323.6999999999998</v>
       </c>
-      <c r="C4" s="6">
-        <v>37817.800000000003</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
+        <v>37717.800000000003</v>
+      </c>
+      <c r="E4" s="2">
         <v>1119</v>
       </c>
-      <c r="E4" s="6">
-        <v>1716</v>
-      </c>
-      <c r="F4" s="6">
-        <v>9614.1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>808.1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>109.6</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="F4" s="2">
+        <v>1716.4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9614</v>
+      </c>
+      <c r="H4" s="2">
+        <v>808.8</v>
+      </c>
+      <c r="I4" s="2">
+        <v>109.5</v>
+      </c>
+      <c r="J4" s="2">
         <v>19505.3</v>
       </c>
-      <c r="J4" s="6">
-        <v>15858.300000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="K4" s="2">
+        <v>15859.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>2006</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="2">
+        <v>109998.2</v>
+      </c>
+      <c r="C5" s="2">
         <v>2749.9</v>
       </c>
-      <c r="C5" s="6">
-        <v>47353</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1125</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="2">
+        <v>47353.600000000006</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1125.5</v>
+      </c>
+      <c r="F5" s="2">
         <v>2265.3000000000002</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="2">
         <v>12138.1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="2">
         <v>1095.7</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="2">
         <v>121.4</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="2">
         <v>24524.400000000001</v>
       </c>
-      <c r="J5" s="6">
-        <v>18623.599999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="K5" s="2">
+        <v>18624.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>2007</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="2">
+        <v>137323.9</v>
+      </c>
+      <c r="C6" s="2">
         <v>3403.5</v>
       </c>
-      <c r="C6" s="6">
-        <v>59851</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
+        <v>59851.5</v>
+      </c>
+      <c r="E6" s="2">
         <v>1302.3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="2">
         <v>2880.3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="2">
         <v>14154</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="2">
         <v>1519.4</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="2">
         <v>157.6</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="2">
         <v>32438.9</v>
       </c>
-      <c r="J6" s="6">
-        <v>21615.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="K6" s="2">
+        <v>21616.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>2008</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="2">
+        <v>172828.4</v>
+      </c>
+      <c r="C7" s="2">
         <v>5064.5</v>
       </c>
-      <c r="C7" s="6">
-        <v>75406.400000000009</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
+        <v>75405.400000000009</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1555.9</v>
+      </c>
+      <c r="F7" s="2">
         <v>3741.8</v>
       </c>
-      <c r="E7" s="6">
+      <c r="G7" s="2">
         <v>17024.400000000001</v>
       </c>
-      <c r="F7" s="6">
+      <c r="H7" s="2">
         <v>1959.2</v>
       </c>
-      <c r="G7" s="6">
-        <v>2162.6</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="I7" s="2">
+        <v>260.60000000000002</v>
+      </c>
+      <c r="J7" s="2">
         <v>40441.800000000003</v>
       </c>
-      <c r="I7" s="6">
-        <v>1355.9</v>
-      </c>
-      <c r="J7" s="6">
-        <v>24314.399999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="K7" s="2">
+        <v>27374.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2009</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="2">
+        <v>224598.8</v>
+      </c>
+      <c r="C8" s="2">
         <v>6894.9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="2">
         <v>94258.3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="2">
         <v>1992.5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="2">
         <v>5132.8</v>
       </c>
-      <c r="F8" s="6">
-        <v>24974.1</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="G8" s="2">
+        <v>24974.7</v>
+      </c>
+      <c r="H8" s="2">
         <v>2625.4</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="2">
         <v>360.2</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="2">
         <v>49368.5</v>
       </c>
-      <c r="J8" s="6">
-        <v>39100.399999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="K8" s="2">
+        <v>39001.599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>2010</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="2">
+        <v>278121.90000000002</v>
+      </c>
+      <c r="C9" s="2">
         <v>7923.1</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="2">
         <v>115299.79999999999</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="2">
         <v>2802.2</v>
       </c>
-      <c r="E9" s="6">
-        <v>60322</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="F9" s="2">
+        <v>6032.2</v>
+      </c>
+      <c r="G9" s="2">
         <v>30074.5</v>
       </c>
-      <c r="G9" s="6">
-        <v>3366.1</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="H9" s="2">
+        <v>3366.8</v>
+      </c>
+      <c r="I9" s="2">
         <v>489.4</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="2">
         <v>64877.3</v>
       </c>
-      <c r="J9" s="6">
-        <v>47216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="K9" s="2">
+        <v>47216.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>2011</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="2">
+        <v>311485.09999999998</v>
+      </c>
+      <c r="C10" s="2">
         <v>8757.7999999999993</v>
       </c>
-      <c r="C10" s="6">
+      <c r="D10" s="2">
         <v>129119.59999999999</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="2">
         <v>3357.1</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="2">
         <v>7439.4</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="2">
         <v>28291.7</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="2">
         <v>3956.6</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="2">
         <v>638.70000000000005</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="2">
         <v>81686.100000000006</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="2">
         <v>48238.100000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>2012</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="2">
+        <v>374694.7</v>
+      </c>
+      <c r="C11" s="2">
         <v>10996.4</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="2">
         <v>154523.5</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="2">
         <v>3739</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="2">
         <v>9810.7000000000007</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="2">
         <v>31444.9</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="2">
         <v>5153.5</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="2">
         <v>923.9</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="2">
         <v>99159.3</v>
       </c>
-      <c r="J11" s="6">
+      <c r="K11" s="2">
         <v>58943.600000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>2013</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="2">
+        <v>446294.1</v>
+      </c>
+      <c r="C12" s="2">
         <v>13478.8</v>
       </c>
-      <c r="C12" s="6">
-        <v>36025</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="D12" s="2">
+        <v>181990.5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3669.8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>12720.5</v>
+      </c>
+      <c r="G12" s="2">
         <v>36790.1</v>
       </c>
-      <c r="E12" s="6">
+      <c r="H12" s="2">
         <v>6041.1</v>
       </c>
-      <c r="F12" s="6">
-        <v>3084.9</v>
-      </c>
-      <c r="G12" s="6">
-        <v>5893.2</v>
-      </c>
-      <c r="H12" s="6">
-        <v>5231.1000000000004</v>
-      </c>
-      <c r="I12" s="6">
-        <v>37663.9</v>
-      </c>
-      <c r="J12" s="6">
-        <v>14440.300000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="I12" s="2">
+        <v>1242</v>
+      </c>
+      <c r="J12" s="2">
+        <v>118809.4</v>
+      </c>
+      <c r="K12" s="2">
+        <v>71552.000000000015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>2014</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="2">
+        <v>512020.7</v>
+      </c>
+      <c r="C13" s="2">
         <v>16573.8</v>
       </c>
-      <c r="C13" s="6">
+      <c r="D13" s="2">
         <v>204393.9</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="2">
         <v>4125.8</v>
       </c>
-      <c r="E13" s="6">
+      <c r="F13" s="2">
         <v>15800.2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="2">
         <v>43215.7</v>
       </c>
-      <c r="G13" s="6">
-        <v>4110</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="H13" s="2">
+        <v>6230.1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1363</v>
+      </c>
+      <c r="J13" s="2">
         <v>131348.20000000001</v>
       </c>
-      <c r="I13" s="6">
-        <v>4219.1000000000004</v>
-      </c>
-      <c r="J13" s="6">
-        <v>74038.799999999988</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="K13" s="2">
+        <v>88970.099999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>2015</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="2">
+        <v>561999.80000000005</v>
+      </c>
+      <c r="C14" s="2">
         <v>21042.7</v>
       </c>
-      <c r="C14" s="6">
+      <c r="D14" s="2">
         <v>220063.99999999997</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="2">
         <v>4956.6000000000004</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="2">
         <v>18924.900000000001</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="2">
         <v>49200</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="2">
         <v>6546.7</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="2">
         <v>1367.2</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="2">
         <v>134284.29999999999</v>
       </c>
-      <c r="J14" s="6">
+      <c r="K14" s="2">
         <v>105613.50000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>2016</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="2">
+        <v>606465.69999999995</v>
+      </c>
+      <c r="C15" s="2">
         <v>24853.1</v>
       </c>
-      <c r="C15" s="6">
+      <c r="D15" s="2">
         <v>228030.1</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="2">
         <v>4614.8999999999996</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="2">
         <v>18166.900000000001</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="2">
         <v>53890.400000000001</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="2">
         <v>5976.2</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="2">
         <v>1310.2</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="2">
         <v>142359.4</v>
       </c>
-      <c r="J15" s="6">
+      <c r="K15" s="2">
         <v>127264.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>2017</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="2">
+        <v>641238.4</v>
+      </c>
+      <c r="C16" s="2">
         <v>26708</v>
       </c>
-      <c r="C16" s="6">
+      <c r="D16" s="2">
         <v>232725.7</v>
       </c>
-      <c r="D16" s="6">
+      <c r="E16" s="2">
         <v>3838.9</v>
       </c>
-      <c r="E16" s="6">
+      <c r="F16" s="2">
         <v>16779.900000000001</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="2">
         <v>61449.9</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="2">
         <v>6145</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="2">
         <v>1121.5</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="2">
         <v>146225.5</v>
       </c>
-      <c r="J16" s="6">
+      <c r="K16" s="2">
         <v>146244.20000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>2018</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="2">
+        <v>679071.4656</v>
+      </c>
+      <c r="C17" s="2">
         <v>29993.083999999999</v>
       </c>
-      <c r="C17" s="6">
-        <v>248783.7733</v>
-      </c>
-      <c r="D17" s="6">
-        <v>330529.28999999998</v>
-      </c>
-      <c r="E17" s="6">
-        <v>13172.221500000001</v>
-      </c>
-      <c r="F17" s="6">
-        <v>63846.446099999994</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="D17" s="2">
+        <v>249508.78890000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3305.2928999999999</v>
+      </c>
+      <c r="F17" s="2">
+        <v>13172.2215</v>
+      </c>
+      <c r="G17" s="2">
+        <v>63846.446100000001</v>
+      </c>
+      <c r="H17" s="2">
         <v>5936.07</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="2">
         <v>974.58349999999996</v>
       </c>
-      <c r="I17" s="6">
-        <v>179125.6</v>
-      </c>
-      <c r="J17" s="6">
-        <v>367869.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="J17" s="2">
+        <v>158362.21650000001</v>
+      </c>
+      <c r="K17" s="2">
+        <v>153379.91189999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>2019</v>
       </c>
-      <c r="B18" s="6">
-        <v>30203</v>
-      </c>
-      <c r="C18" s="6">
-        <v>327648.22943609999</v>
-      </c>
-      <c r="D18" s="6">
-        <v>265084.49</v>
-      </c>
-      <c r="E18" s="6">
-        <v>10564.121643000002</v>
-      </c>
-      <c r="F18" s="6">
-        <v>66017.22526739999</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="B18" s="2">
+        <v>715741.32474239997</v>
+      </c>
+      <c r="C18" s="2">
+        <v>30203.035587999999</v>
+      </c>
+      <c r="D18" s="2">
+        <v>259646.30206410002</v>
+      </c>
+      <c r="E18" s="2">
+        <v>535.45744979999995</v>
+      </c>
+      <c r="F18" s="2">
+        <v>11077.8382815</v>
+      </c>
+      <c r="G18" s="2">
+        <v>66017.225267400005</v>
+      </c>
+      <c r="H18" s="2">
         <v>5864.83716</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="2">
         <v>1075.940184</v>
       </c>
-      <c r="I18" s="6">
-        <v>223907</v>
-      </c>
-      <c r="J18" s="6">
-        <v>520903.63679999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="J18" s="2">
+        <v>172931.54041799999</v>
+      </c>
+      <c r="K18" s="2">
+        <v>162852.3488561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>2020</v>
       </c>
-      <c r="B19" s="6">
-        <v>35971.800000000003</v>
-      </c>
-      <c r="C19" s="6">
-        <v>331907.65641876898</v>
-      </c>
-      <c r="D19" s="6">
-        <v>289472.26</v>
-      </c>
-      <c r="E19" s="6">
-        <v>11536.020834156003</v>
-      </c>
-      <c r="F19" s="6">
-        <v>66941.466421143588</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="B19" s="2">
+        <v>736497.82315992902</v>
+      </c>
+      <c r="C19" s="2">
+        <v>35971.815385308</v>
+      </c>
+      <c r="D19" s="2">
+        <v>258272.0619454839</v>
+      </c>
+      <c r="E19" s="2">
+        <v>584.71953518160001</v>
+      </c>
+      <c r="F19" s="2">
+        <v>8696.1030509774992</v>
+      </c>
+      <c r="G19" s="2">
+        <v>66941.466421143603</v>
+      </c>
+      <c r="H19" s="2">
         <v>5542.2711161999996</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="2">
         <v>932.84013952800001</v>
       </c>
-      <c r="I19" s="6">
-        <v>246297.7</v>
-      </c>
-      <c r="J19" s="6">
-        <v>792294.43157280004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="J19" s="2">
+        <v>181578.11743889999</v>
+      </c>
+      <c r="K19" s="2">
+        <v>169330.29081798584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>2021</v>
       </c>
-      <c r="B20" s="6">
-        <v>39317.194219999998</v>
-      </c>
-      <c r="C20" s="6">
-        <v>416544.10880555498</v>
-      </c>
-      <c r="D20" s="6">
-        <v>294103.81</v>
-      </c>
-      <c r="E20" s="6">
-        <v>11720.597167502499</v>
-      </c>
-      <c r="F20" s="6">
-        <v>68012.529883881885</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="B20" s="2">
+        <v>772586.21649476595</v>
+      </c>
+      <c r="C20" s="2">
+        <v>39317.194216141601</v>
+      </c>
+      <c r="D20" s="2">
+        <v>288635.40516433457</v>
+      </c>
+      <c r="E20" s="2">
+        <v>594.07504774450604</v>
+      </c>
+      <c r="F20" s="2">
+        <v>8183.0329709698299</v>
+      </c>
+      <c r="G20" s="2">
+        <v>68012.5298838819</v>
+      </c>
+      <c r="H20" s="2">
         <v>5908.0610098691996</v>
       </c>
-      <c r="H20" s="6">
-        <v>950.56410217903192</v>
-      </c>
-      <c r="I20" s="6">
-        <v>292109.09999999998</v>
-      </c>
-      <c r="J20" s="6">
-        <v>465869.125764806</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="I20" s="2">
+        <v>950.56410217903203</v>
+      </c>
+      <c r="J20" s="2">
+        <v>190657.02331084499</v>
+      </c>
+      <c r="K20" s="2">
+        <v>172777.15435381007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>2022</v>
       </c>
-      <c r="B21" s="6">
-        <v>40968.516377239997</v>
-      </c>
-      <c r="C21" s="6">
-        <v>553587.12060258305</v>
-      </c>
-      <c r="D21" s="6">
-        <v>299985.89</v>
-      </c>
-      <c r="E21" s="6">
-        <v>11955.00911085255</v>
-      </c>
-      <c r="F21" s="6">
-        <v>74201.670103315133</v>
-      </c>
-      <c r="G21" s="6">
-        <v>6351.1655856093894</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1050.3733329078302</v>
-      </c>
-      <c r="I21" s="6">
-        <v>309927.7</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1173990.19692731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="14" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="B21" s="2">
+        <v>811988.11353599897</v>
+      </c>
+      <c r="C21" s="2">
+        <v>40968.516373219602</v>
+      </c>
+      <c r="D21" s="2">
+        <v>317903.97953210067</v>
+      </c>
+      <c r="E21" s="2">
+        <v>605.95654869939597</v>
+      </c>
+      <c r="F21" s="2">
+        <v>8616.7337184312291</v>
+      </c>
+      <c r="G21" s="2">
+        <v>74201.670103315104</v>
+      </c>
+      <c r="H21" s="2">
+        <v>6351.1655856093903</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1050.37333290783</v>
+      </c>
+      <c r="J21" s="2">
+        <v>174641.83335273399</v>
+      </c>
+      <c r="K21" s="2">
+        <v>194936.10400662717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>2023</v>
       </c>
-      <c r="B22" s="6">
-        <v>491.62218999999999</v>
-      </c>
-      <c r="C22" s="6">
-        <v>728520.65071299905</v>
-      </c>
-      <c r="D22" s="6">
-        <v>367482.72</v>
-      </c>
-      <c r="E22" s="6">
-        <v>7173.0054665115304</v>
-      </c>
-      <c r="F22" s="6">
-        <v>81992.845464163227</v>
-      </c>
-      <c r="G22" s="6">
-        <v>6871.9611636293594</v>
-      </c>
-      <c r="H22" s="6">
-        <v>925.37890629179844</v>
-      </c>
-      <c r="I22" s="6">
-        <v>315506.40000000002</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1319564.9813463001</v>
+      <c r="B22" s="2">
+        <v>836347.75694207905</v>
+      </c>
+      <c r="C22" s="2">
+        <v>41460.138569698203</v>
+      </c>
+      <c r="D22" s="2">
+        <v>344847.65914154379</v>
+      </c>
+      <c r="E22" s="2">
+        <v>742.29677215675997</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8582.2667835574994</v>
+      </c>
+      <c r="G22" s="2">
+        <v>81992.845464163198</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6871.9611636293603</v>
+      </c>
+      <c r="I22" s="2">
+        <v>925.37890629179799</v>
+      </c>
+      <c r="J22" s="2">
+        <v>160495.84485116301</v>
+      </c>
+      <c r="K22" s="2">
+        <v>199798.29578311817</v>
       </c>
     </row>
   </sheetData>
